--- a/Templates/IndexTrackingSheet.xlsx
+++ b/Templates/IndexTrackingSheet.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbisanz/bisanzlab/github/OHMC_Colaboratory/Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4228F6C-3AB3-5243-9F72-9FCE6707243A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E95DB2-2FA2-A240-84DF-2612096C8A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="28300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27660" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample_Layouts" sheetId="8" r:id="rId1"/>
-    <sheet name="PicoGreen" sheetId="9" r:id="rId2"/>
-    <sheet name="Loading.csv" sheetId="12" r:id="rId3"/>
-    <sheet name="SampleSheet.csv" sheetId="1" r:id="rId4"/>
+    <sheet name="384_layout" sheetId="14" r:id="rId2"/>
+    <sheet name="PicoGreen" sheetId="9" r:id="rId3"/>
+    <sheet name="Loading.csv" sheetId="12" r:id="rId4"/>
+    <sheet name="SampleSheet.csv" sheetId="1" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6597" uniqueCount="2854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6629" uniqueCount="2862">
   <si>
     <t>Sample_ID</t>
   </si>
@@ -8598,6 +8599,30 @@
   </si>
   <si>
     <t>JBP0192_i7</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>I</t>
   </si>
 </sst>
 </file>
@@ -8608,7 +8633,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8800,8 +8825,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="4"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="4"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8990,6 +9036,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9221,7 +9285,7 @@
     </xf>
     <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
@@ -9256,6 +9320,23 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -9303,11 +9384,3427 @@
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="標準 2" xfId="42" xr:uid="{371649E2-9C7A-BF42-8EA4-1B3F558ABFA2}"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="495">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -10689,8 +14186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F41528F-A855-CA42-9C22-86E58EF94B09}">
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="120" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="120" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12981,32 +16478,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:M10">
-    <cfRule type="containsBlanks" dxfId="6" priority="8">
+    <cfRule type="containsBlanks" dxfId="494" priority="8">
       <formula>LEN(TRIM(B3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:M20">
-    <cfRule type="containsBlanks" dxfId="5" priority="5">
+    <cfRule type="containsBlanks" dxfId="493" priority="5">
       <formula>LEN(TRIM(B13))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:M30">
-    <cfRule type="containsBlanks" dxfId="4" priority="4">
+    <cfRule type="containsBlanks" dxfId="492" priority="4">
       <formula>LEN(TRIM(B23))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33:M40">
-    <cfRule type="containsBlanks" dxfId="3" priority="3">
+    <cfRule type="containsBlanks" dxfId="491" priority="3">
       <formula>LEN(TRIM(B33))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43:M50">
-    <cfRule type="containsBlanks" dxfId="2" priority="2">
+    <cfRule type="containsBlanks" dxfId="490" priority="2">
       <formula>LEN(TRIM(B43))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53:M60">
-    <cfRule type="containsBlanks" dxfId="1" priority="1">
+    <cfRule type="containsBlanks" dxfId="489" priority="1">
       <formula>LEN(TRIM(B53))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13016,6 +16513,4544 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CAD92ED-C19E-8541-80E8-EF63E302B2BD}">
+  <dimension ref="A1:Y35"/>
+  <sheetViews>
+    <sheetView view="pageLayout" zoomScale="170" zoomScalePageLayoutView="170" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="25" width="4.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="23"/>
+      <c r="B1" s="22">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22">
+        <v>2</v>
+      </c>
+      <c r="D1" s="22">
+        <v>3</v>
+      </c>
+      <c r="E1" s="22">
+        <v>4</v>
+      </c>
+      <c r="F1" s="22">
+        <v>5</v>
+      </c>
+      <c r="G1" s="22">
+        <v>6</v>
+      </c>
+      <c r="H1" s="22">
+        <v>7</v>
+      </c>
+      <c r="I1" s="22">
+        <v>8</v>
+      </c>
+      <c r="J1" s="22">
+        <v>9</v>
+      </c>
+      <c r="K1" s="22">
+        <v>10</v>
+      </c>
+      <c r="L1" s="22">
+        <v>11</v>
+      </c>
+      <c r="M1" s="22">
+        <v>12</v>
+      </c>
+      <c r="N1" s="22">
+        <v>13</v>
+      </c>
+      <c r="O1" s="22">
+        <v>14</v>
+      </c>
+      <c r="P1" s="22">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="22">
+        <v>16</v>
+      </c>
+      <c r="R1" s="22">
+        <v>17</v>
+      </c>
+      <c r="S1" s="22">
+        <v>18</v>
+      </c>
+      <c r="T1" s="22">
+        <v>19</v>
+      </c>
+      <c r="U1" s="22">
+        <v>20</v>
+      </c>
+      <c r="V1" s="22">
+        <v>21</v>
+      </c>
+      <c r="W1" s="22">
+        <v>22</v>
+      </c>
+      <c r="X1" s="22">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="22">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>704</v>
+      </c>
+      <c r="B2" s="24" t="str">
+        <f>Sample_Layouts!$B$3</f>
+        <v>Empty_Plate1_A1</v>
+      </c>
+      <c r="C2" s="24" t="str">
+        <f>Sample_Layouts!$B$23</f>
+        <v>Empty_Plate3_A1</v>
+      </c>
+      <c r="D2" s="24" t="str">
+        <f>Sample_Layouts!$C$3</f>
+        <v>Empty_Plate1_A2</v>
+      </c>
+      <c r="E2" s="24" t="str">
+        <f>Sample_Layouts!$C$23</f>
+        <v>Empty_Plate3_A2</v>
+      </c>
+      <c r="F2" s="24" t="str">
+        <f>Sample_Layouts!$D$3</f>
+        <v>Empty_Plate1_A3</v>
+      </c>
+      <c r="G2" s="24" t="str">
+        <f>Sample_Layouts!$D$23</f>
+        <v>Empty_Plate3_A3</v>
+      </c>
+      <c r="H2" s="24" t="str">
+        <f>Sample_Layouts!$E$3</f>
+        <v>Empty_Plate1_A4</v>
+      </c>
+      <c r="I2" s="24" t="str">
+        <f>Sample_Layouts!$E$23</f>
+        <v>Empty_Plate3_A4</v>
+      </c>
+      <c r="J2" s="24" t="str">
+        <f>Sample_Layouts!$F$3</f>
+        <v>Empty_Plate1_A5</v>
+      </c>
+      <c r="K2" s="24" t="str">
+        <f>Sample_Layouts!$F$23</f>
+        <v>Empty_Plate3_A5</v>
+      </c>
+      <c r="L2" s="24" t="str">
+        <f>Sample_Layouts!$G$3</f>
+        <v>Empty_Plate1_A6</v>
+      </c>
+      <c r="M2" s="24" t="str">
+        <f>Sample_Layouts!$G$23</f>
+        <v>Empty_Plate3_A6</v>
+      </c>
+      <c r="N2" s="24" t="str">
+        <f>Sample_Layouts!$H$3</f>
+        <v>Empty_Plate1_A7</v>
+      </c>
+      <c r="O2" s="24" t="str">
+        <f>Sample_Layouts!$H$23</f>
+        <v>Empty_Plate3_A7</v>
+      </c>
+      <c r="P2" s="24" t="str">
+        <f>Sample_Layouts!$I$3</f>
+        <v>Empty_Plate1_A8</v>
+      </c>
+      <c r="Q2" s="24" t="str">
+        <f>Sample_Layouts!$I$23</f>
+        <v>Empty_Plate3_A8</v>
+      </c>
+      <c r="R2" s="24" t="str">
+        <f>Sample_Layouts!$J$3</f>
+        <v>Empty_Plate1_A9</v>
+      </c>
+      <c r="S2" s="24" t="str">
+        <f>Sample_Layouts!$J$23</f>
+        <v>Empty_Plate3_A9</v>
+      </c>
+      <c r="T2" s="24" t="str">
+        <f>Sample_Layouts!$K$3</f>
+        <v>Empty_Plate1_A10</v>
+      </c>
+      <c r="U2" s="24" t="str">
+        <f>Sample_Layouts!$K$23</f>
+        <v>Empty_Plate3_A10</v>
+      </c>
+      <c r="V2" s="24" t="str">
+        <f>Sample_Layouts!$L$3</f>
+        <v>Empty_Plate1_A11</v>
+      </c>
+      <c r="W2" s="24" t="str">
+        <f>Sample_Layouts!$L$23</f>
+        <v>Empty_Plate3_A11</v>
+      </c>
+      <c r="X2" s="24" t="str">
+        <f>Sample_Layouts!$M$3</f>
+        <v>Empty_Plate1_A12</v>
+      </c>
+      <c r="Y2" s="24" t="str">
+        <f>Sample_Layouts!$M$23</f>
+        <v>Empty_Plate3_A12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
+        <v>705</v>
+      </c>
+      <c r="B3" s="24" t="str">
+        <f>Sample_Layouts!$B$13</f>
+        <v>Empty_Plate2_A1</v>
+      </c>
+      <c r="C3" s="24" t="str">
+        <f>Sample_Layouts!$B$33</f>
+        <v>Empty_Plate4_A1</v>
+      </c>
+      <c r="D3" s="24" t="str">
+        <f>Sample_Layouts!$C$13</f>
+        <v>Empty_Plate2_A2</v>
+      </c>
+      <c r="E3" s="24" t="str">
+        <f>Sample_Layouts!$C$33</f>
+        <v>Empty_Plate4_A2</v>
+      </c>
+      <c r="F3" s="24" t="str">
+        <f>Sample_Layouts!$D$13</f>
+        <v>Empty_Plate2_A3</v>
+      </c>
+      <c r="G3" s="24" t="str">
+        <f>Sample_Layouts!$D$33</f>
+        <v>Empty_Plate4_A3</v>
+      </c>
+      <c r="H3" s="24" t="str">
+        <f>Sample_Layouts!$E$13</f>
+        <v>Empty_Plate2_A4</v>
+      </c>
+      <c r="I3" s="24" t="str">
+        <f>Sample_Layouts!$E$33</f>
+        <v>Empty_Plate4_A4</v>
+      </c>
+      <c r="J3" s="24" t="str">
+        <f>Sample_Layouts!$F$13</f>
+        <v>Empty_Plate2_A5</v>
+      </c>
+      <c r="K3" s="24" t="str">
+        <f>Sample_Layouts!$F$33</f>
+        <v>Empty_Plate4_A5</v>
+      </c>
+      <c r="L3" s="24" t="str">
+        <f>Sample_Layouts!$G$13</f>
+        <v>Empty_Plate2_A6</v>
+      </c>
+      <c r="M3" s="24" t="str">
+        <f>Sample_Layouts!$G$33</f>
+        <v>Empty_Plate4_A6</v>
+      </c>
+      <c r="N3" s="24" t="str">
+        <f>Sample_Layouts!$H$13</f>
+        <v>Empty_Plate2_A7</v>
+      </c>
+      <c r="O3" s="24" t="str">
+        <f>Sample_Layouts!$H$33</f>
+        <v>Empty_Plate4_A7</v>
+      </c>
+      <c r="P3" s="24" t="str">
+        <f>Sample_Layouts!$I$13</f>
+        <v>Empty_Plate2_A8</v>
+      </c>
+      <c r="Q3" s="24" t="str">
+        <f>Sample_Layouts!$I$33</f>
+        <v>Empty_Plate4_A8</v>
+      </c>
+      <c r="R3" s="24" t="str">
+        <f>Sample_Layouts!$J$13</f>
+        <v>Empty_Plate2_A9</v>
+      </c>
+      <c r="S3" s="24" t="str">
+        <f>Sample_Layouts!$J$33</f>
+        <v>Empty_Plate4_A9</v>
+      </c>
+      <c r="T3" s="24" t="str">
+        <f>Sample_Layouts!$K$13</f>
+        <v>Empty_Plate2_A10</v>
+      </c>
+      <c r="U3" s="24" t="str">
+        <f>Sample_Layouts!$K$33</f>
+        <v>Empty_Plate4_A10</v>
+      </c>
+      <c r="V3" s="24" t="str">
+        <f>Sample_Layouts!$L$13</f>
+        <v>Empty_Plate2_A11</v>
+      </c>
+      <c r="W3" s="24" t="str">
+        <f>Sample_Layouts!$L$33</f>
+        <v>Empty_Plate4_A11</v>
+      </c>
+      <c r="X3" s="24" t="str">
+        <f>Sample_Layouts!$M$13</f>
+        <v>Empty_Plate2_A12</v>
+      </c>
+      <c r="Y3" s="24" t="str">
+        <f>Sample_Layouts!$M$33</f>
+        <v>Empty_Plate4_A12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
+        <v>706</v>
+      </c>
+      <c r="B4" s="24" t="str">
+        <f>Sample_Layouts!$B$4</f>
+        <v>Empty_Plate1_B1</v>
+      </c>
+      <c r="C4" s="24" t="str">
+        <f>Sample_Layouts!$B$24</f>
+        <v>Empty_Plate3_B1</v>
+      </c>
+      <c r="D4" s="24" t="str">
+        <f>Sample_Layouts!$C$4</f>
+        <v>Empty_Plate1_B2</v>
+      </c>
+      <c r="E4" s="24" t="str">
+        <f>Sample_Layouts!$C$24</f>
+        <v>Empty_Plate3_B2</v>
+      </c>
+      <c r="F4" s="24" t="str">
+        <f>Sample_Layouts!$D$4</f>
+        <v>Empty_Plate1_B3</v>
+      </c>
+      <c r="G4" s="24" t="str">
+        <f>Sample_Layouts!$D$24</f>
+        <v>Empty_Plate3_B3</v>
+      </c>
+      <c r="H4" s="24" t="str">
+        <f>Sample_Layouts!$E$4</f>
+        <v>Empty_Plate1_B4</v>
+      </c>
+      <c r="I4" s="24" t="str">
+        <f>Sample_Layouts!$E$24</f>
+        <v>Empty_Plate3_B4</v>
+      </c>
+      <c r="J4" s="24" t="str">
+        <f>Sample_Layouts!$F$4</f>
+        <v>Empty_Plate1_B5</v>
+      </c>
+      <c r="K4" s="24" t="str">
+        <f>Sample_Layouts!$F$24</f>
+        <v>Empty_Plate3_B5</v>
+      </c>
+      <c r="L4" s="24" t="str">
+        <f>Sample_Layouts!$G$4</f>
+        <v>Empty_Plate1_B6</v>
+      </c>
+      <c r="M4" s="24" t="str">
+        <f>Sample_Layouts!$G$24</f>
+        <v>Empty_Plate3_B6</v>
+      </c>
+      <c r="N4" s="24" t="str">
+        <f>Sample_Layouts!$H$4</f>
+        <v>Empty_Plate1_B7</v>
+      </c>
+      <c r="O4" s="24" t="str">
+        <f>Sample_Layouts!$H$24</f>
+        <v>Empty_Plate3_B7</v>
+      </c>
+      <c r="P4" s="24" t="str">
+        <f>Sample_Layouts!$I$4</f>
+        <v>Empty_Plate1_B8</v>
+      </c>
+      <c r="Q4" s="24" t="str">
+        <f>Sample_Layouts!$I$24</f>
+        <v>Empty_Plate3_B8</v>
+      </c>
+      <c r="R4" s="24" t="str">
+        <f>Sample_Layouts!$J$4</f>
+        <v>Empty_Plate1_B9</v>
+      </c>
+      <c r="S4" s="24" t="str">
+        <f>Sample_Layouts!$J$24</f>
+        <v>Empty_Plate3_B9</v>
+      </c>
+      <c r="T4" s="24" t="str">
+        <f>Sample_Layouts!$K$4</f>
+        <v>Empty_Plate1_B10</v>
+      </c>
+      <c r="U4" s="24" t="str">
+        <f>Sample_Layouts!$K$24</f>
+        <v>Empty_Plate3_B10</v>
+      </c>
+      <c r="V4" s="24" t="str">
+        <f>Sample_Layouts!$L$4</f>
+        <v>Empty_Plate1_B11</v>
+      </c>
+      <c r="W4" s="24" t="str">
+        <f>Sample_Layouts!$L$24</f>
+        <v>Empty_Plate3_B11</v>
+      </c>
+      <c r="X4" s="24" t="str">
+        <f>Sample_Layouts!$M$4</f>
+        <v>Empty_Plate1_B12</v>
+      </c>
+      <c r="Y4" s="24" t="str">
+        <f>Sample_Layouts!$M$24</f>
+        <v>Empty_Plate3_B12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
+        <v>707</v>
+      </c>
+      <c r="B5" s="24" t="str">
+        <f>Sample_Layouts!$B$14</f>
+        <v>Empty_Plate2_B1</v>
+      </c>
+      <c r="C5" s="24" t="str">
+        <f>Sample_Layouts!$B$34</f>
+        <v>Empty_Plate4_B1</v>
+      </c>
+      <c r="D5" s="24" t="str">
+        <f>Sample_Layouts!$C$14</f>
+        <v>Empty_Plate2_B2</v>
+      </c>
+      <c r="E5" s="24" t="str">
+        <f>Sample_Layouts!$C$34</f>
+        <v>Empty_Plate4_B2</v>
+      </c>
+      <c r="F5" s="24" t="str">
+        <f>Sample_Layouts!$D$14</f>
+        <v>Empty_Plate2_B3</v>
+      </c>
+      <c r="G5" s="24" t="str">
+        <f>Sample_Layouts!$D$34</f>
+        <v>Empty_Plate4_B3</v>
+      </c>
+      <c r="H5" s="24" t="str">
+        <f>Sample_Layouts!$E$14</f>
+        <v>Empty_Plate2_B4</v>
+      </c>
+      <c r="I5" s="24" t="str">
+        <f>Sample_Layouts!$E$34</f>
+        <v>Empty_Plate4_B4</v>
+      </c>
+      <c r="J5" s="24" t="str">
+        <f>Sample_Layouts!$F$14</f>
+        <v>Empty_Plate2_B5</v>
+      </c>
+      <c r="K5" s="24" t="str">
+        <f>Sample_Layouts!$F$34</f>
+        <v>Empty_Plate4_B5</v>
+      </c>
+      <c r="L5" s="24" t="str">
+        <f>Sample_Layouts!$G$14</f>
+        <v>Empty_Plate2_B6</v>
+      </c>
+      <c r="M5" s="24" t="str">
+        <f>Sample_Layouts!$G$34</f>
+        <v>Empty_Plate4_B6</v>
+      </c>
+      <c r="N5" s="24" t="str">
+        <f>Sample_Layouts!$H$14</f>
+        <v>Empty_Plate2_B7</v>
+      </c>
+      <c r="O5" s="24" t="str">
+        <f>Sample_Layouts!$H$34</f>
+        <v>Empty_Plate4_B7</v>
+      </c>
+      <c r="P5" s="24" t="str">
+        <f>Sample_Layouts!$I$14</f>
+        <v>Empty_Plate2_B8</v>
+      </c>
+      <c r="Q5" s="24" t="str">
+        <f>Sample_Layouts!$I$34</f>
+        <v>Empty_Plate4_B8</v>
+      </c>
+      <c r="R5" s="24" t="str">
+        <f>Sample_Layouts!$J$14</f>
+        <v>Empty_Plate2_B9</v>
+      </c>
+      <c r="S5" s="24" t="str">
+        <f>Sample_Layouts!$J$34</f>
+        <v>Empty_Plate4_B9</v>
+      </c>
+      <c r="T5" s="24" t="str">
+        <f>Sample_Layouts!$K$14</f>
+        <v>Empty_Plate2_B10</v>
+      </c>
+      <c r="U5" s="24" t="str">
+        <f>Sample_Layouts!$K$34</f>
+        <v>Empty_Plate4_B10</v>
+      </c>
+      <c r="V5" s="24" t="str">
+        <f>Sample_Layouts!$L$14</f>
+        <v>Empty_Plate2_B11</v>
+      </c>
+      <c r="W5" s="24" t="str">
+        <f>Sample_Layouts!$L$34</f>
+        <v>Empty_Plate4_B11</v>
+      </c>
+      <c r="X5" s="24" t="str">
+        <f>Sample_Layouts!$M$14</f>
+        <v>Empty_Plate2_B12</v>
+      </c>
+      <c r="Y5" s="24" t="str">
+        <f>Sample_Layouts!$M$34</f>
+        <v>Empty_Plate4_B12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="22" t="s">
+        <v>708</v>
+      </c>
+      <c r="B6" s="24" t="str">
+        <f>Sample_Layouts!$B$5</f>
+        <v>Empty_Plate1_C1</v>
+      </c>
+      <c r="C6" s="24" t="str">
+        <f>Sample_Layouts!$B$25</f>
+        <v>Empty_Plate3_C1</v>
+      </c>
+      <c r="D6" s="24" t="str">
+        <f>Sample_Layouts!$C$5</f>
+        <v>Empty_Plate1_C2</v>
+      </c>
+      <c r="E6" s="24" t="str">
+        <f>Sample_Layouts!$C$25</f>
+        <v>Empty_Plate3_C2</v>
+      </c>
+      <c r="F6" s="24" t="str">
+        <f>Sample_Layouts!$D$5</f>
+        <v>Empty_Plate1_C3</v>
+      </c>
+      <c r="G6" s="24" t="str">
+        <f>Sample_Layouts!$D$25</f>
+        <v>Empty_Plate3_C3</v>
+      </c>
+      <c r="H6" s="24" t="str">
+        <f>Sample_Layouts!$E$5</f>
+        <v>Empty_Plate1_C4</v>
+      </c>
+      <c r="I6" s="24" t="str">
+        <f>Sample_Layouts!$E$25</f>
+        <v>Empty_Plate3_C4</v>
+      </c>
+      <c r="J6" s="24" t="str">
+        <f>Sample_Layouts!$F$5</f>
+        <v>Empty_Plate1_C5</v>
+      </c>
+      <c r="K6" s="24" t="str">
+        <f>Sample_Layouts!$F$25</f>
+        <v>Empty_Plate3_C5</v>
+      </c>
+      <c r="L6" s="24" t="str">
+        <f>Sample_Layouts!$G$5</f>
+        <v>Empty_Plate1_C6</v>
+      </c>
+      <c r="M6" s="24" t="str">
+        <f>Sample_Layouts!$G$25</f>
+        <v>Empty_Plate3_C6</v>
+      </c>
+      <c r="N6" s="24" t="str">
+        <f>Sample_Layouts!$H$5</f>
+        <v>Empty_Plate1_C7</v>
+      </c>
+      <c r="O6" s="24" t="str">
+        <f>Sample_Layouts!$H$25</f>
+        <v>Empty_Plate3_C7</v>
+      </c>
+      <c r="P6" s="24" t="str">
+        <f>Sample_Layouts!$I$5</f>
+        <v>Empty_Plate1_C8</v>
+      </c>
+      <c r="Q6" s="24" t="str">
+        <f>Sample_Layouts!$I$25</f>
+        <v>Empty_Plate3_C8</v>
+      </c>
+      <c r="R6" s="24" t="str">
+        <f>Sample_Layouts!$J$5</f>
+        <v>Empty_Plate1_C9</v>
+      </c>
+      <c r="S6" s="24" t="str">
+        <f>Sample_Layouts!$J$25</f>
+        <v>Empty_Plate3_C9</v>
+      </c>
+      <c r="T6" s="24" t="str">
+        <f>Sample_Layouts!$K$5</f>
+        <v>Empty_Plate1_C10</v>
+      </c>
+      <c r="U6" s="24" t="str">
+        <f>Sample_Layouts!$K$25</f>
+        <v>Empty_Plate3_C10</v>
+      </c>
+      <c r="V6" s="24" t="str">
+        <f>Sample_Layouts!$L$5</f>
+        <v>Empty_Plate1_C11</v>
+      </c>
+      <c r="W6" s="24" t="str">
+        <f>Sample_Layouts!$L$25</f>
+        <v>Empty_Plate3_C11</v>
+      </c>
+      <c r="X6" s="24" t="str">
+        <f>Sample_Layouts!$M$5</f>
+        <v>Empty_Plate1_C12</v>
+      </c>
+      <c r="Y6" s="24" t="str">
+        <f>Sample_Layouts!$M$25</f>
+        <v>Empty_Plate3_C12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
+        <v>709</v>
+      </c>
+      <c r="B7" s="24" t="str">
+        <f>Sample_Layouts!$B$15</f>
+        <v>Empty_Plate2_C1</v>
+      </c>
+      <c r="C7" s="24" t="str">
+        <f>Sample_Layouts!$B$35</f>
+        <v>Empty_Plate4_C1</v>
+      </c>
+      <c r="D7" s="24" t="str">
+        <f>Sample_Layouts!$C$15</f>
+        <v>Empty_Plate2_C2</v>
+      </c>
+      <c r="E7" s="24" t="str">
+        <f>Sample_Layouts!$C$35</f>
+        <v>Empty_Plate4_C2</v>
+      </c>
+      <c r="F7" s="24" t="str">
+        <f>Sample_Layouts!$D$15</f>
+        <v>Empty_Plate2_C3</v>
+      </c>
+      <c r="G7" s="24" t="str">
+        <f>Sample_Layouts!$D$35</f>
+        <v>Empty_Plate4_C3</v>
+      </c>
+      <c r="H7" s="24" t="str">
+        <f>Sample_Layouts!$E$15</f>
+        <v>Empty_Plate2_C4</v>
+      </c>
+      <c r="I7" s="24" t="str">
+        <f>Sample_Layouts!$E$35</f>
+        <v>Empty_Plate4_C4</v>
+      </c>
+      <c r="J7" s="24" t="str">
+        <f>Sample_Layouts!$F$15</f>
+        <v>Empty_Plate2_C5</v>
+      </c>
+      <c r="K7" s="24" t="str">
+        <f>Sample_Layouts!$F$35</f>
+        <v>Empty_Plate4_C5</v>
+      </c>
+      <c r="L7" s="24" t="str">
+        <f>Sample_Layouts!$G$15</f>
+        <v>Empty_Plate2_C6</v>
+      </c>
+      <c r="M7" s="24" t="str">
+        <f>Sample_Layouts!$G$35</f>
+        <v>Empty_Plate4_C6</v>
+      </c>
+      <c r="N7" s="24" t="str">
+        <f>Sample_Layouts!$H$15</f>
+        <v>Empty_Plate2_C7</v>
+      </c>
+      <c r="O7" s="24" t="str">
+        <f>Sample_Layouts!$H$35</f>
+        <v>Empty_Plate4_C7</v>
+      </c>
+      <c r="P7" s="24" t="str">
+        <f>Sample_Layouts!$I$15</f>
+        <v>Empty_Plate2_C8</v>
+      </c>
+      <c r="Q7" s="24" t="str">
+        <f>Sample_Layouts!$I$35</f>
+        <v>Empty_Plate4_C8</v>
+      </c>
+      <c r="R7" s="24" t="str">
+        <f>Sample_Layouts!$J$15</f>
+        <v>Empty_Plate2_C9</v>
+      </c>
+      <c r="S7" s="24" t="str">
+        <f>Sample_Layouts!$J$35</f>
+        <v>Empty_Plate4_C9</v>
+      </c>
+      <c r="T7" s="24" t="str">
+        <f>Sample_Layouts!$K$15</f>
+        <v>Empty_Plate2_C10</v>
+      </c>
+      <c r="U7" s="24" t="str">
+        <f>Sample_Layouts!$K$35</f>
+        <v>Empty_Plate4_C10</v>
+      </c>
+      <c r="V7" s="24" t="str">
+        <f>Sample_Layouts!$L$15</f>
+        <v>Empty_Plate2_C11</v>
+      </c>
+      <c r="W7" s="24" t="str">
+        <f>Sample_Layouts!$L$35</f>
+        <v>Empty_Plate4_C11</v>
+      </c>
+      <c r="X7" s="24" t="str">
+        <f>Sample_Layouts!$M$15</f>
+        <v>Empty_Plate2_C12</v>
+      </c>
+      <c r="Y7" s="24" t="str">
+        <f>Sample_Layouts!$M$35</f>
+        <v>Empty_Plate4_C12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="22" t="s">
+        <v>710</v>
+      </c>
+      <c r="B8" s="24" t="str">
+        <f>Sample_Layouts!$B$6</f>
+        <v>Empty_Plate1_D1</v>
+      </c>
+      <c r="C8" s="25" t="str">
+        <f>Sample_Layouts!$B$26</f>
+        <v>Empty_Plate3_D1</v>
+      </c>
+      <c r="D8" s="24" t="str">
+        <f>Sample_Layouts!$C$6</f>
+        <v>Empty_Plate1_D2</v>
+      </c>
+      <c r="E8" s="25" t="str">
+        <f>Sample_Layouts!$C$26</f>
+        <v>Empty_Plate3_D2</v>
+      </c>
+      <c r="F8" s="24" t="str">
+        <f>Sample_Layouts!$D$6</f>
+        <v>Empty_Plate1_D3</v>
+      </c>
+      <c r="G8" s="25" t="str">
+        <f>Sample_Layouts!$D$26</f>
+        <v>Empty_Plate3_D3</v>
+      </c>
+      <c r="H8" s="24" t="str">
+        <f>Sample_Layouts!$E$6</f>
+        <v>Empty_Plate1_D4</v>
+      </c>
+      <c r="I8" s="25" t="str">
+        <f>Sample_Layouts!$E$26</f>
+        <v>Empty_Plate3_D4</v>
+      </c>
+      <c r="J8" s="24" t="str">
+        <f>Sample_Layouts!$F$6</f>
+        <v>Empty_Plate1_D5</v>
+      </c>
+      <c r="K8" s="25" t="str">
+        <f>Sample_Layouts!$F$26</f>
+        <v>Empty_Plate3_D5</v>
+      </c>
+      <c r="L8" s="24" t="str">
+        <f>Sample_Layouts!$G$6</f>
+        <v>Empty_Plate1_D6</v>
+      </c>
+      <c r="M8" s="25" t="str">
+        <f>Sample_Layouts!$G$26</f>
+        <v>Empty_Plate3_D6</v>
+      </c>
+      <c r="N8" s="24" t="str">
+        <f>Sample_Layouts!$H$6</f>
+        <v>Empty_Plate1_D7</v>
+      </c>
+      <c r="O8" s="25" t="str">
+        <f>Sample_Layouts!$H$26</f>
+        <v>Empty_Plate3_D7</v>
+      </c>
+      <c r="P8" s="24" t="str">
+        <f>Sample_Layouts!$I$6</f>
+        <v>Empty_Plate1_D8</v>
+      </c>
+      <c r="Q8" s="25" t="str">
+        <f>Sample_Layouts!$I$26</f>
+        <v>Empty_Plate3_D8</v>
+      </c>
+      <c r="R8" s="24" t="str">
+        <f>Sample_Layouts!$J$6</f>
+        <v>Empty_Plate1_D9</v>
+      </c>
+      <c r="S8" s="25" t="str">
+        <f>Sample_Layouts!$J$26</f>
+        <v>Empty_Plate3_D9</v>
+      </c>
+      <c r="T8" s="24" t="str">
+        <f>Sample_Layouts!$K$6</f>
+        <v>Empty_Plate1_D10</v>
+      </c>
+      <c r="U8" s="25" t="str">
+        <f>Sample_Layouts!$K$26</f>
+        <v>Empty_Plate3_D10</v>
+      </c>
+      <c r="V8" s="24" t="str">
+        <f>Sample_Layouts!$L$6</f>
+        <v>Empty_Plate1_D11</v>
+      </c>
+      <c r="W8" s="25" t="str">
+        <f>Sample_Layouts!$L$26</f>
+        <v>Empty_Plate3_D11</v>
+      </c>
+      <c r="X8" s="24" t="str">
+        <f>Sample_Layouts!$M$6</f>
+        <v>Empty_Plate1_D12</v>
+      </c>
+      <c r="Y8" s="25" t="str">
+        <f>Sample_Layouts!$M$26</f>
+        <v>Empty_Plate3_D12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="22" t="s">
+        <v>711</v>
+      </c>
+      <c r="B9" s="24" t="str">
+        <f>Sample_Layouts!$B$16</f>
+        <v>Empty_Plate2_D1</v>
+      </c>
+      <c r="C9" s="24" t="str">
+        <f>Sample_Layouts!$B$36</f>
+        <v>Empty_Plate4_D1</v>
+      </c>
+      <c r="D9" s="24" t="str">
+        <f>Sample_Layouts!$C$16</f>
+        <v>Empty_Plate2_D2</v>
+      </c>
+      <c r="E9" s="24" t="str">
+        <f>Sample_Layouts!$C$36</f>
+        <v>Empty_Plate4_D2</v>
+      </c>
+      <c r="F9" s="24" t="str">
+        <f>Sample_Layouts!$D$16</f>
+        <v>Empty_Plate2_D3</v>
+      </c>
+      <c r="G9" s="24" t="str">
+        <f>Sample_Layouts!$D$36</f>
+        <v>Empty_Plate4_D3</v>
+      </c>
+      <c r="H9" s="24" t="str">
+        <f>Sample_Layouts!$E$16</f>
+        <v>Empty_Plate2_D4</v>
+      </c>
+      <c r="I9" s="24" t="str">
+        <f>Sample_Layouts!$E$36</f>
+        <v>Empty_Plate4_D4</v>
+      </c>
+      <c r="J9" s="24" t="str">
+        <f>Sample_Layouts!$F$16</f>
+        <v>Empty_Plate2_D5</v>
+      </c>
+      <c r="K9" s="24" t="str">
+        <f>Sample_Layouts!$F$36</f>
+        <v>Empty_Plate4_D5</v>
+      </c>
+      <c r="L9" s="24" t="str">
+        <f>Sample_Layouts!$G$16</f>
+        <v>Empty_Plate2_D6</v>
+      </c>
+      <c r="M9" s="24" t="str">
+        <f>Sample_Layouts!$G$36</f>
+        <v>Empty_Plate4_D6</v>
+      </c>
+      <c r="N9" s="24" t="str">
+        <f>Sample_Layouts!$H$16</f>
+        <v>Empty_Plate2_D7</v>
+      </c>
+      <c r="O9" s="24" t="str">
+        <f>Sample_Layouts!$H$36</f>
+        <v>Empty_Plate4_D7</v>
+      </c>
+      <c r="P9" s="24" t="str">
+        <f>Sample_Layouts!$I$16</f>
+        <v>Empty_Plate2_D8</v>
+      </c>
+      <c r="Q9" s="24" t="str">
+        <f>Sample_Layouts!$I$36</f>
+        <v>Empty_Plate4_D8</v>
+      </c>
+      <c r="R9" s="24" t="str">
+        <f>Sample_Layouts!$J$16</f>
+        <v>Empty_Plate2_D9</v>
+      </c>
+      <c r="S9" s="24" t="str">
+        <f>Sample_Layouts!$J$36</f>
+        <v>Empty_Plate4_D9</v>
+      </c>
+      <c r="T9" s="24" t="str">
+        <f>Sample_Layouts!$K$16</f>
+        <v>Empty_Plate2_D10</v>
+      </c>
+      <c r="U9" s="24" t="str">
+        <f>Sample_Layouts!$K$36</f>
+        <v>Empty_Plate4_D10</v>
+      </c>
+      <c r="V9" s="24" t="str">
+        <f>Sample_Layouts!$L$16</f>
+        <v>Empty_Plate2_D11</v>
+      </c>
+      <c r="W9" s="24" t="str">
+        <f>Sample_Layouts!$L$36</f>
+        <v>Empty_Plate4_D11</v>
+      </c>
+      <c r="X9" s="24" t="str">
+        <f>Sample_Layouts!$M$16</f>
+        <v>Empty_Plate2_D12</v>
+      </c>
+      <c r="Y9" s="24" t="str">
+        <f>Sample_Layouts!$M$36</f>
+        <v>Empty_Plate4_D12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="22" t="s">
+        <v>2861</v>
+      </c>
+      <c r="B10" s="24" t="str">
+        <f>Sample_Layouts!$B$7</f>
+        <v>Empty_Plate1_E1</v>
+      </c>
+      <c r="C10" s="25" t="str">
+        <f>Sample_Layouts!$B$27</f>
+        <v>Empty_Plate3_E1</v>
+      </c>
+      <c r="D10" s="24" t="str">
+        <f>Sample_Layouts!$C$7</f>
+        <v>Empty_Plate1_E2</v>
+      </c>
+      <c r="E10" s="25" t="str">
+        <f>Sample_Layouts!$C$27</f>
+        <v>Empty_Plate3_E2</v>
+      </c>
+      <c r="F10" s="24" t="str">
+        <f>Sample_Layouts!$D$7</f>
+        <v>Empty_Plate1_E3</v>
+      </c>
+      <c r="G10" s="25" t="str">
+        <f>Sample_Layouts!$D$27</f>
+        <v>Empty_Plate3_E3</v>
+      </c>
+      <c r="H10" s="24" t="str">
+        <f>Sample_Layouts!$E$7</f>
+        <v>Empty_Plate1_E4</v>
+      </c>
+      <c r="I10" s="25" t="str">
+        <f>Sample_Layouts!$E$27</f>
+        <v>Empty_Plate3_E4</v>
+      </c>
+      <c r="J10" s="24" t="str">
+        <f>Sample_Layouts!$F$7</f>
+        <v>Empty_Plate1_E5</v>
+      </c>
+      <c r="K10" s="25" t="str">
+        <f>Sample_Layouts!$F$27</f>
+        <v>Empty_Plate3_E5</v>
+      </c>
+      <c r="L10" s="24" t="str">
+        <f>Sample_Layouts!$G$7</f>
+        <v>Empty_Plate1_E6</v>
+      </c>
+      <c r="M10" s="25" t="str">
+        <f>Sample_Layouts!$G$27</f>
+        <v>Empty_Plate3_E6</v>
+      </c>
+      <c r="N10" s="24" t="str">
+        <f>Sample_Layouts!$H$7</f>
+        <v>Empty_Plate1_E7</v>
+      </c>
+      <c r="O10" s="25" t="str">
+        <f>Sample_Layouts!$H$27</f>
+        <v>Empty_Plate3_E7</v>
+      </c>
+      <c r="P10" s="24" t="str">
+        <f>Sample_Layouts!$I$7</f>
+        <v>Empty_Plate1_E8</v>
+      </c>
+      <c r="Q10" s="25" t="str">
+        <f>Sample_Layouts!$I$27</f>
+        <v>Empty_Plate3_E8</v>
+      </c>
+      <c r="R10" s="24" t="str">
+        <f>Sample_Layouts!$J$7</f>
+        <v>Empty_Plate1_E9</v>
+      </c>
+      <c r="S10" s="25" t="str">
+        <f>Sample_Layouts!$J$27</f>
+        <v>Empty_Plate3_E9</v>
+      </c>
+      <c r="T10" s="24" t="str">
+        <f>Sample_Layouts!$K$7</f>
+        <v>Empty_Plate1_E10</v>
+      </c>
+      <c r="U10" s="25" t="str">
+        <f>Sample_Layouts!$K$27</f>
+        <v>Empty_Plate3_E10</v>
+      </c>
+      <c r="V10" s="24" t="str">
+        <f>Sample_Layouts!$L$7</f>
+        <v>Empty_Plate1_E11</v>
+      </c>
+      <c r="W10" s="25" t="str">
+        <f>Sample_Layouts!$L$27</f>
+        <v>Empty_Plate3_E11</v>
+      </c>
+      <c r="X10" s="24" t="str">
+        <f>Sample_Layouts!$M$7</f>
+        <v>Empty_Plate1_E12</v>
+      </c>
+      <c r="Y10" s="25" t="str">
+        <f>Sample_Layouts!$M$27</f>
+        <v>Empty_Plate3_E12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="22" t="s">
+        <v>2860</v>
+      </c>
+      <c r="B11" s="24" t="str">
+        <f>Sample_Layouts!$B$17</f>
+        <v>Empty_Plate2_E1</v>
+      </c>
+      <c r="C11" s="24" t="str">
+        <f>Sample_Layouts!$B$37</f>
+        <v>Empty_Plate4_E1</v>
+      </c>
+      <c r="D11" s="24" t="str">
+        <f>Sample_Layouts!$C$17</f>
+        <v>Empty_Plate2_E2</v>
+      </c>
+      <c r="E11" s="24" t="str">
+        <f>Sample_Layouts!$C$37</f>
+        <v>Empty_Plate4_E2</v>
+      </c>
+      <c r="F11" s="24" t="str">
+        <f>Sample_Layouts!$D$17</f>
+        <v>Empty_Plate2_E3</v>
+      </c>
+      <c r="G11" s="24" t="str">
+        <f>Sample_Layouts!$D$37</f>
+        <v>Empty_Plate4_E3</v>
+      </c>
+      <c r="H11" s="24" t="str">
+        <f>Sample_Layouts!$E$17</f>
+        <v>Empty_Plate2_E4</v>
+      </c>
+      <c r="I11" s="24" t="str">
+        <f>Sample_Layouts!$E$37</f>
+        <v>Empty_Plate4_E4</v>
+      </c>
+      <c r="J11" s="24" t="str">
+        <f>Sample_Layouts!$F$17</f>
+        <v>Empty_Plate2_E5</v>
+      </c>
+      <c r="K11" s="24" t="str">
+        <f>Sample_Layouts!$F$37</f>
+        <v>Empty_Plate4_E5</v>
+      </c>
+      <c r="L11" s="24" t="str">
+        <f>Sample_Layouts!$G$17</f>
+        <v>Empty_Plate2_E6</v>
+      </c>
+      <c r="M11" s="24" t="str">
+        <f>Sample_Layouts!$G$37</f>
+        <v>Empty_Plate4_E6</v>
+      </c>
+      <c r="N11" s="24" t="str">
+        <f>Sample_Layouts!$H$17</f>
+        <v>Empty_Plate2_E7</v>
+      </c>
+      <c r="O11" s="24" t="str">
+        <f>Sample_Layouts!$H$37</f>
+        <v>Empty_Plate4_E7</v>
+      </c>
+      <c r="P11" s="24" t="str">
+        <f>Sample_Layouts!$I$17</f>
+        <v>Empty_Plate2_E8</v>
+      </c>
+      <c r="Q11" s="24" t="str">
+        <f>Sample_Layouts!$I$37</f>
+        <v>Empty_Plate4_E8</v>
+      </c>
+      <c r="R11" s="24" t="str">
+        <f>Sample_Layouts!$J$17</f>
+        <v>Empty_Plate2_E9</v>
+      </c>
+      <c r="S11" s="24" t="str">
+        <f>Sample_Layouts!$J$37</f>
+        <v>Empty_Plate4_E9</v>
+      </c>
+      <c r="T11" s="24" t="str">
+        <f>Sample_Layouts!$K$17</f>
+        <v>Empty_Plate2_E10</v>
+      </c>
+      <c r="U11" s="24" t="str">
+        <f>Sample_Layouts!$K$37</f>
+        <v>Empty_Plate4_E10</v>
+      </c>
+      <c r="V11" s="24" t="str">
+        <f>Sample_Layouts!$L$17</f>
+        <v>Empty_Plate2_E11</v>
+      </c>
+      <c r="W11" s="24" t="str">
+        <f>Sample_Layouts!$L$37</f>
+        <v>Empty_Plate4_E11</v>
+      </c>
+      <c r="X11" s="24" t="str">
+        <f>Sample_Layouts!$M$17</f>
+        <v>Empty_Plate2_E12</v>
+      </c>
+      <c r="Y11" s="24" t="str">
+        <f>Sample_Layouts!$M$37</f>
+        <v>Empty_Plate4_E12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="22" t="s">
+        <v>2859</v>
+      </c>
+      <c r="B12" s="24" t="str">
+        <f>Sample_Layouts!$B$8</f>
+        <v>Empty_Plate1_F1</v>
+      </c>
+      <c r="C12" s="25" t="str">
+        <f>Sample_Layouts!$B$28</f>
+        <v>Empty_Plate3_F1</v>
+      </c>
+      <c r="D12" s="24" t="str">
+        <f>Sample_Layouts!$C$8</f>
+        <v>Empty_Plate1_F2</v>
+      </c>
+      <c r="E12" s="25" t="str">
+        <f>Sample_Layouts!$C$28</f>
+        <v>Empty_Plate3_F2</v>
+      </c>
+      <c r="F12" s="24" t="str">
+        <f>Sample_Layouts!$D$8</f>
+        <v>Empty_Plate1_F3</v>
+      </c>
+      <c r="G12" s="25" t="str">
+        <f>Sample_Layouts!$D$28</f>
+        <v>Empty_Plate3_F3</v>
+      </c>
+      <c r="H12" s="24" t="str">
+        <f>Sample_Layouts!$E$8</f>
+        <v>Empty_Plate1_F4</v>
+      </c>
+      <c r="I12" s="25" t="str">
+        <f>Sample_Layouts!$E$28</f>
+        <v>Empty_Plate3_F4</v>
+      </c>
+      <c r="J12" s="24" t="str">
+        <f>Sample_Layouts!$F$8</f>
+        <v>Empty_Plate1_F5</v>
+      </c>
+      <c r="K12" s="25" t="str">
+        <f>Sample_Layouts!$F$28</f>
+        <v>Empty_Plate3_F5</v>
+      </c>
+      <c r="L12" s="24" t="str">
+        <f>Sample_Layouts!$G$8</f>
+        <v>Empty_Plate1_F6</v>
+      </c>
+      <c r="M12" s="25" t="str">
+        <f>Sample_Layouts!$G$28</f>
+        <v>Empty_Plate3_F6</v>
+      </c>
+      <c r="N12" s="24" t="str">
+        <f>Sample_Layouts!$H$8</f>
+        <v>Empty_Plate1_F7</v>
+      </c>
+      <c r="O12" s="25" t="str">
+        <f>Sample_Layouts!$H$28</f>
+        <v>Empty_Plate3_F7</v>
+      </c>
+      <c r="P12" s="24" t="str">
+        <f>Sample_Layouts!$I$8</f>
+        <v>Empty_Plate1_F8</v>
+      </c>
+      <c r="Q12" s="25" t="str">
+        <f>Sample_Layouts!$I$28</f>
+        <v>Empty_Plate3_F8</v>
+      </c>
+      <c r="R12" s="24" t="str">
+        <f>Sample_Layouts!$J$8</f>
+        <v>Empty_Plate1_F9</v>
+      </c>
+      <c r="S12" s="25" t="str">
+        <f>Sample_Layouts!$J$28</f>
+        <v>Empty_Plate3_F9</v>
+      </c>
+      <c r="T12" s="24" t="str">
+        <f>Sample_Layouts!$K$8</f>
+        <v>Empty_Plate1_F10</v>
+      </c>
+      <c r="U12" s="25" t="str">
+        <f>Sample_Layouts!$K$28</f>
+        <v>Empty_Plate3_F10</v>
+      </c>
+      <c r="V12" s="24" t="str">
+        <f>Sample_Layouts!$L$8</f>
+        <v>Empty_Plate1_F11</v>
+      </c>
+      <c r="W12" s="25" t="str">
+        <f>Sample_Layouts!$L$28</f>
+        <v>Empty_Plate3_F11</v>
+      </c>
+      <c r="X12" s="24" t="str">
+        <f>Sample_Layouts!$M$8</f>
+        <v>Empty_Plate1_F12</v>
+      </c>
+      <c r="Y12" s="25" t="str">
+        <f>Sample_Layouts!$M$28</f>
+        <v>Empty_Plate3_F12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="22" t="s">
+        <v>2858</v>
+      </c>
+      <c r="B13" s="24" t="str">
+        <f>Sample_Layouts!$B$18</f>
+        <v>Empty_Plate2_F1</v>
+      </c>
+      <c r="C13" s="24" t="str">
+        <f>Sample_Layouts!$B$38</f>
+        <v>Empty_Plate4_F1</v>
+      </c>
+      <c r="D13" s="24" t="str">
+        <f>Sample_Layouts!$C$18</f>
+        <v>Empty_Plate2_F2</v>
+      </c>
+      <c r="E13" s="24" t="str">
+        <f>Sample_Layouts!$C$38</f>
+        <v>Empty_Plate4_F2</v>
+      </c>
+      <c r="F13" s="24" t="str">
+        <f>Sample_Layouts!$D$18</f>
+        <v>Empty_Plate2_F3</v>
+      </c>
+      <c r="G13" s="24" t="str">
+        <f>Sample_Layouts!$D$38</f>
+        <v>Empty_Plate4_F3</v>
+      </c>
+      <c r="H13" s="24" t="str">
+        <f>Sample_Layouts!$E$18</f>
+        <v>Empty_Plate2_F4</v>
+      </c>
+      <c r="I13" s="24" t="str">
+        <f>Sample_Layouts!$E$38</f>
+        <v>Empty_Plate4_F4</v>
+      </c>
+      <c r="J13" s="24" t="str">
+        <f>Sample_Layouts!$F$18</f>
+        <v>Empty_Plate2_F5</v>
+      </c>
+      <c r="K13" s="24" t="str">
+        <f>Sample_Layouts!$F$38</f>
+        <v>Empty_Plate4_F5</v>
+      </c>
+      <c r="L13" s="24" t="str">
+        <f>Sample_Layouts!$G$18</f>
+        <v>Empty_Plate2_F6</v>
+      </c>
+      <c r="M13" s="24" t="str">
+        <f>Sample_Layouts!$G$38</f>
+        <v>Empty_Plate4_F6</v>
+      </c>
+      <c r="N13" s="24" t="str">
+        <f>Sample_Layouts!$H$18</f>
+        <v>Empty_Plate2_F7</v>
+      </c>
+      <c r="O13" s="24" t="str">
+        <f>Sample_Layouts!$H$38</f>
+        <v>Empty_Plate4_F7</v>
+      </c>
+      <c r="P13" s="24" t="str">
+        <f>Sample_Layouts!$I$18</f>
+        <v>Empty_Plate2_F8</v>
+      </c>
+      <c r="Q13" s="24" t="str">
+        <f>Sample_Layouts!$I$38</f>
+        <v>Empty_Plate4_F8</v>
+      </c>
+      <c r="R13" s="24" t="str">
+        <f>Sample_Layouts!$J$18</f>
+        <v>Empty_Plate2_F9</v>
+      </c>
+      <c r="S13" s="24" t="str">
+        <f>Sample_Layouts!$J$38</f>
+        <v>Empty_Plate4_F9</v>
+      </c>
+      <c r="T13" s="24" t="str">
+        <f>Sample_Layouts!$K$18</f>
+        <v>Empty_Plate2_F10</v>
+      </c>
+      <c r="U13" s="24" t="str">
+        <f>Sample_Layouts!$K$38</f>
+        <v>Empty_Plate4_F10</v>
+      </c>
+      <c r="V13" s="24" t="str">
+        <f>Sample_Layouts!$L$18</f>
+        <v>Empty_Plate2_F11</v>
+      </c>
+      <c r="W13" s="24" t="str">
+        <f>Sample_Layouts!$L$38</f>
+        <v>Empty_Plate4_F11</v>
+      </c>
+      <c r="X13" s="24" t="str">
+        <f>Sample_Layouts!$M$18</f>
+        <v>Empty_Plate2_F12</v>
+      </c>
+      <c r="Y13" s="24" t="str">
+        <f>Sample_Layouts!$M$38</f>
+        <v>Empty_Plate4_F12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="22" t="s">
+        <v>2857</v>
+      </c>
+      <c r="B14" s="24" t="str">
+        <f>Sample_Layouts!$B$9</f>
+        <v>Empty_Plate1_G1</v>
+      </c>
+      <c r="C14" s="25" t="str">
+        <f>Sample_Layouts!$B$29</f>
+        <v>Empty_Plate3_G1</v>
+      </c>
+      <c r="D14" s="24" t="str">
+        <f>Sample_Layouts!$C$9</f>
+        <v>Empty_Plate1_G2</v>
+      </c>
+      <c r="E14" s="25" t="str">
+        <f>Sample_Layouts!$C$29</f>
+        <v>Empty_Plate3_G2</v>
+      </c>
+      <c r="F14" s="24" t="str">
+        <f>Sample_Layouts!$D$9</f>
+        <v>Empty_Plate1_G3</v>
+      </c>
+      <c r="G14" s="25" t="str">
+        <f>Sample_Layouts!$D$29</f>
+        <v>Empty_Plate3_G3</v>
+      </c>
+      <c r="H14" s="24" t="str">
+        <f>Sample_Layouts!$E$9</f>
+        <v>Empty_Plate1_G4</v>
+      </c>
+      <c r="I14" s="25" t="str">
+        <f>Sample_Layouts!$E$29</f>
+        <v>Empty_Plate3_G4</v>
+      </c>
+      <c r="J14" s="24" t="str">
+        <f>Sample_Layouts!$F$9</f>
+        <v>Empty_Plate1_G5</v>
+      </c>
+      <c r="K14" s="25" t="str">
+        <f>Sample_Layouts!$F$29</f>
+        <v>Empty_Plate3_G5</v>
+      </c>
+      <c r="L14" s="24" t="str">
+        <f>Sample_Layouts!$G$9</f>
+        <v>Empty_Plate1_G6</v>
+      </c>
+      <c r="M14" s="25" t="str">
+        <f>Sample_Layouts!$G$29</f>
+        <v>Empty_Plate3_G6</v>
+      </c>
+      <c r="N14" s="24" t="str">
+        <f>Sample_Layouts!$H$9</f>
+        <v>Empty_Plate1_G7</v>
+      </c>
+      <c r="O14" s="25" t="str">
+        <f>Sample_Layouts!$H$29</f>
+        <v>Empty_Plate3_G7</v>
+      </c>
+      <c r="P14" s="24" t="str">
+        <f>Sample_Layouts!$I$9</f>
+        <v>Empty_Plate1_G8</v>
+      </c>
+      <c r="Q14" s="25" t="str">
+        <f>Sample_Layouts!$I$29</f>
+        <v>Empty_Plate3_G8</v>
+      </c>
+      <c r="R14" s="24" t="str">
+        <f>Sample_Layouts!$J$9</f>
+        <v>Empty_Plate1_G9</v>
+      </c>
+      <c r="S14" s="25" t="str">
+        <f>Sample_Layouts!$J$29</f>
+        <v>Empty_Plate3_G9</v>
+      </c>
+      <c r="T14" s="24" t="str">
+        <f>Sample_Layouts!$K$9</f>
+        <v>Empty_Plate1_G10</v>
+      </c>
+      <c r="U14" s="25" t="str">
+        <f>Sample_Layouts!$K$29</f>
+        <v>Empty_Plate3_G10</v>
+      </c>
+      <c r="V14" s="24" t="str">
+        <f>Sample_Layouts!$L$9</f>
+        <v>Empty_Plate1_G11</v>
+      </c>
+      <c r="W14" s="25" t="str">
+        <f>Sample_Layouts!$L$29</f>
+        <v>Empty_Plate3_G11</v>
+      </c>
+      <c r="X14" s="24" t="str">
+        <f>Sample_Layouts!$M$9</f>
+        <v>Empty_Plate1_G12</v>
+      </c>
+      <c r="Y14" s="25" t="str">
+        <f>Sample_Layouts!$M$29</f>
+        <v>Empty_Plate3_G12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="22" t="s">
+        <v>2856</v>
+      </c>
+      <c r="B15" s="24" t="str">
+        <f>Sample_Layouts!$B$19</f>
+        <v>Empty_Plate2_G1</v>
+      </c>
+      <c r="C15" s="24" t="str">
+        <f>Sample_Layouts!$B$39</f>
+        <v>Empty_Plate4_G1</v>
+      </c>
+      <c r="D15" s="24" t="str">
+        <f>Sample_Layouts!$C$19</f>
+        <v>Empty_Plate2_G2</v>
+      </c>
+      <c r="E15" s="24" t="str">
+        <f>Sample_Layouts!$C$39</f>
+        <v>Empty_Plate4_G2</v>
+      </c>
+      <c r="F15" s="24" t="str">
+        <f>Sample_Layouts!$D$19</f>
+        <v>Empty_Plate2_G3</v>
+      </c>
+      <c r="G15" s="24" t="str">
+        <f>Sample_Layouts!$D$39</f>
+        <v>Empty_Plate4_G3</v>
+      </c>
+      <c r="H15" s="24" t="str">
+        <f>Sample_Layouts!$E$19</f>
+        <v>Empty_Plate2_G4</v>
+      </c>
+      <c r="I15" s="24" t="str">
+        <f>Sample_Layouts!$E$39</f>
+        <v>Empty_Plate4_G4</v>
+      </c>
+      <c r="J15" s="24" t="str">
+        <f>Sample_Layouts!$F$19</f>
+        <v>Empty_Plate2_G5</v>
+      </c>
+      <c r="K15" s="24" t="str">
+        <f>Sample_Layouts!$F$39</f>
+        <v>Empty_Plate4_G5</v>
+      </c>
+      <c r="L15" s="24" t="str">
+        <f>Sample_Layouts!$G$19</f>
+        <v>Empty_Plate2_G6</v>
+      </c>
+      <c r="M15" s="24" t="str">
+        <f>Sample_Layouts!$G$39</f>
+        <v>Empty_Plate4_G6</v>
+      </c>
+      <c r="N15" s="24" t="str">
+        <f>Sample_Layouts!$H$19</f>
+        <v>Empty_Plate2_G7</v>
+      </c>
+      <c r="O15" s="24" t="str">
+        <f>Sample_Layouts!$H$39</f>
+        <v>Empty_Plate4_G7</v>
+      </c>
+      <c r="P15" s="24" t="str">
+        <f>Sample_Layouts!$I$19</f>
+        <v>Empty_Plate2_G8</v>
+      </c>
+      <c r="Q15" s="24" t="str">
+        <f>Sample_Layouts!$I$39</f>
+        <v>Empty_Plate4_G8</v>
+      </c>
+      <c r="R15" s="24" t="str">
+        <f>Sample_Layouts!$J$19</f>
+        <v>Empty_Plate2_G9</v>
+      </c>
+      <c r="S15" s="24" t="str">
+        <f>Sample_Layouts!$J$39</f>
+        <v>Empty_Plate4_G9</v>
+      </c>
+      <c r="T15" s="24" t="str">
+        <f>Sample_Layouts!$K$19</f>
+        <v>Empty_Plate2_G10</v>
+      </c>
+      <c r="U15" s="24" t="str">
+        <f>Sample_Layouts!$K$39</f>
+        <v>Empty_Plate4_G10</v>
+      </c>
+      <c r="V15" s="24" t="str">
+        <f>Sample_Layouts!$L$19</f>
+        <v>Empty_Plate2_G11</v>
+      </c>
+      <c r="W15" s="24" t="str">
+        <f>Sample_Layouts!$L$39</f>
+        <v>Empty_Plate4_G11</v>
+      </c>
+      <c r="X15" s="24" t="str">
+        <f>Sample_Layouts!$M$19</f>
+        <v>Empty_Plate2_G12</v>
+      </c>
+      <c r="Y15" s="24" t="str">
+        <f>Sample_Layouts!$M$39</f>
+        <v>Empty_Plate4_G12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="22" t="s">
+        <v>2855</v>
+      </c>
+      <c r="B16" s="24" t="str">
+        <f>Sample_Layouts!$B$10</f>
+        <v>Empty_Plate1_H1</v>
+      </c>
+      <c r="C16" s="25" t="str">
+        <f>Sample_Layouts!$B$30</f>
+        <v>Empty_Plate3_H1</v>
+      </c>
+      <c r="D16" s="24" t="str">
+        <f>Sample_Layouts!$C$10</f>
+        <v>Empty_Plate1_H2</v>
+      </c>
+      <c r="E16" s="25" t="str">
+        <f>Sample_Layouts!$C$30</f>
+        <v>Empty_Plate3_H2</v>
+      </c>
+      <c r="F16" s="24" t="str">
+        <f>Sample_Layouts!$D$10</f>
+        <v>Empty_Plate1_H3</v>
+      </c>
+      <c r="G16" s="25" t="str">
+        <f>Sample_Layouts!$D$30</f>
+        <v>Empty_Plate3_H3</v>
+      </c>
+      <c r="H16" s="24" t="str">
+        <f>Sample_Layouts!$E$10</f>
+        <v>Empty_Plate1_H4</v>
+      </c>
+      <c r="I16" s="25" t="str">
+        <f>Sample_Layouts!$E$30</f>
+        <v>Empty_Plate3_H4</v>
+      </c>
+      <c r="J16" s="24" t="str">
+        <f>Sample_Layouts!$F$10</f>
+        <v>Empty_Plate1_H5</v>
+      </c>
+      <c r="K16" s="25" t="str">
+        <f>Sample_Layouts!$F$30</f>
+        <v>Empty_Plate3_H5</v>
+      </c>
+      <c r="L16" s="24" t="str">
+        <f>Sample_Layouts!$G$10</f>
+        <v>Empty_Plate1_H6</v>
+      </c>
+      <c r="M16" s="25" t="str">
+        <f>Sample_Layouts!$G$30</f>
+        <v>Empty_Plate3_H6</v>
+      </c>
+      <c r="N16" s="24" t="str">
+        <f>Sample_Layouts!$H$10</f>
+        <v>Empty_Plate1_H7</v>
+      </c>
+      <c r="O16" s="25" t="str">
+        <f>Sample_Layouts!$H$30</f>
+        <v>Empty_Plate3_H7</v>
+      </c>
+      <c r="P16" s="24" t="str">
+        <f>Sample_Layouts!$I$10</f>
+        <v>Empty_Plate1_H8</v>
+      </c>
+      <c r="Q16" s="25" t="str">
+        <f>Sample_Layouts!$I$30</f>
+        <v>Empty_Plate3_H8</v>
+      </c>
+      <c r="R16" s="24" t="str">
+        <f>Sample_Layouts!$J$10</f>
+        <v>Empty_Plate1_H9</v>
+      </c>
+      <c r="S16" s="25" t="str">
+        <f>Sample_Layouts!$J$30</f>
+        <v>Empty_Plate3_H9</v>
+      </c>
+      <c r="T16" s="24" t="str">
+        <f>Sample_Layouts!$K$10</f>
+        <v>Empty_Plate1_H10</v>
+      </c>
+      <c r="U16" s="25" t="str">
+        <f>Sample_Layouts!$K$30</f>
+        <v>Empty_Plate3_H10</v>
+      </c>
+      <c r="V16" s="24" t="str">
+        <f>Sample_Layouts!$L$10</f>
+        <v>Empty_Plate1_H11</v>
+      </c>
+      <c r="W16" s="25" t="str">
+        <f>Sample_Layouts!$L$30</f>
+        <v>Empty_Plate3_H11</v>
+      </c>
+      <c r="X16" s="24" t="str">
+        <f>Sample_Layouts!$M$10</f>
+        <v>Empty_Plate1_H12</v>
+      </c>
+      <c r="Y16" s="25" t="str">
+        <f>Sample_Layouts!$M$30</f>
+        <v>Empty_Plate3_H12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="22" t="s">
+        <v>2854</v>
+      </c>
+      <c r="B17" s="24" t="str">
+        <f>Sample_Layouts!$B$20</f>
+        <v>Empty_Plate2_H1</v>
+      </c>
+      <c r="C17" s="24" t="str">
+        <f>Sample_Layouts!$B$40</f>
+        <v>Empty_Plate4_H1</v>
+      </c>
+      <c r="D17" s="24" t="str">
+        <f>Sample_Layouts!$C$20</f>
+        <v>Empty_Plate2_H2</v>
+      </c>
+      <c r="E17" s="24" t="str">
+        <f>Sample_Layouts!$C$40</f>
+        <v>Empty_Plate4_H2</v>
+      </c>
+      <c r="F17" s="24" t="str">
+        <f>Sample_Layouts!$D$20</f>
+        <v>Empty_Plate2_H3</v>
+      </c>
+      <c r="G17" s="24" t="str">
+        <f>Sample_Layouts!$D$40</f>
+        <v>Empty_Plate4_H3</v>
+      </c>
+      <c r="H17" s="24" t="str">
+        <f>Sample_Layouts!$E$20</f>
+        <v>Empty_Plate2_H4</v>
+      </c>
+      <c r="I17" s="24" t="str">
+        <f>Sample_Layouts!$E$40</f>
+        <v>Empty_Plate4_H4</v>
+      </c>
+      <c r="J17" s="24" t="str">
+        <f>Sample_Layouts!$F$20</f>
+        <v>Empty_Plate2_H5</v>
+      </c>
+      <c r="K17" s="24" t="str">
+        <f>Sample_Layouts!$F$40</f>
+        <v>Empty_Plate4_H5</v>
+      </c>
+      <c r="L17" s="24" t="str">
+        <f>Sample_Layouts!$G$20</f>
+        <v>Empty_Plate2_H6</v>
+      </c>
+      <c r="M17" s="24" t="str">
+        <f>Sample_Layouts!$G$40</f>
+        <v>Empty_Plate4_H6</v>
+      </c>
+      <c r="N17" s="24" t="str">
+        <f>Sample_Layouts!$H$20</f>
+        <v>Empty_Plate2_H7</v>
+      </c>
+      <c r="O17" s="24" t="str">
+        <f>Sample_Layouts!$H$40</f>
+        <v>Empty_Plate4_H7</v>
+      </c>
+      <c r="P17" s="24" t="str">
+        <f>Sample_Layouts!$I$20</f>
+        <v>Empty_Plate2_H8</v>
+      </c>
+      <c r="Q17" s="24" t="str">
+        <f>Sample_Layouts!$I$40</f>
+        <v>Empty_Plate4_H8</v>
+      </c>
+      <c r="R17" s="24" t="str">
+        <f>Sample_Layouts!$J$20</f>
+        <v>Empty_Plate2_H9</v>
+      </c>
+      <c r="S17" s="24" t="str">
+        <f>Sample_Layouts!$J$40</f>
+        <v>Empty_Plate4_H9</v>
+      </c>
+      <c r="T17" s="24" t="str">
+        <f>Sample_Layouts!$K$20</f>
+        <v>Empty_Plate2_H10</v>
+      </c>
+      <c r="U17" s="24" t="str">
+        <f>Sample_Layouts!$K$40</f>
+        <v>Empty_Plate4_H10</v>
+      </c>
+      <c r="V17" s="24" t="str">
+        <f>Sample_Layouts!$L$20</f>
+        <v>Empty_Plate2_H11</v>
+      </c>
+      <c r="W17" s="24" t="str">
+        <f>Sample_Layouts!$L$40</f>
+        <v>Empty_Plate4_H11</v>
+      </c>
+      <c r="X17" s="24" t="str">
+        <f>Sample_Layouts!$M$20</f>
+        <v>Empty_Plate2_H12</v>
+      </c>
+      <c r="Y17" s="24" t="str">
+        <f>Sample_Layouts!$M$40</f>
+        <v>Empty_Plate4_H12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="24" x14ac:dyDescent="0.3">
+      <c r="A19" s="23"/>
+      <c r="B19" s="22">
+        <v>1</v>
+      </c>
+      <c r="C19" s="22">
+        <v>2</v>
+      </c>
+      <c r="D19" s="22">
+        <v>3</v>
+      </c>
+      <c r="E19" s="22">
+        <v>4</v>
+      </c>
+      <c r="F19" s="22">
+        <v>5</v>
+      </c>
+      <c r="G19" s="22">
+        <v>6</v>
+      </c>
+      <c r="H19" s="22">
+        <v>7</v>
+      </c>
+      <c r="I19" s="22">
+        <v>8</v>
+      </c>
+      <c r="J19" s="22">
+        <v>9</v>
+      </c>
+      <c r="K19" s="22">
+        <v>10</v>
+      </c>
+      <c r="L19" s="22">
+        <v>11</v>
+      </c>
+      <c r="M19" s="22">
+        <v>12</v>
+      </c>
+      <c r="N19" s="22">
+        <v>13</v>
+      </c>
+      <c r="O19" s="22">
+        <v>14</v>
+      </c>
+      <c r="P19" s="22">
+        <v>15</v>
+      </c>
+      <c r="Q19" s="22">
+        <v>16</v>
+      </c>
+      <c r="R19" s="22">
+        <v>17</v>
+      </c>
+      <c r="S19" s="22">
+        <v>18</v>
+      </c>
+      <c r="T19" s="22">
+        <v>19</v>
+      </c>
+      <c r="U19" s="22">
+        <v>20</v>
+      </c>
+      <c r="V19" s="22">
+        <v>21</v>
+      </c>
+      <c r="W19" s="22">
+        <v>22</v>
+      </c>
+      <c r="X19" s="22">
+        <v>23</v>
+      </c>
+      <c r="Y19" s="22">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="24" x14ac:dyDescent="0.3">
+      <c r="A20" s="22" t="s">
+        <v>704</v>
+      </c>
+      <c r="B20" s="26" t="str">
+        <f>Sample_Layouts!$B$43</f>
+        <v>Empty_Plate5_A1</v>
+      </c>
+      <c r="C20" s="28"/>
+      <c r="D20" s="26" t="str">
+        <f>Sample_Layouts!$C$43</f>
+        <v>Empty_Plate5_A2</v>
+      </c>
+      <c r="E20" s="28"/>
+      <c r="F20" s="26" t="str">
+        <f>Sample_Layouts!$D$43</f>
+        <v>Empty_Plate5_A3</v>
+      </c>
+      <c r="G20" s="28"/>
+      <c r="H20" s="26" t="str">
+        <f>Sample_Layouts!$E$43</f>
+        <v>Empty_Plate5_A4</v>
+      </c>
+      <c r="I20" s="28"/>
+      <c r="J20" s="26" t="str">
+        <f>Sample_Layouts!$F$43</f>
+        <v>Empty_Plate5_A5</v>
+      </c>
+      <c r="K20" s="28"/>
+      <c r="L20" s="26" t="str">
+        <f>Sample_Layouts!$G$43</f>
+        <v>Empty_Plate5_A6</v>
+      </c>
+      <c r="M20" s="28"/>
+      <c r="N20" s="26" t="str">
+        <f>Sample_Layouts!$H$43</f>
+        <v>Empty_Plate5_A7</v>
+      </c>
+      <c r="O20" s="28"/>
+      <c r="P20" s="26" t="str">
+        <f>Sample_Layouts!$I$43</f>
+        <v>Empty_Plate5_A8</v>
+      </c>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="26" t="str">
+        <f>Sample_Layouts!$J$43</f>
+        <v>Empty_Plate5_A9</v>
+      </c>
+      <c r="S20" s="28"/>
+      <c r="T20" s="26" t="str">
+        <f>Sample_Layouts!$K$43</f>
+        <v>Empty_Plate5_A10</v>
+      </c>
+      <c r="U20" s="28"/>
+      <c r="V20" s="26" t="str">
+        <f>Sample_Layouts!$L$43</f>
+        <v>Empty_Plate5_A11</v>
+      </c>
+      <c r="W20" s="28"/>
+      <c r="X20" s="26" t="str">
+        <f>Sample_Layouts!$M$43</f>
+        <v>Empty_Plate5_A12</v>
+      </c>
+      <c r="Y20" s="28"/>
+    </row>
+    <row r="21" spans="1:25" ht="24" x14ac:dyDescent="0.3">
+      <c r="A21" s="22" t="s">
+        <v>705</v>
+      </c>
+      <c r="B21" s="27" t="str">
+        <f>Sample_Layouts!$B$53</f>
+        <v>Empty_Plate6_A1</v>
+      </c>
+      <c r="C21" s="28"/>
+      <c r="D21" s="27" t="str">
+        <f>Sample_Layouts!$C$53</f>
+        <v>Empty_Plate6_A2</v>
+      </c>
+      <c r="E21" s="28"/>
+      <c r="F21" s="27" t="str">
+        <f>Sample_Layouts!$D$53</f>
+        <v>Empty_Plate6_A3</v>
+      </c>
+      <c r="G21" s="28"/>
+      <c r="H21" s="27" t="str">
+        <f>Sample_Layouts!$E$53</f>
+        <v>Empty_Plate6_A4</v>
+      </c>
+      <c r="I21" s="28"/>
+      <c r="J21" s="27" t="str">
+        <f>Sample_Layouts!$F$53</f>
+        <v>Empty_Plate6_A5</v>
+      </c>
+      <c r="K21" s="28"/>
+      <c r="L21" s="27" t="str">
+        <f>Sample_Layouts!$G$53</f>
+        <v>Empty_Plate6_A6</v>
+      </c>
+      <c r="M21" s="28"/>
+      <c r="N21" s="27" t="str">
+        <f>Sample_Layouts!$H$53</f>
+        <v>Empty_Plate6_A7</v>
+      </c>
+      <c r="O21" s="28"/>
+      <c r="P21" s="27" t="str">
+        <f>Sample_Layouts!$I$53</f>
+        <v>Empty_Plate6_A8</v>
+      </c>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="27" t="str">
+        <f>Sample_Layouts!$J$53</f>
+        <v>Empty_Plate6_A9</v>
+      </c>
+      <c r="S21" s="28"/>
+      <c r="T21" s="27" t="str">
+        <f>Sample_Layouts!$K$53</f>
+        <v>Empty_Plate6_A10</v>
+      </c>
+      <c r="U21" s="28"/>
+      <c r="V21" s="27" t="str">
+        <f>Sample_Layouts!$L$53</f>
+        <v>Empty_Plate6_A11</v>
+      </c>
+      <c r="W21" s="28"/>
+      <c r="X21" s="27" t="str">
+        <f>Sample_Layouts!$M$53</f>
+        <v>Empty_Plate6_A12</v>
+      </c>
+      <c r="Y21" s="28"/>
+    </row>
+    <row r="22" spans="1:25" ht="24" x14ac:dyDescent="0.3">
+      <c r="A22" s="22" t="s">
+        <v>706</v>
+      </c>
+      <c r="B22" s="26" t="str">
+        <f>Sample_Layouts!$B$44</f>
+        <v>Empty_Plate5_B1</v>
+      </c>
+      <c r="C22" s="28"/>
+      <c r="D22" s="26" t="str">
+        <f>Sample_Layouts!$C$44</f>
+        <v>Empty_Plate5_B2</v>
+      </c>
+      <c r="E22" s="28"/>
+      <c r="F22" s="26" t="str">
+        <f>Sample_Layouts!$D$44</f>
+        <v>Empty_Plate5_B3</v>
+      </c>
+      <c r="G22" s="28"/>
+      <c r="H22" s="26" t="str">
+        <f>Sample_Layouts!$E$44</f>
+        <v>Empty_Plate5_B4</v>
+      </c>
+      <c r="I22" s="28"/>
+      <c r="J22" s="26" t="str">
+        <f>Sample_Layouts!$F$44</f>
+        <v>Empty_Plate5_B5</v>
+      </c>
+      <c r="K22" s="28"/>
+      <c r="L22" s="26" t="str">
+        <f>Sample_Layouts!$G$44</f>
+        <v>Empty_Plate5_B6</v>
+      </c>
+      <c r="M22" s="28"/>
+      <c r="N22" s="26" t="str">
+        <f>Sample_Layouts!$H$44</f>
+        <v>Empty_Plate5_B7</v>
+      </c>
+      <c r="O22" s="28"/>
+      <c r="P22" s="26" t="str">
+        <f>Sample_Layouts!$I$44</f>
+        <v>Empty_Plate5_B8</v>
+      </c>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="26" t="str">
+        <f>Sample_Layouts!$J$44</f>
+        <v>Empty_Plate5_B9</v>
+      </c>
+      <c r="S22" s="28"/>
+      <c r="T22" s="26" t="str">
+        <f>Sample_Layouts!$K$44</f>
+        <v>Empty_Plate5_B10</v>
+      </c>
+      <c r="U22" s="28"/>
+      <c r="V22" s="26" t="str">
+        <f>Sample_Layouts!$L$44</f>
+        <v>Empty_Plate5_B11</v>
+      </c>
+      <c r="W22" s="28"/>
+      <c r="X22" s="26" t="str">
+        <f>Sample_Layouts!$M$44</f>
+        <v>Empty_Plate5_B12</v>
+      </c>
+      <c r="Y22" s="28"/>
+    </row>
+    <row r="23" spans="1:25" ht="24" x14ac:dyDescent="0.3">
+      <c r="A23" s="22" t="s">
+        <v>707</v>
+      </c>
+      <c r="B23" s="27" t="str">
+        <f>Sample_Layouts!$B$54</f>
+        <v>Empty_Plate6_B1</v>
+      </c>
+      <c r="C23" s="28"/>
+      <c r="D23" s="27" t="str">
+        <f>Sample_Layouts!$C$54</f>
+        <v>Empty_Plate6_B2</v>
+      </c>
+      <c r="E23" s="28"/>
+      <c r="F23" s="27" t="str">
+        <f>Sample_Layouts!$D$54</f>
+        <v>Empty_Plate6_B3</v>
+      </c>
+      <c r="G23" s="28"/>
+      <c r="H23" s="27" t="str">
+        <f>Sample_Layouts!$E$54</f>
+        <v>Empty_Plate6_B4</v>
+      </c>
+      <c r="I23" s="28"/>
+      <c r="J23" s="27" t="str">
+        <f>Sample_Layouts!$F$54</f>
+        <v>Empty_Plate6_B5</v>
+      </c>
+      <c r="K23" s="28"/>
+      <c r="L23" s="27" t="str">
+        <f>Sample_Layouts!$G$54</f>
+        <v>Empty_Plate6_B6</v>
+      </c>
+      <c r="M23" s="28"/>
+      <c r="N23" s="27" t="str">
+        <f>Sample_Layouts!$H$54</f>
+        <v>Empty_Plate6_B7</v>
+      </c>
+      <c r="O23" s="28"/>
+      <c r="P23" s="27" t="str">
+        <f>Sample_Layouts!$I$54</f>
+        <v>Empty_Plate6_B8</v>
+      </c>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="27" t="str">
+        <f>Sample_Layouts!$J$54</f>
+        <v>Empty_Plate6_B9</v>
+      </c>
+      <c r="S23" s="28"/>
+      <c r="T23" s="27" t="str">
+        <f>Sample_Layouts!$K$54</f>
+        <v>Empty_Plate6_B10</v>
+      </c>
+      <c r="U23" s="28"/>
+      <c r="V23" s="27" t="str">
+        <f>Sample_Layouts!$L$54</f>
+        <v>Empty_Plate6_B11</v>
+      </c>
+      <c r="W23" s="28"/>
+      <c r="X23" s="27" t="str">
+        <f>Sample_Layouts!$M$54</f>
+        <v>Empty_Plate6_B12</v>
+      </c>
+      <c r="Y23" s="28"/>
+    </row>
+    <row r="24" spans="1:25" ht="24" x14ac:dyDescent="0.3">
+      <c r="A24" s="22" t="s">
+        <v>708</v>
+      </c>
+      <c r="B24" s="26" t="str">
+        <f>Sample_Layouts!$B$45</f>
+        <v>Empty_Plate5_C1</v>
+      </c>
+      <c r="C24" s="28"/>
+      <c r="D24" s="26" t="str">
+        <f>Sample_Layouts!$C$45</f>
+        <v>Empty_Plate5_C2</v>
+      </c>
+      <c r="E24" s="28"/>
+      <c r="F24" s="26" t="str">
+        <f>Sample_Layouts!$D$45</f>
+        <v>Empty_Plate5_C3</v>
+      </c>
+      <c r="G24" s="28"/>
+      <c r="H24" s="26" t="str">
+        <f>Sample_Layouts!$E$45</f>
+        <v>Empty_Plate5_C4</v>
+      </c>
+      <c r="I24" s="28"/>
+      <c r="J24" s="26" t="str">
+        <f>Sample_Layouts!$F$45</f>
+        <v>Empty_Plate5_C5</v>
+      </c>
+      <c r="K24" s="28"/>
+      <c r="L24" s="26" t="str">
+        <f>Sample_Layouts!$G$45</f>
+        <v>Empty_Plate5_C6</v>
+      </c>
+      <c r="M24" s="28"/>
+      <c r="N24" s="26" t="str">
+        <f>Sample_Layouts!$H$45</f>
+        <v>Empty_Plate5_C7</v>
+      </c>
+      <c r="O24" s="28"/>
+      <c r="P24" s="26" t="str">
+        <f>Sample_Layouts!$I$45</f>
+        <v>Empty_Plate5_C8</v>
+      </c>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="26" t="str">
+        <f>Sample_Layouts!$J$45</f>
+        <v>Empty_Plate5_C9</v>
+      </c>
+      <c r="S24" s="28"/>
+      <c r="T24" s="26" t="str">
+        <f>Sample_Layouts!$K$45</f>
+        <v>Empty_Plate5_C10</v>
+      </c>
+      <c r="U24" s="28"/>
+      <c r="V24" s="26" t="str">
+        <f>Sample_Layouts!$L$45</f>
+        <v>Empty_Plate5_C11</v>
+      </c>
+      <c r="W24" s="28"/>
+      <c r="X24" s="26" t="str">
+        <f>Sample_Layouts!$M$45</f>
+        <v>Empty_Plate5_C12</v>
+      </c>
+      <c r="Y24" s="28"/>
+    </row>
+    <row r="25" spans="1:25" ht="24" x14ac:dyDescent="0.3">
+      <c r="A25" s="22" t="s">
+        <v>709</v>
+      </c>
+      <c r="B25" s="27" t="str">
+        <f>Sample_Layouts!$B$55</f>
+        <v>Empty_Plate6_C1</v>
+      </c>
+      <c r="C25" s="28"/>
+      <c r="D25" s="27" t="str">
+        <f>Sample_Layouts!$C$55</f>
+        <v>Empty_Plate6_C2</v>
+      </c>
+      <c r="E25" s="28"/>
+      <c r="F25" s="27" t="str">
+        <f>Sample_Layouts!$D$55</f>
+        <v>Empty_Plate6_C3</v>
+      </c>
+      <c r="G25" s="28"/>
+      <c r="H25" s="27" t="str">
+        <f>Sample_Layouts!$E$55</f>
+        <v>Empty_Plate6_C4</v>
+      </c>
+      <c r="I25" s="28"/>
+      <c r="J25" s="27" t="str">
+        <f>Sample_Layouts!$F$55</f>
+        <v>Empty_Plate6_C5</v>
+      </c>
+      <c r="K25" s="28"/>
+      <c r="L25" s="27" t="str">
+        <f>Sample_Layouts!$G$55</f>
+        <v>Empty_Plate6_C6</v>
+      </c>
+      <c r="M25" s="28"/>
+      <c r="N25" s="27" t="str">
+        <f>Sample_Layouts!$H$55</f>
+        <v>Empty_Plate6_C7</v>
+      </c>
+      <c r="O25" s="28"/>
+      <c r="P25" s="27" t="str">
+        <f>Sample_Layouts!$I$55</f>
+        <v>Empty_Plate6_C8</v>
+      </c>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="27" t="str">
+        <f>Sample_Layouts!$J$55</f>
+        <v>Empty_Plate6_C9</v>
+      </c>
+      <c r="S25" s="28"/>
+      <c r="T25" s="27" t="str">
+        <f>Sample_Layouts!$K$55</f>
+        <v>Empty_Plate6_C10</v>
+      </c>
+      <c r="U25" s="28"/>
+      <c r="V25" s="27" t="str">
+        <f>Sample_Layouts!$L$55</f>
+        <v>Empty_Plate6_C11</v>
+      </c>
+      <c r="W25" s="28"/>
+      <c r="X25" s="27" t="str">
+        <f>Sample_Layouts!$M$55</f>
+        <v>Empty_Plate6_C12</v>
+      </c>
+      <c r="Y25" s="28"/>
+    </row>
+    <row r="26" spans="1:25" ht="24" x14ac:dyDescent="0.3">
+      <c r="A26" s="22" t="s">
+        <v>710</v>
+      </c>
+      <c r="B26" s="26" t="str">
+        <f>Sample_Layouts!$B$46</f>
+        <v>Empty_Plate5_D1</v>
+      </c>
+      <c r="C26" s="28"/>
+      <c r="D26" s="26" t="str">
+        <f>Sample_Layouts!$C$46</f>
+        <v>Empty_Plate5_D2</v>
+      </c>
+      <c r="E26" s="28"/>
+      <c r="F26" s="26" t="str">
+        <f>Sample_Layouts!$D$46</f>
+        <v>Empty_Plate5_D3</v>
+      </c>
+      <c r="G26" s="28"/>
+      <c r="H26" s="26" t="str">
+        <f>Sample_Layouts!$E$46</f>
+        <v>Empty_Plate5_D4</v>
+      </c>
+      <c r="I26" s="28"/>
+      <c r="J26" s="26" t="str">
+        <f>Sample_Layouts!$F$46</f>
+        <v>Empty_Plate5_D5</v>
+      </c>
+      <c r="K26" s="28"/>
+      <c r="L26" s="26" t="str">
+        <f>Sample_Layouts!$G$46</f>
+        <v>Empty_Plate5_D6</v>
+      </c>
+      <c r="M26" s="28"/>
+      <c r="N26" s="26" t="str">
+        <f>Sample_Layouts!$H$46</f>
+        <v>Empty_Plate5_D7</v>
+      </c>
+      <c r="O26" s="28"/>
+      <c r="P26" s="26" t="str">
+        <f>Sample_Layouts!$I$46</f>
+        <v>Empty_Plate5_D8</v>
+      </c>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="26" t="str">
+        <f>Sample_Layouts!$J$46</f>
+        <v>Empty_Plate5_D9</v>
+      </c>
+      <c r="S26" s="28"/>
+      <c r="T26" s="26" t="str">
+        <f>Sample_Layouts!$K$46</f>
+        <v>Empty_Plate5_D10</v>
+      </c>
+      <c r="U26" s="28"/>
+      <c r="V26" s="26" t="str">
+        <f>Sample_Layouts!$L$46</f>
+        <v>Empty_Plate5_D11</v>
+      </c>
+      <c r="W26" s="28"/>
+      <c r="X26" s="26" t="str">
+        <f>Sample_Layouts!$M$46</f>
+        <v>Empty_Plate5_D12</v>
+      </c>
+      <c r="Y26" s="28"/>
+    </row>
+    <row r="27" spans="1:25" ht="24" x14ac:dyDescent="0.3">
+      <c r="A27" s="22" t="s">
+        <v>711</v>
+      </c>
+      <c r="B27" s="27" t="str">
+        <f>Sample_Layouts!$B$56</f>
+        <v>Empty_Plate6_D1</v>
+      </c>
+      <c r="C27" s="28"/>
+      <c r="D27" s="27" t="str">
+        <f>Sample_Layouts!$C$56</f>
+        <v>Empty_Plate6_D2</v>
+      </c>
+      <c r="E27" s="28"/>
+      <c r="F27" s="27" t="str">
+        <f>Sample_Layouts!$D$56</f>
+        <v>Empty_Plate6_D3</v>
+      </c>
+      <c r="G27" s="28"/>
+      <c r="H27" s="27" t="str">
+        <f>Sample_Layouts!$E$56</f>
+        <v>Empty_Plate6_D4</v>
+      </c>
+      <c r="I27" s="28"/>
+      <c r="J27" s="27" t="str">
+        <f>Sample_Layouts!$F$56</f>
+        <v>Empty_Plate6_D5</v>
+      </c>
+      <c r="K27" s="28"/>
+      <c r="L27" s="27" t="str">
+        <f>Sample_Layouts!$G$56</f>
+        <v>Empty_Plate6_D6</v>
+      </c>
+      <c r="M27" s="28"/>
+      <c r="N27" s="27" t="str">
+        <f>Sample_Layouts!$H$56</f>
+        <v>Empty_Plate6_D7</v>
+      </c>
+      <c r="O27" s="28"/>
+      <c r="P27" s="27" t="str">
+        <f>Sample_Layouts!$I$56</f>
+        <v>Empty_Plate6_D8</v>
+      </c>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="27" t="str">
+        <f>Sample_Layouts!$J$56</f>
+        <v>Empty_Plate6_D9</v>
+      </c>
+      <c r="S27" s="28"/>
+      <c r="T27" s="27" t="str">
+        <f>Sample_Layouts!$K$56</f>
+        <v>Empty_Plate6_D10</v>
+      </c>
+      <c r="U27" s="28"/>
+      <c r="V27" s="27" t="str">
+        <f>Sample_Layouts!$L$56</f>
+        <v>Empty_Plate6_D11</v>
+      </c>
+      <c r="W27" s="28"/>
+      <c r="X27" s="27" t="str">
+        <f>Sample_Layouts!$M$56</f>
+        <v>Empty_Plate6_D12</v>
+      </c>
+      <c r="Y27" s="28"/>
+    </row>
+    <row r="28" spans="1:25" ht="24" x14ac:dyDescent="0.3">
+      <c r="A28" s="22" t="s">
+        <v>2861</v>
+      </c>
+      <c r="B28" s="26" t="str">
+        <f>Sample_Layouts!$B$47</f>
+        <v>Empty_Plate5_E1</v>
+      </c>
+      <c r="C28" s="28"/>
+      <c r="D28" s="26" t="str">
+        <f>Sample_Layouts!$C$47</f>
+        <v>Empty_Plate5_E2</v>
+      </c>
+      <c r="E28" s="28"/>
+      <c r="F28" s="26" t="str">
+        <f>Sample_Layouts!$D$47</f>
+        <v>Empty_Plate5_E3</v>
+      </c>
+      <c r="G28" s="28"/>
+      <c r="H28" s="26" t="str">
+        <f>Sample_Layouts!$E$47</f>
+        <v>Empty_Plate5_E4</v>
+      </c>
+      <c r="I28" s="28"/>
+      <c r="J28" s="26" t="str">
+        <f>Sample_Layouts!$F$47</f>
+        <v>Empty_Plate5_E5</v>
+      </c>
+      <c r="K28" s="28"/>
+      <c r="L28" s="26" t="str">
+        <f>Sample_Layouts!$G$47</f>
+        <v>Empty_Plate5_E6</v>
+      </c>
+      <c r="M28" s="28"/>
+      <c r="N28" s="26" t="str">
+        <f>Sample_Layouts!$H$47</f>
+        <v>Empty_Plate5_E7</v>
+      </c>
+      <c r="O28" s="28"/>
+      <c r="P28" s="26" t="str">
+        <f>Sample_Layouts!$I$47</f>
+        <v>Empty_Plate5_E8</v>
+      </c>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="26" t="str">
+        <f>Sample_Layouts!$J$47</f>
+        <v>Empty_Plate5_E9</v>
+      </c>
+      <c r="S28" s="28"/>
+      <c r="T28" s="26" t="str">
+        <f>Sample_Layouts!$K$47</f>
+        <v>Empty_Plate5_E10</v>
+      </c>
+      <c r="U28" s="28"/>
+      <c r="V28" s="26" t="str">
+        <f>Sample_Layouts!$L$47</f>
+        <v>Empty_Plate5_E11</v>
+      </c>
+      <c r="W28" s="28"/>
+      <c r="X28" s="26" t="str">
+        <f>Sample_Layouts!$M$47</f>
+        <v>Empty_Plate5_E12</v>
+      </c>
+      <c r="Y28" s="28"/>
+    </row>
+    <row r="29" spans="1:25" ht="24" x14ac:dyDescent="0.3">
+      <c r="A29" s="22" t="s">
+        <v>2860</v>
+      </c>
+      <c r="B29" s="27" t="str">
+        <f>Sample_Layouts!$B$57</f>
+        <v>Empty_Plate6_E1</v>
+      </c>
+      <c r="C29" s="28"/>
+      <c r="D29" s="27" t="str">
+        <f>Sample_Layouts!$C$57</f>
+        <v>Empty_Plate6_E2</v>
+      </c>
+      <c r="E29" s="28"/>
+      <c r="F29" s="27" t="str">
+        <f>Sample_Layouts!$D$57</f>
+        <v>Empty_Plate6_E3</v>
+      </c>
+      <c r="G29" s="28"/>
+      <c r="H29" s="27" t="str">
+        <f>Sample_Layouts!$E$57</f>
+        <v>Empty_Plate6_E4</v>
+      </c>
+      <c r="I29" s="28"/>
+      <c r="J29" s="27" t="str">
+        <f>Sample_Layouts!$F$57</f>
+        <v>Empty_Plate6_E5</v>
+      </c>
+      <c r="K29" s="28"/>
+      <c r="L29" s="27" t="str">
+        <f>Sample_Layouts!$G$57</f>
+        <v>Empty_Plate6_E6</v>
+      </c>
+      <c r="M29" s="28"/>
+      <c r="N29" s="27" t="str">
+        <f>Sample_Layouts!$H$57</f>
+        <v>Empty_Plate6_E7</v>
+      </c>
+      <c r="O29" s="28"/>
+      <c r="P29" s="27" t="str">
+        <f>Sample_Layouts!$I$57</f>
+        <v>Empty_Plate6_E8</v>
+      </c>
+      <c r="Q29" s="28"/>
+      <c r="R29" s="27" t="str">
+        <f>Sample_Layouts!$J$57</f>
+        <v>Empty_Plate6_E9</v>
+      </c>
+      <c r="S29" s="28"/>
+      <c r="T29" s="27" t="str">
+        <f>Sample_Layouts!$K$57</f>
+        <v>Empty_Plate6_E10</v>
+      </c>
+      <c r="U29" s="28"/>
+      <c r="V29" s="27" t="str">
+        <f>Sample_Layouts!$L$57</f>
+        <v>Empty_Plate6_E11</v>
+      </c>
+      <c r="W29" s="28"/>
+      <c r="X29" s="27" t="str">
+        <f>Sample_Layouts!$M$57</f>
+        <v>Empty_Plate6_E12</v>
+      </c>
+      <c r="Y29" s="28"/>
+    </row>
+    <row r="30" spans="1:25" ht="24" x14ac:dyDescent="0.3">
+      <c r="A30" s="22" t="s">
+        <v>2859</v>
+      </c>
+      <c r="B30" s="26" t="str">
+        <f>Sample_Layouts!$B$48</f>
+        <v>Empty_Plate5_F1</v>
+      </c>
+      <c r="C30" s="28"/>
+      <c r="D30" s="26" t="str">
+        <f>Sample_Layouts!$C$48</f>
+        <v>Empty_Plate5_F2</v>
+      </c>
+      <c r="E30" s="28"/>
+      <c r="F30" s="26" t="str">
+        <f>Sample_Layouts!$D$48</f>
+        <v>Empty_Plate5_F3</v>
+      </c>
+      <c r="G30" s="28"/>
+      <c r="H30" s="26" t="str">
+        <f>Sample_Layouts!$E$48</f>
+        <v>Empty_Plate5_F4</v>
+      </c>
+      <c r="I30" s="28"/>
+      <c r="J30" s="26" t="str">
+        <f>Sample_Layouts!$F$48</f>
+        <v>Empty_Plate5_F5</v>
+      </c>
+      <c r="K30" s="28"/>
+      <c r="L30" s="26" t="str">
+        <f>Sample_Layouts!$G$48</f>
+        <v>Empty_Plate5_F6</v>
+      </c>
+      <c r="M30" s="28"/>
+      <c r="N30" s="26" t="str">
+        <f>Sample_Layouts!$H$48</f>
+        <v>Empty_Plate5_F7</v>
+      </c>
+      <c r="O30" s="28"/>
+      <c r="P30" s="26" t="str">
+        <f>Sample_Layouts!$I$48</f>
+        <v>Empty_Plate5_F8</v>
+      </c>
+      <c r="Q30" s="28"/>
+      <c r="R30" s="26" t="str">
+        <f>Sample_Layouts!$J$48</f>
+        <v>Empty_Plate5_F9</v>
+      </c>
+      <c r="S30" s="28"/>
+      <c r="T30" s="26" t="str">
+        <f>Sample_Layouts!$K$48</f>
+        <v>Empty_Plate5_F10</v>
+      </c>
+      <c r="U30" s="28"/>
+      <c r="V30" s="26" t="str">
+        <f>Sample_Layouts!$L$48</f>
+        <v>Empty_Plate5_F11</v>
+      </c>
+      <c r="W30" s="28"/>
+      <c r="X30" s="26" t="str">
+        <f>Sample_Layouts!$M$48</f>
+        <v>Empty_Plate5_F12</v>
+      </c>
+      <c r="Y30" s="28"/>
+    </row>
+    <row r="31" spans="1:25" ht="24" x14ac:dyDescent="0.3">
+      <c r="A31" s="22" t="s">
+        <v>2858</v>
+      </c>
+      <c r="B31" s="27" t="str">
+        <f>Sample_Layouts!$B$58</f>
+        <v>Empty_Plate6_F1</v>
+      </c>
+      <c r="C31" s="28"/>
+      <c r="D31" s="27" t="str">
+        <f>Sample_Layouts!$C$58</f>
+        <v>Empty_Plate6_F2</v>
+      </c>
+      <c r="E31" s="28"/>
+      <c r="F31" s="27" t="str">
+        <f>Sample_Layouts!$D$58</f>
+        <v>Empty_Plate6_F3</v>
+      </c>
+      <c r="G31" s="28"/>
+      <c r="H31" s="27" t="str">
+        <f>Sample_Layouts!$E$58</f>
+        <v>Empty_Plate6_F4</v>
+      </c>
+      <c r="I31" s="28"/>
+      <c r="J31" s="27" t="str">
+        <f>Sample_Layouts!$F$58</f>
+        <v>Empty_Plate6_F5</v>
+      </c>
+      <c r="K31" s="28"/>
+      <c r="L31" s="27" t="str">
+        <f>Sample_Layouts!$G$58</f>
+        <v>Empty_Plate6_F6</v>
+      </c>
+      <c r="M31" s="28"/>
+      <c r="N31" s="27" t="str">
+        <f>Sample_Layouts!$H$58</f>
+        <v>Empty_Plate6_F7</v>
+      </c>
+      <c r="O31" s="28"/>
+      <c r="P31" s="27" t="str">
+        <f>Sample_Layouts!$I$58</f>
+        <v>Empty_Plate6_F8</v>
+      </c>
+      <c r="Q31" s="28"/>
+      <c r="R31" s="27" t="str">
+        <f>Sample_Layouts!$J$58</f>
+        <v>Empty_Plate6_F9</v>
+      </c>
+      <c r="S31" s="28"/>
+      <c r="T31" s="27" t="str">
+        <f>Sample_Layouts!$K$58</f>
+        <v>Empty_Plate6_F10</v>
+      </c>
+      <c r="U31" s="28"/>
+      <c r="V31" s="27" t="str">
+        <f>Sample_Layouts!$L$58</f>
+        <v>Empty_Plate6_F11</v>
+      </c>
+      <c r="W31" s="28"/>
+      <c r="X31" s="27" t="str">
+        <f>Sample_Layouts!$M$58</f>
+        <v>Empty_Plate6_F12</v>
+      </c>
+      <c r="Y31" s="28"/>
+    </row>
+    <row r="32" spans="1:25" ht="24" x14ac:dyDescent="0.3">
+      <c r="A32" s="22" t="s">
+        <v>2857</v>
+      </c>
+      <c r="B32" s="26" t="str">
+        <f>Sample_Layouts!$B$49</f>
+        <v>Empty_Plate5_G1</v>
+      </c>
+      <c r="C32" s="28"/>
+      <c r="D32" s="26" t="str">
+        <f>Sample_Layouts!$C$49</f>
+        <v>Empty_Plate5_G2</v>
+      </c>
+      <c r="E32" s="28"/>
+      <c r="F32" s="26" t="str">
+        <f>Sample_Layouts!$D$49</f>
+        <v>Empty_Plate5_G3</v>
+      </c>
+      <c r="G32" s="28"/>
+      <c r="H32" s="26" t="str">
+        <f>Sample_Layouts!$E$49</f>
+        <v>Empty_Plate5_G4</v>
+      </c>
+      <c r="I32" s="28"/>
+      <c r="J32" s="26" t="str">
+        <f>Sample_Layouts!$F$49</f>
+        <v>Empty_Plate5_G5</v>
+      </c>
+      <c r="K32" s="28"/>
+      <c r="L32" s="26" t="str">
+        <f>Sample_Layouts!$G$49</f>
+        <v>Empty_Plate5_G6</v>
+      </c>
+      <c r="M32" s="28"/>
+      <c r="N32" s="26" t="str">
+        <f>Sample_Layouts!$H$49</f>
+        <v>Empty_Plate5_G7</v>
+      </c>
+      <c r="O32" s="28"/>
+      <c r="P32" s="26" t="str">
+        <f>Sample_Layouts!$I$49</f>
+        <v>Empty_Plate5_G8</v>
+      </c>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="26" t="str">
+        <f>Sample_Layouts!$J$49</f>
+        <v>Empty_Plate5_G9</v>
+      </c>
+      <c r="S32" s="28"/>
+      <c r="T32" s="26" t="str">
+        <f>Sample_Layouts!$K$49</f>
+        <v>Empty_Plate5_G10</v>
+      </c>
+      <c r="U32" s="28"/>
+      <c r="V32" s="26" t="str">
+        <f>Sample_Layouts!$L$49</f>
+        <v>Empty_Plate5_G11</v>
+      </c>
+      <c r="W32" s="28"/>
+      <c r="X32" s="26" t="str">
+        <f>Sample_Layouts!$M$49</f>
+        <v>Empty_Plate5_G12</v>
+      </c>
+      <c r="Y32" s="28"/>
+    </row>
+    <row r="33" spans="1:25" ht="24" x14ac:dyDescent="0.3">
+      <c r="A33" s="22" t="s">
+        <v>2856</v>
+      </c>
+      <c r="B33" s="27" t="str">
+        <f>Sample_Layouts!$B$59</f>
+        <v>Empty_Plate6_G1</v>
+      </c>
+      <c r="C33" s="28"/>
+      <c r="D33" s="27" t="str">
+        <f>Sample_Layouts!$C$59</f>
+        <v>Empty_Plate6_G2</v>
+      </c>
+      <c r="E33" s="28"/>
+      <c r="F33" s="27" t="str">
+        <f>Sample_Layouts!$D$59</f>
+        <v>Empty_Plate6_G3</v>
+      </c>
+      <c r="G33" s="28"/>
+      <c r="H33" s="27" t="str">
+        <f>Sample_Layouts!$E$59</f>
+        <v>Empty_Plate6_G4</v>
+      </c>
+      <c r="I33" s="28"/>
+      <c r="J33" s="27" t="str">
+        <f>Sample_Layouts!$F$59</f>
+        <v>Empty_Plate6_G5</v>
+      </c>
+      <c r="K33" s="28"/>
+      <c r="L33" s="27" t="str">
+        <f>Sample_Layouts!$G$59</f>
+        <v>Empty_Plate6_G6</v>
+      </c>
+      <c r="M33" s="28"/>
+      <c r="N33" s="27" t="str">
+        <f>Sample_Layouts!$H$59</f>
+        <v>Empty_Plate6_G7</v>
+      </c>
+      <c r="O33" s="28"/>
+      <c r="P33" s="27" t="str">
+        <f>Sample_Layouts!$I$59</f>
+        <v>Empty_Plate6_G8</v>
+      </c>
+      <c r="Q33" s="28"/>
+      <c r="R33" s="27" t="str">
+        <f>Sample_Layouts!$J$59</f>
+        <v>Empty_Plate6_G9</v>
+      </c>
+      <c r="S33" s="28"/>
+      <c r="T33" s="27" t="str">
+        <f>Sample_Layouts!$K$59</f>
+        <v>Empty_Plate6_G10</v>
+      </c>
+      <c r="U33" s="28"/>
+      <c r="V33" s="27" t="str">
+        <f>Sample_Layouts!$L$59</f>
+        <v>Empty_Plate6_G11</v>
+      </c>
+      <c r="W33" s="28"/>
+      <c r="X33" s="27" t="str">
+        <f>Sample_Layouts!$M$59</f>
+        <v>Empty_Plate6_G12</v>
+      </c>
+      <c r="Y33" s="28"/>
+    </row>
+    <row r="34" spans="1:25" ht="24" x14ac:dyDescent="0.3">
+      <c r="A34" s="22" t="s">
+        <v>2855</v>
+      </c>
+      <c r="B34" s="26" t="str">
+        <f>Sample_Layouts!$B$50</f>
+        <v>Empty_Plate5_H1</v>
+      </c>
+      <c r="C34" s="28"/>
+      <c r="D34" s="26" t="str">
+        <f>Sample_Layouts!$C$50</f>
+        <v>Empty_Plate5_H2</v>
+      </c>
+      <c r="E34" s="28"/>
+      <c r="F34" s="26" t="str">
+        <f>Sample_Layouts!$D$50</f>
+        <v>Empty_Plate5_H3</v>
+      </c>
+      <c r="G34" s="28"/>
+      <c r="H34" s="26" t="str">
+        <f>Sample_Layouts!$E$50</f>
+        <v>Empty_Plate5_H4</v>
+      </c>
+      <c r="I34" s="28"/>
+      <c r="J34" s="26" t="str">
+        <f>Sample_Layouts!$F$50</f>
+        <v>Empty_Plate5_H5</v>
+      </c>
+      <c r="K34" s="28"/>
+      <c r="L34" s="26" t="str">
+        <f>Sample_Layouts!$G$50</f>
+        <v>Empty_Plate5_H6</v>
+      </c>
+      <c r="M34" s="28"/>
+      <c r="N34" s="26" t="str">
+        <f>Sample_Layouts!$H$50</f>
+        <v>Empty_Plate5_H7</v>
+      </c>
+      <c r="O34" s="28"/>
+      <c r="P34" s="26" t="str">
+        <f>Sample_Layouts!$I$50</f>
+        <v>Empty_Plate5_H8</v>
+      </c>
+      <c r="Q34" s="28"/>
+      <c r="R34" s="26" t="str">
+        <f>Sample_Layouts!$J$50</f>
+        <v>Empty_Plate5_H9</v>
+      </c>
+      <c r="S34" s="28"/>
+      <c r="T34" s="26" t="str">
+        <f>Sample_Layouts!$K$50</f>
+        <v>Empty_Plate5_H10</v>
+      </c>
+      <c r="U34" s="28"/>
+      <c r="V34" s="26" t="str">
+        <f>Sample_Layouts!$L$50</f>
+        <v>Empty_Plate5_H11</v>
+      </c>
+      <c r="W34" s="28"/>
+      <c r="X34" s="26" t="str">
+        <f>Sample_Layouts!$M$50</f>
+        <v>Empty_Plate5_H12</v>
+      </c>
+      <c r="Y34" s="28"/>
+    </row>
+    <row r="35" spans="1:25" ht="24" x14ac:dyDescent="0.3">
+      <c r="A35" s="22" t="s">
+        <v>2854</v>
+      </c>
+      <c r="B35" s="27" t="str">
+        <f>Sample_Layouts!$B$60</f>
+        <v>Empty_Plate6_H1</v>
+      </c>
+      <c r="C35" s="28"/>
+      <c r="D35" s="27" t="str">
+        <f>Sample_Layouts!$C$60</f>
+        <v>Empty_Plate6_H2</v>
+      </c>
+      <c r="E35" s="28"/>
+      <c r="F35" s="27" t="str">
+        <f>Sample_Layouts!$D$60</f>
+        <v>Empty_Plate6_H3</v>
+      </c>
+      <c r="G35" s="28"/>
+      <c r="H35" s="27" t="str">
+        <f>Sample_Layouts!$E$60</f>
+        <v>Empty_Plate6_H4</v>
+      </c>
+      <c r="I35" s="28"/>
+      <c r="J35" s="27" t="str">
+        <f>Sample_Layouts!$F$60</f>
+        <v>Empty_Plate6_H5</v>
+      </c>
+      <c r="K35" s="28"/>
+      <c r="L35" s="27" t="str">
+        <f>Sample_Layouts!$G$60</f>
+        <v>Empty_Plate6_H6</v>
+      </c>
+      <c r="M35" s="28"/>
+      <c r="N35" s="27" t="str">
+        <f>Sample_Layouts!$H$60</f>
+        <v>Empty_Plate6_H7</v>
+      </c>
+      <c r="O35" s="28"/>
+      <c r="P35" s="27" t="str">
+        <f>Sample_Layouts!$I$60</f>
+        <v>Empty_Plate6_H8</v>
+      </c>
+      <c r="Q35" s="28"/>
+      <c r="R35" s="27" t="str">
+        <f>Sample_Layouts!$J$60</f>
+        <v>Empty_Plate6_H9</v>
+      </c>
+      <c r="S35" s="28"/>
+      <c r="T35" s="27" t="str">
+        <f>Sample_Layouts!$K$60</f>
+        <v>Empty_Plate6_H10</v>
+      </c>
+      <c r="U35" s="28"/>
+      <c r="V35" s="27" t="str">
+        <f>Sample_Layouts!$L$60</f>
+        <v>Empty_Plate6_H11</v>
+      </c>
+      <c r="W35" s="28"/>
+      <c r="X35" s="27" t="str">
+        <f>Sample_Layouts!$M$60</f>
+        <v>Empty_Plate6_H12</v>
+      </c>
+      <c r="Y35" s="28"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="N2:N17 L2:L17 J2:J17 H2:H17 F2:F17 B2:B17 D2:D17 P2:P17 R2:R17 T2:T17 V2:V17 X2:X17">
+    <cfRule type="containsText" dxfId="488" priority="485" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",B2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="487" priority="486" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",B2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="486" priority="487" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",B2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="485" priority="488" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",B2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20:Y35">
+    <cfRule type="containsText" dxfId="484" priority="481" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",B20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="483" priority="482" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",B20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="482" priority="483" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",B20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="481" priority="484" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",B20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C3">
+    <cfRule type="containsText" dxfId="479" priority="477" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="478" priority="478" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="477" priority="479" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="476" priority="480" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",C2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="containsText" dxfId="475" priority="473" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",C4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="474" priority="474" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",C4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="473" priority="475" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",C4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="472" priority="476" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",C4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="containsText" dxfId="471" priority="469" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",C6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="470" priority="470" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",C6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="469" priority="471" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",C6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="468" priority="472" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",C6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="containsText" dxfId="467" priority="465" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",C5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="466" priority="466" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",C5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="465" priority="467" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",C5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="464" priority="468" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",C5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="containsText" dxfId="463" priority="461" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",C7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="462" priority="462" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",C7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="461" priority="463" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",C7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="460" priority="464" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",C7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9">
+    <cfRule type="containsText" dxfId="459" priority="457" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",C9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="458" priority="458" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",C9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="457" priority="459" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",C9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="456" priority="460" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",C9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="containsText" dxfId="455" priority="453" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",C11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="454" priority="454" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",C11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="453" priority="455" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",C11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="452" priority="456" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",C11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="containsText" dxfId="451" priority="449" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",C13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="450" priority="450" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",C13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="449" priority="451" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",C13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="448" priority="452" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",C13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="containsText" dxfId="447" priority="445" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",C15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="446" priority="446" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",C15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="445" priority="447" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",C15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="444" priority="448" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",C15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="containsText" dxfId="443" priority="441" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",C17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="442" priority="442" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",C17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="441" priority="443" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",C17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="440" priority="444" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",C17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="containsText" dxfId="439" priority="437" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="438" priority="438" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="437" priority="439" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="436" priority="440" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",E2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="containsText" dxfId="435" priority="433" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",E4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="434" priority="434" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",E4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="433" priority="435" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",E4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="432" priority="436" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",E4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="containsText" dxfId="431" priority="429" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",E6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="430" priority="430" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",E6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="429" priority="431" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",E6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="428" priority="432" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",E6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="containsText" dxfId="427" priority="425" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",E5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="426" priority="426" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",E5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="425" priority="427" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",E5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="424" priority="428" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",E5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="containsText" dxfId="423" priority="421" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",E7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="422" priority="422" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",E7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="421" priority="423" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",E7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="420" priority="424" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",E7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="containsText" dxfId="419" priority="417" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",E9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="418" priority="418" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",E9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="417" priority="419" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",E9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="416" priority="420" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",E9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="containsText" dxfId="415" priority="413" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",E11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="414" priority="414" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",E11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="413" priority="415" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",E11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="412" priority="416" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",E11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="containsText" dxfId="411" priority="409" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",E13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="410" priority="410" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",E13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="409" priority="411" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",E13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="408" priority="412" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",E13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="containsText" dxfId="407" priority="405" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",E15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="406" priority="406" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",E15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="405" priority="407" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",E15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="404" priority="408" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",E15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="containsText" dxfId="403" priority="401" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",E17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="402" priority="402" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",E17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="401" priority="403" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",E17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="400" priority="404" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",E17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G3">
+    <cfRule type="containsText" dxfId="399" priority="397" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="398" priority="398" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="397" priority="399" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="396" priority="400" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",G2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="containsText" dxfId="395" priority="393" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",G4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="394" priority="394" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",G4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="393" priority="395" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",G4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="392" priority="396" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",G4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="containsText" dxfId="391" priority="389" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",G6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="390" priority="390" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",G6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="389" priority="391" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",G6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="388" priority="392" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",G6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="containsText" dxfId="387" priority="385" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",G5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="386" priority="386" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",G5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="385" priority="387" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",G5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="384" priority="388" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",G5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="containsText" dxfId="383" priority="381" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",G7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="382" priority="382" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",G7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="381" priority="383" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",G7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="380" priority="384" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",G7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="containsText" dxfId="379" priority="377" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",G9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="378" priority="378" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",G9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="377" priority="379" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",G9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="376" priority="380" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",G9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="containsText" dxfId="375" priority="373" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",G11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="374" priority="374" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",G11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="373" priority="375" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",G11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="372" priority="376" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",G11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13">
+    <cfRule type="containsText" dxfId="371" priority="369" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",G13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="370" priority="370" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",G13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="369" priority="371" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",G13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="368" priority="372" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",G13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
+    <cfRule type="containsText" dxfId="367" priority="365" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",G15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="366" priority="366" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",G15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="365" priority="367" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",G15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="364" priority="368" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",G15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17">
+    <cfRule type="containsText" dxfId="363" priority="361" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",G17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="362" priority="362" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",G17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="361" priority="363" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",G17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="360" priority="364" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",G17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I3">
+    <cfRule type="containsText" dxfId="359" priority="357" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",I2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="358" priority="358" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",I2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="357" priority="359" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",I2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="356" priority="360" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",I2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="containsText" dxfId="355" priority="353" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",I4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="354" priority="354" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",I4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="353" priority="355" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",I4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="352" priority="356" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",I4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6">
+    <cfRule type="containsText" dxfId="351" priority="349" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",I6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="350" priority="350" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",I6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="349" priority="351" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",I6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="348" priority="352" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",I6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5">
+    <cfRule type="containsText" dxfId="347" priority="345" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",I5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="346" priority="346" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",I5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="345" priority="347" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",I5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="344" priority="348" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",I5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="containsText" dxfId="343" priority="341" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",I7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="342" priority="342" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",I7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="341" priority="343" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",I7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="340" priority="344" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",I7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9">
+    <cfRule type="containsText" dxfId="339" priority="337" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",I9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="338" priority="338" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",I9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="337" priority="339" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",I9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="336" priority="340" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",I9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="containsText" dxfId="335" priority="333" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",I11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="334" priority="334" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",I11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="333" priority="335" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",I11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="332" priority="336" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",I11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="331" priority="329" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",I13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="330" priority="330" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",I13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="329" priority="331" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",I13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="328" priority="332" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",I13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="containsText" dxfId="327" priority="325" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",I15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="326" priority="326" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",I15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="325" priority="327" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",I15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="324" priority="328" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",I15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
+    <cfRule type="containsText" dxfId="323" priority="321" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",I17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="322" priority="322" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",I17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="321" priority="323" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",I17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="320" priority="324" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",I17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K3">
+    <cfRule type="containsText" dxfId="319" priority="317" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",K2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="318" priority="318" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",K2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="317" priority="319" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",K2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="316" priority="320" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",K2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4">
+    <cfRule type="containsText" dxfId="315" priority="313" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",K4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="314" priority="314" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",K4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="313" priority="315" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",K4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="312" priority="316" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",K4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6">
+    <cfRule type="containsText" dxfId="311" priority="309" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",K6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="310" priority="310" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",K6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="309" priority="311" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",K6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="308" priority="312" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",K6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5">
+    <cfRule type="containsText" dxfId="307" priority="305" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",K5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="306" priority="306" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",K5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="305" priority="307" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",K5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="304" priority="308" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",K5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7">
+    <cfRule type="containsText" dxfId="303" priority="301" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",K7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="302" priority="302" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",K7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="301" priority="303" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",K7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="300" priority="304" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",K7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9">
+    <cfRule type="containsText" dxfId="299" priority="297" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",K9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="298" priority="298" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",K9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="297" priority="299" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",K9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="296" priority="300" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",K9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11">
+    <cfRule type="containsText" dxfId="295" priority="293" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",K11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="294" priority="294" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",K11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="293" priority="295" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",K11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="292" priority="296" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",K11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13">
+    <cfRule type="containsText" dxfId="291" priority="289" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",K13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="290" priority="290" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",K13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="289" priority="291" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",K13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="288" priority="292" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",K13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15">
+    <cfRule type="containsText" dxfId="287" priority="285" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",K15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="286" priority="286" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",K15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="285" priority="287" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",K15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="284" priority="288" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",K15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K17">
+    <cfRule type="containsText" dxfId="283" priority="281" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",K17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="282" priority="282" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",K17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="281" priority="283" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",K17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="280" priority="284" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",K17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M3">
+    <cfRule type="containsText" dxfId="279" priority="277" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",M2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="278" priority="278" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",M2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="277" priority="279" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",M2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="276" priority="280" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",M2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4">
+    <cfRule type="containsText" dxfId="275" priority="273" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",M4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="274" priority="274" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",M4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="273" priority="275" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",M4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="272" priority="276" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",M4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6">
+    <cfRule type="containsText" dxfId="271" priority="269" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",M6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="270" priority="270" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",M6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="269" priority="271" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",M6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="268" priority="272" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",M6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5">
+    <cfRule type="containsText" dxfId="267" priority="265" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",M5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="266" priority="266" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",M5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="265" priority="267" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",M5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="264" priority="268" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",M5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7">
+    <cfRule type="containsText" dxfId="263" priority="261" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",M7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="262" priority="262" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",M7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="261" priority="263" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",M7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="260" priority="264" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",M7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M9">
+    <cfRule type="containsText" dxfId="259" priority="257" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",M9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="258" priority="258" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",M9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="257" priority="259" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",M9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="256" priority="260" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",M9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M11">
+    <cfRule type="containsText" dxfId="255" priority="253" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",M11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="254" priority="254" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",M11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="253" priority="255" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",M11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="252" priority="256" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",M11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M13">
+    <cfRule type="containsText" dxfId="251" priority="249" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",M13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="250" priority="250" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",M13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="249" priority="251" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",M13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="248" priority="252" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",M13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M15">
+    <cfRule type="containsText" dxfId="247" priority="245" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",M15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="246" priority="246" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",M15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="245" priority="247" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",M15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="244" priority="248" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",M15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M17">
+    <cfRule type="containsText" dxfId="243" priority="241" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",M17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="242" priority="242" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",M17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="241" priority="243" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",M17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="240" priority="244" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",M17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O3">
+    <cfRule type="containsText" dxfId="239" priority="237" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",O2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="238" priority="238" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",O2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="237" priority="239" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",O2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="236" priority="240" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",O2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4">
+    <cfRule type="containsText" dxfId="235" priority="233" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",O4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="234" priority="234" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",O4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="233" priority="235" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",O4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="232" priority="236" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",O4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6">
+    <cfRule type="containsText" dxfId="231" priority="229" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",O6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="230" priority="230" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",O6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="229" priority="231" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",O6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="228" priority="232" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",O6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5">
+    <cfRule type="containsText" dxfId="227" priority="225" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",O5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="226" priority="226" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",O5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="225" priority="227" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",O5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="224" priority="228" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",O5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O7">
+    <cfRule type="containsText" dxfId="223" priority="221" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",O7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="222" priority="222" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",O7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="221" priority="223" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",O7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="220" priority="224" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",O7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O9">
+    <cfRule type="containsText" dxfId="219" priority="217" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",O9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="218" priority="218" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",O9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="217" priority="219" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",O9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="216" priority="220" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",O9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O11">
+    <cfRule type="containsText" dxfId="215" priority="213" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",O11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="214" priority="214" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",O11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="213" priority="215" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",O11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="212" priority="216" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",O11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O13">
+    <cfRule type="containsText" dxfId="211" priority="209" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",O13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="210" priority="210" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",O13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="209" priority="211" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",O13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="208" priority="212" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",O13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O15">
+    <cfRule type="containsText" dxfId="207" priority="205" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",O15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="206" priority="206" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",O15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="205" priority="207" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",O15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="204" priority="208" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",O15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O17">
+    <cfRule type="containsText" dxfId="203" priority="201" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",O17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="202" priority="202" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",O17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="201" priority="203" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",O17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="200" priority="204" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",O17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2:Q3">
+    <cfRule type="containsText" dxfId="199" priority="197" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",Q2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="198" priority="198" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",Q2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="197" priority="199" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",Q2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="196" priority="200" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",Q2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q4">
+    <cfRule type="containsText" dxfId="195" priority="193" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",Q4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="194" priority="194" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",Q4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="193" priority="195" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",Q4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="192" priority="196" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",Q4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q6">
+    <cfRule type="containsText" dxfId="191" priority="189" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",Q6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="190" priority="190" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",Q6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="189" priority="191" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",Q6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="188" priority="192" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",Q6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q5">
+    <cfRule type="containsText" dxfId="187" priority="185" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",Q5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="186" priority="186" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",Q5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="185" priority="187" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",Q5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="184" priority="188" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",Q5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q7">
+    <cfRule type="containsText" dxfId="183" priority="181" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",Q7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="182" priority="182" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",Q7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="181" priority="183" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",Q7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="180" priority="184" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",Q7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q9">
+    <cfRule type="containsText" dxfId="179" priority="177" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",Q9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="178" priority="178" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",Q9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="177" priority="179" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",Q9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="176" priority="180" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",Q9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q11">
+    <cfRule type="containsText" dxfId="175" priority="173" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",Q11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="174" priority="174" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",Q11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="173" priority="175" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",Q11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="172" priority="176" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",Q11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q13">
+    <cfRule type="containsText" dxfId="171" priority="169" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",Q13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="170" priority="170" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",Q13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="169" priority="171" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",Q13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="168" priority="172" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",Q13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q15">
+    <cfRule type="containsText" dxfId="167" priority="165" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",Q15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="166" priority="166" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",Q15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="165" priority="167" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",Q15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="164" priority="168" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",Q15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q17">
+    <cfRule type="containsText" dxfId="163" priority="161" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",Q17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="162" priority="162" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",Q17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="161" priority="163" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",Q17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="160" priority="164" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",Q17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S2:S3">
+    <cfRule type="containsText" dxfId="159" priority="157" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",S2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="158" priority="158" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",S2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="157" priority="159" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",S2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="156" priority="160" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",S2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S4">
+    <cfRule type="containsText" dxfId="155" priority="153" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",S4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="154" priority="154" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",S4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="153" priority="155" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",S4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="152" priority="156" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",S4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S6">
+    <cfRule type="containsText" dxfId="151" priority="149" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",S6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="150" priority="150" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",S6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="149" priority="151" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",S6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="148" priority="152" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",S6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S5">
+    <cfRule type="containsText" dxfId="147" priority="145" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",S5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="146" priority="146" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",S5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="145" priority="147" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",S5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="144" priority="148" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",S5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S7">
+    <cfRule type="containsText" dxfId="143" priority="141" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",S7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="142" priority="142" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",S7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="141" priority="143" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",S7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="140" priority="144" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",S7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S9">
+    <cfRule type="containsText" dxfId="139" priority="137" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",S9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="138" priority="138" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",S9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="137" priority="139" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",S9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="136" priority="140" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",S9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S11">
+    <cfRule type="containsText" dxfId="135" priority="133" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",S11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="134" priority="134" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",S11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="133" priority="135" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",S11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="132" priority="136" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",S11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S13">
+    <cfRule type="containsText" dxfId="131" priority="129" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",S13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="130" priority="130" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",S13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="129" priority="131" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",S13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="128" priority="132" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",S13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S15">
+    <cfRule type="containsText" dxfId="127" priority="125" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",S15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="126" priority="126" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",S15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="125" priority="127" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",S15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="124" priority="128" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",S15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S17">
+    <cfRule type="containsText" dxfId="123" priority="121" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",S17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="122" priority="122" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",S17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="121" priority="123" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",S17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="120" priority="124" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",S17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U2:U3">
+    <cfRule type="containsText" dxfId="119" priority="117" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",U2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="118" priority="118" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",U2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="117" priority="119" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",U2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="116" priority="120" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",U2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U4">
+    <cfRule type="containsText" dxfId="115" priority="113" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",U4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="114" priority="114" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",U4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="113" priority="115" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",U4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="112" priority="116" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",U4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U6">
+    <cfRule type="containsText" dxfId="111" priority="109" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",U6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="110" priority="110" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",U6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="109" priority="111" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",U6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="108" priority="112" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",U6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U5">
+    <cfRule type="containsText" dxfId="107" priority="105" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",U5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="106" priority="106" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",U5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="105" priority="107" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",U5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="104" priority="108" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",U5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U7">
+    <cfRule type="containsText" dxfId="103" priority="101" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",U7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="102" priority="102" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",U7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="101" priority="103" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",U7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="100" priority="104" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",U7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U9">
+    <cfRule type="containsText" dxfId="99" priority="97" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",U9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="98" priority="98" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",U9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="97" priority="99" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",U9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="96" priority="100" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",U9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U11">
+    <cfRule type="containsText" dxfId="95" priority="93" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",U11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="94" priority="94" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",U11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="93" priority="95" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",U11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="92" priority="96" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",U11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U13">
+    <cfRule type="containsText" dxfId="91" priority="89" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",U13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="90" priority="90" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",U13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="89" priority="91" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",U13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="88" priority="92" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",U13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U15">
+    <cfRule type="containsText" dxfId="87" priority="85" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",U15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="86" priority="86" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",U15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="85" priority="87" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",U15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="84" priority="88" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",U15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U17">
+    <cfRule type="containsText" dxfId="83" priority="81" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",U17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="82" priority="82" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",U17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="81" priority="83" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",U17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="80" priority="84" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",U17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W2:W3">
+    <cfRule type="containsText" dxfId="79" priority="77" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",W2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="78" priority="78" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",W2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="77" priority="79" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",W2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="76" priority="80" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",W2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W4">
+    <cfRule type="containsText" dxfId="75" priority="73" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",W4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="74" priority="74" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",W4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="73" priority="75" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",W4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="72" priority="76" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",W4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W6">
+    <cfRule type="containsText" dxfId="71" priority="69" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",W6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="70" priority="70" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",W6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="69" priority="71" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",W6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="68" priority="72" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",W6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W5">
+    <cfRule type="containsText" dxfId="67" priority="65" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",W5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="66" priority="66" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",W5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="65" priority="67" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",W5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="64" priority="68" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",W5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W7">
+    <cfRule type="containsText" dxfId="63" priority="61" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",W7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="62" priority="62" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",W7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="61" priority="63" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",W7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="60" priority="64" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",W7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W9">
+    <cfRule type="containsText" dxfId="59" priority="57" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",W9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="58" priority="58" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",W9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="57" priority="59" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",W9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="56" priority="60" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",W9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W11">
+    <cfRule type="containsText" dxfId="55" priority="53" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",W11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="54" priority="54" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",W11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="53" priority="55" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",W11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="56" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",W11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W13">
+    <cfRule type="containsText" dxfId="51" priority="49" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",W13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="50" priority="50" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",W13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="49" priority="51" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",W13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="48" priority="52" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",W13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W15">
+    <cfRule type="containsText" dxfId="47" priority="45" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",W15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="46" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",W15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="47" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",W15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="44" priority="48" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",W15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W17">
+    <cfRule type="containsText" dxfId="43" priority="41" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",W17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="42" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",W17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="41" priority="43" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",W17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="44" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",W17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y2:Y3">
+    <cfRule type="containsText" dxfId="39" priority="37" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",Y2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="38" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",Y2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="39" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",Y2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="40" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",Y2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y4">
+    <cfRule type="containsText" dxfId="35" priority="33" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",Y4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="34" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",Y4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="35" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",Y4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="32" priority="36" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",Y4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y6">
+    <cfRule type="containsText" dxfId="31" priority="29" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",Y6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="30" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",Y6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="31" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",Y6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="32" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",Y6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y5">
+    <cfRule type="containsText" dxfId="27" priority="25" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",Y5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="26" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",Y5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="27" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",Y5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="28" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",Y5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y7">
+    <cfRule type="containsText" dxfId="23" priority="21" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",Y7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="22" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",Y7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",Y7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="24" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",Y7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y9">
+    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",Y9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",Y9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",Y9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",Y9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y11">
+    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",Y11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",Y11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",Y11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="16" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",Y11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y13">
+    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",Y13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",Y13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",Y13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",Y13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y15">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",Y15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",Y15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",Y15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",Y15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y17">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",Y17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",Y17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",Y17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",Y17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.59" right="0.59" top="0.82341269841269837" bottom="0.59" header="0.23622047244094491" footer="0"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <headerFooter>
+    <oddHeader>&amp;C384 Well Plate Layout: Primary PCR Plate
+Date:________________</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC116ACE-4026-CF4E-8A89-6E76894BE70E}">
   <dimension ref="A1:M199"/>
   <sheetViews>
@@ -19573,7 +27608,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B142:M149 B152:M159 B162:M169 B172:M179 B182:M189 B192:M199">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="480" priority="2" operator="greaterThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19582,7 +27617,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ABCEF33-0497-B740-8697-A8FD31900166}">
   <dimension ref="A1:C578"/>
   <sheetViews>
@@ -26529,11 +34564,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I596"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>

--- a/Templates/IndexTrackingSheet.xlsx
+++ b/Templates/IndexTrackingSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbisanz/bisanzlab/github/OHMC_Colaboratory/Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE88491-EDAC-C248-A6AF-DBA8074D0378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A24A86B-D66E-5B42-8E74-BFAA8ED59441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27660" windowHeight="28300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample_Layouts" sheetId="8" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6821" uniqueCount="3244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6629" uniqueCount="3052">
   <si>
     <t>Sample_ID</t>
   </si>
@@ -9190,582 +9190,6 @@
   </si>
   <si>
     <t>GGACTTACGA</t>
-  </si>
-  <si>
-    <t>CTATGTCAGT</t>
-  </si>
-  <si>
-    <t>TCACGGACTA</t>
-  </si>
-  <si>
-    <t>AGTGGACTGC</t>
-  </si>
-  <si>
-    <t>GCCAGATGTA</t>
-  </si>
-  <si>
-    <t>GCGATAGGTC</t>
-  </si>
-  <si>
-    <t>GTATCCACTG</t>
-  </si>
-  <si>
-    <t>GACGTACCTA</t>
-  </si>
-  <si>
-    <t>TGACGACTTG</t>
-  </si>
-  <si>
-    <t>CGTCAGAATT</t>
-  </si>
-  <si>
-    <t>AATCATGTGC</t>
-  </si>
-  <si>
-    <t>GTTCGCAACG</t>
-  </si>
-  <si>
-    <t>GCGACTAATT</t>
-  </si>
-  <si>
-    <t>CGCTTAATCG</t>
-  </si>
-  <si>
-    <t>ACGTGATCTT</t>
-  </si>
-  <si>
-    <t>GAGGTCGCAT</t>
-  </si>
-  <si>
-    <t>TTACGAGCGG</t>
-  </si>
-  <si>
-    <t>AATAGCTTGC</t>
-  </si>
-  <si>
-    <t>GTCTTACGAT</t>
-  </si>
-  <si>
-    <t>GCTTCCTGAA</t>
-  </si>
-  <si>
-    <t>GTACACGATT</t>
-  </si>
-  <si>
-    <t>CGAATTGAGC</t>
-  </si>
-  <si>
-    <t>TCGACTAGAA</t>
-  </si>
-  <si>
-    <t>GACGCTGATC</t>
-  </si>
-  <si>
-    <t>TTCAACCGGA</t>
-  </si>
-  <si>
-    <t>AGCGTTCAGG</t>
-  </si>
-  <si>
-    <t>CATGCGTGAA</t>
-  </si>
-  <si>
-    <t>AGCCTCAGTC</t>
-  </si>
-  <si>
-    <t>ATCAGCGCCT</t>
-  </si>
-  <si>
-    <t>GTGTGCCAGA</t>
-  </si>
-  <si>
-    <t>CGGATGTCAA</t>
-  </si>
-  <si>
-    <t>TAGATCCAGA</t>
-  </si>
-  <si>
-    <t>GACAGATCAT</t>
-  </si>
-  <si>
-    <t>TGCGACAGGT</t>
-  </si>
-  <si>
-    <t>GACCTATCGG</t>
-  </si>
-  <si>
-    <t>CCTGAAGTAA</t>
-  </si>
-  <si>
-    <t>AATTGAGGCC</t>
-  </si>
-  <si>
-    <t>TAGTGTTCAC</t>
-  </si>
-  <si>
-    <t>CAGAGTGTGC</t>
-  </si>
-  <si>
-    <t>TACGGAGCTT</t>
-  </si>
-  <si>
-    <t>CTGCTGAAGT</t>
-  </si>
-  <si>
-    <t>TAGGCGACTC</t>
-  </si>
-  <si>
-    <t>ATTAGTCAGC</t>
-  </si>
-  <si>
-    <t>TACTAAGGAC</t>
-  </si>
-  <si>
-    <t>ATCTGCTGGA</t>
-  </si>
-  <si>
-    <t>GTCCTAAGCC</t>
-  </si>
-  <si>
-    <t>GAATCACGTA</t>
-  </si>
-  <si>
-    <t>ACGTGGAGCT</t>
-  </si>
-  <si>
-    <t>CTGTCAACAG</t>
-  </si>
-  <si>
-    <t>ACCTGTACGG</t>
-  </si>
-  <si>
-    <t>AGCTCCGTAG</t>
-  </si>
-  <si>
-    <t>CCAAGGCTGT</t>
-  </si>
-  <si>
-    <t>CTCACCGATG</t>
-  </si>
-  <si>
-    <t>AAGCGGACTT</t>
-  </si>
-  <si>
-    <t>CAGGTTCAGT</t>
-  </si>
-  <si>
-    <t>ATCGACCTGG</t>
-  </si>
-  <si>
-    <t>CGTGATCTGA</t>
-  </si>
-  <si>
-    <t>GCCTTAACGC</t>
-  </si>
-  <si>
-    <t>ATGACCGTGG</t>
-  </si>
-  <si>
-    <t>CATGGTCATC</t>
-  </si>
-  <si>
-    <t>GGTGCAGTAC</t>
-  </si>
-  <si>
-    <t>TTCAGACGCC</t>
-  </si>
-  <si>
-    <t>CCGTCCGTAA</t>
-  </si>
-  <si>
-    <t>AGTCACGACT</t>
-  </si>
-  <si>
-    <t>CGCTTGAGTA</t>
-  </si>
-  <si>
-    <t>GTAGATAACC</t>
-  </si>
-  <si>
-    <t>GCGATTGCGA</t>
-  </si>
-  <si>
-    <t>TGATTGCCTA</t>
-  </si>
-  <si>
-    <t>CAGTACCTCG</t>
-  </si>
-  <si>
-    <t>GAGACATCTC</t>
-  </si>
-  <si>
-    <t>CTCATGCAGA</t>
-  </si>
-  <si>
-    <t>CTAGCGATGG</t>
-  </si>
-  <si>
-    <t>ACGCTGTCAC</t>
-  </si>
-  <si>
-    <t>TTGCCGATAT</t>
-  </si>
-  <si>
-    <t>GATCAGGCAT</t>
-  </si>
-  <si>
-    <t>GTATAGCCAA</t>
-  </si>
-  <si>
-    <t>CATTAGGAGC</t>
-  </si>
-  <si>
-    <t>GCAACGTACT</t>
-  </si>
-  <si>
-    <t>TACTTGGCAG</t>
-  </si>
-  <si>
-    <t>TGCAGTAGGC</t>
-  </si>
-  <si>
-    <t>ATCAGAATCG</t>
-  </si>
-  <si>
-    <t>GTCAAGGCGT</t>
-  </si>
-  <si>
-    <t>TTGCACCGAG</t>
-  </si>
-  <si>
-    <t>GGACGTAGCT</t>
-  </si>
-  <si>
-    <t>ACTATCAGAG</t>
-  </si>
-  <si>
-    <t>GCACCTTAGC</t>
-  </si>
-  <si>
-    <t>ATTCAAGCCG</t>
-  </si>
-  <si>
-    <t>GCATCGTTGA</t>
-  </si>
-  <si>
-    <t>TGACGATGCC</t>
-  </si>
-  <si>
-    <t>GCCAGGATTC</t>
-  </si>
-  <si>
-    <t>TACTGACTGA</t>
-  </si>
-  <si>
-    <t>TATGGCCGAT</t>
-  </si>
-  <si>
-    <t>GACCGTTGGA</t>
-  </si>
-  <si>
-    <t>TAACCTTGCG</t>
-  </si>
-  <si>
-    <t>CTACACTGGC</t>
-  </si>
-  <si>
-    <t>ACCGTAGGTG</t>
-  </si>
-  <si>
-    <t>CCGTGAGGAT</t>
-  </si>
-  <si>
-    <t>TCTCGCAGCA</t>
-  </si>
-  <si>
-    <t>ATCACTTGCG</t>
-  </si>
-  <si>
-    <t>GAGTCTACTA</t>
-  </si>
-  <si>
-    <t>TCGACATCCG</t>
-  </si>
-  <si>
-    <t>CGGTCCTACA</t>
-  </si>
-  <si>
-    <t>TCCTTAGAGG</t>
-  </si>
-  <si>
-    <t>GGTACTCTCA</t>
-  </si>
-  <si>
-    <t>GCACTCCAGT</t>
-  </si>
-  <si>
-    <t>AACAACTGTG</t>
-  </si>
-  <si>
-    <t>CATCGGTCAC</t>
-  </si>
-  <si>
-    <t>GCTTAGACCT</t>
-  </si>
-  <si>
-    <t>ACCGGATAAT</t>
-  </si>
-  <si>
-    <t>TGACTCGCAG</t>
-  </si>
-  <si>
-    <t>TGGAACATCC</t>
-  </si>
-  <si>
-    <t>TCGGACACCT</t>
-  </si>
-  <si>
-    <t>GGTCCACAAT</t>
-  </si>
-  <si>
-    <t>GTAATTCTCG</t>
-  </si>
-  <si>
-    <t>CGAGGTTACT</t>
-  </si>
-  <si>
-    <t>GGACTTCATC</t>
-  </si>
-  <si>
-    <t>CCGAACTATG</t>
-  </si>
-  <si>
-    <t>TGCGAACTCA</t>
-  </si>
-  <si>
-    <t>CTATACGAAG</t>
-  </si>
-  <si>
-    <t>CGTAACAGTC</t>
-  </si>
-  <si>
-    <t>GGCACCTCTA</t>
-  </si>
-  <si>
-    <t>GGATCATTCC</t>
-  </si>
-  <si>
-    <t>CATCGACTGG</t>
-  </si>
-  <si>
-    <t>AGCAGACCTT</t>
-  </si>
-  <si>
-    <t>CGGATCATTA</t>
-  </si>
-  <si>
-    <t>CTCGATGTAC</t>
-  </si>
-  <si>
-    <t>GCGATCTCAG</t>
-  </si>
-  <si>
-    <t>TAACGTCAGC</t>
-  </si>
-  <si>
-    <t>ATCTCGGCAC</t>
-  </si>
-  <si>
-    <t>ATCGTCTAGC</t>
-  </si>
-  <si>
-    <t>GTTGAATCCT</t>
-  </si>
-  <si>
-    <t>TGCGCTGCAA</t>
-  </si>
-  <si>
-    <t>CTATCAGAGC</t>
-  </si>
-  <si>
-    <t>AGCATGGTCG</t>
-  </si>
-  <si>
-    <t>CGTAGTTGCA</t>
-  </si>
-  <si>
-    <t>TACCGTGCCA</t>
-  </si>
-  <si>
-    <t>CTAGAGGCTT</t>
-  </si>
-  <si>
-    <t>CTCTCGTAAG</t>
-  </si>
-  <si>
-    <t>GTACCGTGAC</t>
-  </si>
-  <si>
-    <t>GCTGATCGAA</t>
-  </si>
-  <si>
-    <t>TTGCTGGCAA</t>
-  </si>
-  <si>
-    <t>TGAACCGCCT</t>
-  </si>
-  <si>
-    <t>GCGGCATGAT</t>
-  </si>
-  <si>
-    <t>CCATTCAAGG</t>
-  </si>
-  <si>
-    <t>GCCGGTTACA</t>
-  </si>
-  <si>
-    <t>GCGCTCAATG</t>
-  </si>
-  <si>
-    <t>GGAGATGCCT</t>
-  </si>
-  <si>
-    <t>TAGCTCATGG</t>
-  </si>
-  <si>
-    <t>GCTGTCAAGC</t>
-  </si>
-  <si>
-    <t>GATATGTCCT</t>
-  </si>
-  <si>
-    <t>CCTAAGATCG</t>
-  </si>
-  <si>
-    <t>CGATGACCAT</t>
-  </si>
-  <si>
-    <t>CAACGGTGTT</t>
-  </si>
-  <si>
-    <t>AGGTCACTCG</t>
-  </si>
-  <si>
-    <t>GTCAGCCTAA</t>
-  </si>
-  <si>
-    <t>CGCTAATTGT</t>
-  </si>
-  <si>
-    <t>GACTGCCATC</t>
-  </si>
-  <si>
-    <t>GAAGGCTCTC</t>
-  </si>
-  <si>
-    <t>ATACCTCTGG</t>
-  </si>
-  <si>
-    <t>CATCACGGTT</t>
-  </si>
-  <si>
-    <t>TGTGGCGACA</t>
-  </si>
-  <si>
-    <t>GATGTCCGCA</t>
-  </si>
-  <si>
-    <t>TCGGATCTAT</t>
-  </si>
-  <si>
-    <t>TGTCCGGTAA</t>
-  </si>
-  <si>
-    <t>AGTCCTAGCC</t>
-  </si>
-  <si>
-    <t>CTTGACAGAG</t>
-  </si>
-  <si>
-    <t>GTGAGTACCA</t>
-  </si>
-  <si>
-    <t>GCATTGGACG</t>
-  </si>
-  <si>
-    <t>CTTGAGCAGG</t>
-  </si>
-  <si>
-    <t>CTAAGCTCTG</t>
-  </si>
-  <si>
-    <t>ATAGTCGCTG</t>
-  </si>
-  <si>
-    <t>GAACACTTCG</t>
-  </si>
-  <si>
-    <t>GTCTCGAACC</t>
-  </si>
-  <si>
-    <t>CGAGTCTTCA</t>
-  </si>
-  <si>
-    <t>GGTGCATCGA</t>
-  </si>
-  <si>
-    <t>TTACCGGATG</t>
-  </si>
-  <si>
-    <t>GGCCATGCTA</t>
-  </si>
-  <si>
-    <t>CGGTATAAGC</t>
-  </si>
-  <si>
-    <t>TCGGCAATGG</t>
-  </si>
-  <si>
-    <t>GGCTCTATAA</t>
-  </si>
-  <si>
-    <t>CCAATATGGT</t>
-  </si>
-  <si>
-    <t>GTCTGAGCGA</t>
-  </si>
-  <si>
-    <t>CGTCGATAGC</t>
-  </si>
-  <si>
-    <t>ACCGATAGTT</t>
-  </si>
-  <si>
-    <t>GCGTAAGTCA</t>
-  </si>
-  <si>
-    <t>GTACTGTCCA</t>
-  </si>
-  <si>
-    <t>ACTGAGCTAG</t>
-  </si>
-  <si>
-    <t>AATTGCTCCG</t>
-  </si>
-  <si>
-    <t>ATCGGTTCAC</t>
-  </si>
-  <si>
-    <t>ATGCCGGTCA</t>
-  </si>
-  <si>
-    <t>AGGCAATCTG</t>
-  </si>
-  <si>
-    <t>GGCATACTGC</t>
-  </si>
-  <si>
-    <t>GGCATAGCTG</t>
   </si>
   <si>
     <t>Sequencing with UDIs. I7 is reverse complement. i5 sequence is not rc. May need to be rc'd for iseq</t>
@@ -10592,168 +10016,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -10775,69 +10038,6 @@
       <fill>
         <patternFill>
           <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -10935,35 +10135,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -10978,83 +10150,6 @@
       <fill>
         <patternFill>
           <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -11096,13 +10191,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -11118,6 +10206,13 @@
       <fill>
         <patternFill>
           <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -11152,14 +10247,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -11173,35 +10261,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -11236,14 +10296,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -11251,13 +10304,6 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -11292,7 +10338,28 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -11306,7 +10373,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="3" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -11320,7 +10387,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -11334,7 +10401,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="3" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -11348,7 +10415,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -11362,6 +10429,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -11369,7 +10450,462 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -11439,28 +10975,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -11475,97 +10990,6 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -13985,8 +13409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F41528F-A855-CA42-9C22-86E58EF94B09}">
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="120" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="120" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -19651,14 +19075,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M17">
-    <cfRule type="containsText" dxfId="148" priority="241" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",M17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="147" priority="242" operator="containsText" text="Plate3">
+    <cfRule type="containsText" dxfId="148" priority="242" operator="containsText" text="Plate3">
       <formula>NOT(ISERROR(SEARCH("Plate3",M17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="146" priority="243" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="147" priority="243" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",M17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="146" priority="241" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",M17)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="145" priority="244" operator="containsText" text="Plate1">
       <formula>NOT(ISERROR(SEARCH("Plate1",M17)))</formula>
@@ -19671,11 +19095,11 @@
     <cfRule type="containsText" dxfId="143" priority="223" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",O2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="221" operator="containsText" text="Plate4">
+    <cfRule type="containsText" dxfId="142" priority="222" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",O2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="141" priority="221" operator="containsText" text="Plate4">
       <formula>NOT(ISERROR(SEARCH("Plate4",O2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="222" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",O2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9">
@@ -19693,31 +19117,31 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11">
-    <cfRule type="containsText" dxfId="136" priority="213" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",O11)))</formula>
+    <cfRule type="containsText" dxfId="136" priority="216" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",O11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="135" priority="214" operator="containsText" text="Plate3">
+    <cfRule type="containsText" dxfId="135" priority="215" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",O11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="134" priority="214" operator="containsText" text="Plate3">
       <formula>NOT(ISERROR(SEARCH("Plate3",O11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="215" operator="containsText" text="Plate2">
-      <formula>NOT(ISERROR(SEARCH("Plate2",O11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="216" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",O11)))</formula>
+    <cfRule type="containsText" dxfId="133" priority="213" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",O11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O13">
-    <cfRule type="containsText" dxfId="132" priority="209" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",O13)))</formula>
+    <cfRule type="containsText" dxfId="132" priority="212" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",O13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="131" priority="210" operator="containsText" text="Plate3">
+    <cfRule type="containsText" dxfId="131" priority="211" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",O13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="130" priority="210" operator="containsText" text="Plate3">
       <formula>NOT(ISERROR(SEARCH("Plate3",O13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="211" operator="containsText" text="Plate2">
-      <formula>NOT(ISERROR(SEARCH("Plate2",O13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="212" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",O13)))</formula>
+    <cfRule type="containsText" dxfId="129" priority="209" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",O13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O15">
@@ -19749,73 +19173,73 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q7">
-    <cfRule type="containsText" dxfId="120" priority="181" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",Q2)))</formula>
+    <cfRule type="containsText" dxfId="120" priority="184" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",Q2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="119" priority="182" operator="containsText" text="Plate3">
+    <cfRule type="containsText" dxfId="119" priority="183" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",Q2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="118" priority="182" operator="containsText" text="Plate3">
       <formula>NOT(ISERROR(SEARCH("Plate3",Q2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="183" operator="containsText" text="Plate2">
-      <formula>NOT(ISERROR(SEARCH("Plate2",Q2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="184" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",Q2)))</formula>
+    <cfRule type="containsText" dxfId="117" priority="181" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",Q2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q9">
-    <cfRule type="containsText" dxfId="116" priority="177" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",Q9)))</formula>
+    <cfRule type="containsText" dxfId="116" priority="180" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",Q9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="178" operator="containsText" text="Plate3">
+    <cfRule type="containsText" dxfId="115" priority="179" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",Q9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="114" priority="178" operator="containsText" text="Plate3">
       <formula>NOT(ISERROR(SEARCH("Plate3",Q9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="179" operator="containsText" text="Plate2">
-      <formula>NOT(ISERROR(SEARCH("Plate2",Q9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="113" priority="180" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",Q9)))</formula>
+    <cfRule type="containsText" dxfId="113" priority="177" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",Q9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11">
-    <cfRule type="containsText" dxfId="112" priority="173" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",Q11)))</formula>
+    <cfRule type="containsText" dxfId="112" priority="176" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",Q11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="174" operator="containsText" text="Plate3">
+    <cfRule type="containsText" dxfId="111" priority="175" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",Q11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="110" priority="174" operator="containsText" text="Plate3">
       <formula>NOT(ISERROR(SEARCH("Plate3",Q11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="175" operator="containsText" text="Plate2">
-      <formula>NOT(ISERROR(SEARCH("Plate2",Q11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="176" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",Q11)))</formula>
+    <cfRule type="containsText" dxfId="109" priority="173" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",Q11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q13">
-    <cfRule type="containsText" dxfId="108" priority="170" operator="containsText" text="Plate3">
+    <cfRule type="containsText" dxfId="108" priority="172" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",Q13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="107" priority="171" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",Q13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="106" priority="170" operator="containsText" text="Plate3">
       <formula>NOT(ISERROR(SEARCH("Plate3",Q13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="107" priority="169" operator="containsText" text="Plate4">
+    <cfRule type="containsText" dxfId="105" priority="169" operator="containsText" text="Plate4">
       <formula>NOT(ISERROR(SEARCH("Plate4",Q13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="172" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",Q13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="171" operator="containsText" text="Plate2">
-      <formula>NOT(ISERROR(SEARCH("Plate2",Q13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q15">
-    <cfRule type="containsText" dxfId="104" priority="165" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",Q15)))</formula>
+    <cfRule type="containsText" dxfId="104" priority="168" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",Q15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="166" operator="containsText" text="Plate3">
+    <cfRule type="containsText" dxfId="103" priority="167" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",Q15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="102" priority="166" operator="containsText" text="Plate3">
       <formula>NOT(ISERROR(SEARCH("Plate3",Q15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="167" operator="containsText" text="Plate2">
-      <formula>NOT(ISERROR(SEARCH("Plate2",Q15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="168" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",Q15)))</formula>
+    <cfRule type="containsText" dxfId="101" priority="165" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",Q15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q17">
@@ -19833,45 +19257,45 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S7">
-    <cfRule type="containsText" dxfId="96" priority="141" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",S2)))</formula>
+    <cfRule type="containsText" dxfId="96" priority="144" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",S2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="95" priority="142" operator="containsText" text="Plate3">
+    <cfRule type="containsText" dxfId="95" priority="143" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",S2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="94" priority="142" operator="containsText" text="Plate3">
       <formula>NOT(ISERROR(SEARCH("Plate3",S2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="143" operator="containsText" text="Plate2">
-      <formula>NOT(ISERROR(SEARCH("Plate2",S2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="144" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",S2)))</formula>
+    <cfRule type="containsText" dxfId="93" priority="141" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",S2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S9">
-    <cfRule type="containsText" dxfId="92" priority="138" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",S9)))</formula>
+    <cfRule type="containsText" dxfId="92" priority="140" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",S9)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="91" priority="139" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",S9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="140" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",S9)))</formula>
+    <cfRule type="containsText" dxfId="90" priority="138" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",S9)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="89" priority="137" operator="containsText" text="Plate4">
       <formula>NOT(ISERROR(SEARCH("Plate4",S9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S11">
-    <cfRule type="containsText" dxfId="88" priority="133" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",S11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="136" operator="containsText" text="Plate1">
+    <cfRule type="containsText" dxfId="88" priority="136" operator="containsText" text="Plate1">
       <formula>NOT(ISERROR(SEARCH("Plate1",S11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="135" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="87" priority="135" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",S11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="134" operator="containsText" text="Plate3">
+    <cfRule type="containsText" dxfId="86" priority="134" operator="containsText" text="Plate3">
       <formula>NOT(ISERROR(SEARCH("Plate3",S11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="85" priority="133" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",S11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S13">
@@ -19889,56 +19313,56 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S15">
-    <cfRule type="containsText" dxfId="80" priority="125" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",S15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="128" operator="containsText" text="Plate1">
+    <cfRule type="containsText" dxfId="80" priority="128" operator="containsText" text="Plate1">
       <formula>NOT(ISERROR(SEARCH("Plate1",S15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="127" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="79" priority="127" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",S15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="126" operator="containsText" text="Plate3">
+    <cfRule type="containsText" dxfId="78" priority="126" operator="containsText" text="Plate3">
       <formula>NOT(ISERROR(SEARCH("Plate3",S15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="77" priority="125" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",S15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S17">
-    <cfRule type="containsText" dxfId="76" priority="121" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",S17)))</formula>
+    <cfRule type="containsText" dxfId="76" priority="124" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",S17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="122" operator="containsText" text="Plate3">
+    <cfRule type="containsText" dxfId="75" priority="123" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",S17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="74" priority="122" operator="containsText" text="Plate3">
       <formula>NOT(ISERROR(SEARCH("Plate3",S17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="123" operator="containsText" text="Plate2">
-      <formula>NOT(ISERROR(SEARCH("Plate2",S17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="124" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",S17)))</formula>
+    <cfRule type="containsText" dxfId="73" priority="121" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",S17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:U7">
     <cfRule type="containsText" dxfId="72" priority="104" operator="containsText" text="Plate1">
       <formula>NOT(ISERROR(SEARCH("Plate1",U2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="102" operator="containsText" text="Plate3">
+    <cfRule type="containsText" dxfId="71" priority="103" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",U2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="70" priority="102" operator="containsText" text="Plate3">
       <formula>NOT(ISERROR(SEARCH("Plate3",U2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="101" operator="containsText" text="Plate4">
+    <cfRule type="containsText" dxfId="69" priority="101" operator="containsText" text="Plate4">
       <formula>NOT(ISERROR(SEARCH("Plate4",U2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="103" operator="containsText" text="Plate2">
-      <formula>NOT(ISERROR(SEARCH("Plate2",U2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U9">
-    <cfRule type="containsText" dxfId="68" priority="98" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",U9)))</formula>
+    <cfRule type="containsText" dxfId="68" priority="100" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",U9)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="67" priority="99" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",U9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="100" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",U9)))</formula>
+    <cfRule type="containsText" dxfId="66" priority="98" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",U9)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="65" priority="97" operator="containsText" text="Plate4">
       <formula>NOT(ISERROR(SEARCH("Plate4",U9)))</formula>
@@ -19951,22 +19375,22 @@
     <cfRule type="containsText" dxfId="63" priority="95" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",U11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="93" operator="containsText" text="Plate4">
+    <cfRule type="containsText" dxfId="62" priority="94" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",U11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="61" priority="93" operator="containsText" text="Plate4">
       <formula>NOT(ISERROR(SEARCH("Plate4",U11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="94" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",U11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U13">
-    <cfRule type="containsText" dxfId="60" priority="90" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",U13)))</formula>
+    <cfRule type="containsText" dxfId="60" priority="92" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",U13)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="59" priority="91" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",U13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="92" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",U13)))</formula>
+    <cfRule type="containsText" dxfId="58" priority="90" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",U13)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="57" priority="89" operator="containsText" text="Plate4">
       <formula>NOT(ISERROR(SEARCH("Plate4",U13)))</formula>
@@ -20015,129 +19439,129 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W9">
-    <cfRule type="containsText" dxfId="44" priority="57" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",W9)))</formula>
+    <cfRule type="containsText" dxfId="44" priority="60" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",W9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="58" operator="containsText" text="Plate3">
+    <cfRule type="containsText" dxfId="43" priority="59" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",W9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="58" operator="containsText" text="Plate3">
       <formula>NOT(ISERROR(SEARCH("Plate3",W9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="59" operator="containsText" text="Plate2">
-      <formula>NOT(ISERROR(SEARCH("Plate2",W9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="60" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",W9)))</formula>
+    <cfRule type="containsText" dxfId="41" priority="57" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",W9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W11">
     <cfRule type="containsText" dxfId="40" priority="56" operator="containsText" text="Plate1">
       <formula>NOT(ISERROR(SEARCH("Plate1",W11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="53" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",W11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="55" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="39" priority="55" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",W11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="54" operator="containsText" text="Plate3">
+    <cfRule type="containsText" dxfId="38" priority="54" operator="containsText" text="Plate3">
       <formula>NOT(ISERROR(SEARCH("Plate3",W11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="53" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",W11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W13">
-    <cfRule type="containsText" dxfId="36" priority="49" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",W13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="52" operator="containsText" text="Plate1">
+    <cfRule type="containsText" dxfId="36" priority="52" operator="containsText" text="Plate1">
       <formula>NOT(ISERROR(SEARCH("Plate1",W13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="51" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="35" priority="51" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",W13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="50" operator="containsText" text="Plate3">
+    <cfRule type="containsText" dxfId="34" priority="50" operator="containsText" text="Plate3">
       <formula>NOT(ISERROR(SEARCH("Plate3",W13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="49" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",W13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W15">
     <cfRule type="containsText" dxfId="32" priority="48" operator="containsText" text="Plate1">
       <formula>NOT(ISERROR(SEARCH("Plate1",W15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="45" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",W15)))</formula>
+    <cfRule type="containsText" dxfId="31" priority="47" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",W15)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="30" priority="46" operator="containsText" text="Plate3">
       <formula>NOT(ISERROR(SEARCH("Plate3",W15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="47" operator="containsText" text="Plate2">
-      <formula>NOT(ISERROR(SEARCH("Plate2",W15)))</formula>
+    <cfRule type="containsText" dxfId="29" priority="45" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",W15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W17">
-    <cfRule type="containsText" dxfId="28" priority="41" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",W17)))</formula>
+    <cfRule type="containsText" dxfId="28" priority="44" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",W17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="42" operator="containsText" text="Plate3">
+    <cfRule type="containsText" dxfId="27" priority="43" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",W17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="42" operator="containsText" text="Plate3">
       <formula>NOT(ISERROR(SEARCH("Plate3",W17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="43" operator="containsText" text="Plate2">
-      <formula>NOT(ISERROR(SEARCH("Plate2",W17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="44" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",W17)))</formula>
+    <cfRule type="containsText" dxfId="25" priority="41" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",W17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2:Y7">
-    <cfRule type="containsText" dxfId="24" priority="23" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="24" priority="24" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",Y2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",Y2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="21" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",Y2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="22" priority="22" operator="containsText" text="Plate3">
       <formula>NOT(ISERROR(SEARCH("Plate3",Y2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",Y2)))</formula>
+    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",Y2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y9">
-    <cfRule type="containsText" dxfId="20" priority="17" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",Y9)))</formula>
+    <cfRule type="containsText" dxfId="20" priority="20" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",Y9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="18" operator="containsText" text="Plate3">
+    <cfRule type="containsText" dxfId="19" priority="19" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",Y9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="Plate3">
       <formula>NOT(ISERROR(SEARCH("Plate3",Y9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="20" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",Y9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="Plate2">
-      <formula>NOT(ISERROR(SEARCH("Plate2",Y9)))</formula>
+    <cfRule type="containsText" dxfId="17" priority="17" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",Y9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y11">
-    <cfRule type="containsText" dxfId="16" priority="15" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",Y11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",Y11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",Y11)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="Plate3">
       <formula>NOT(ISERROR(SEARCH("Plate3",Y11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="16" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",Y11)))</formula>
+    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",Y11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y13">
-    <cfRule type="containsText" dxfId="12" priority="10" operator="containsText" text="Plate3">
+    <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",Y13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="Plate2">
+      <formula>NOT(ISERROR(SEARCH("Plate2",Y13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="Plate3">
       <formula>NOT(ISERROR(SEARCH("Plate3",Y13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="Plate4">
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Plate4">
       <formula>NOT(ISERROR(SEARCH("Plate4",Y13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="Plate2">
-      <formula>NOT(ISERROR(SEARCH("Plate2",Y13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",Y13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y15">
@@ -33693,10 +33117,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I788"/>
+  <dimension ref="A1:I596"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -33778,7 +33202,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3243</v>
+        <v>3051</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -51131,967 +50555,8 @@
         <v>740</v>
       </c>
     </row>
-    <row r="597" spans="1:9">
-      <c r="E597" t="s">
-        <v>3051</v>
-      </c>
-    </row>
-    <row r="598" spans="1:9">
-      <c r="E598" t="s">
-        <v>3052</v>
-      </c>
-    </row>
-    <row r="599" spans="1:9">
-      <c r="E599" t="s">
-        <v>3053</v>
-      </c>
-    </row>
-    <row r="600" spans="1:9">
-      <c r="E600" t="s">
-        <v>3054</v>
-      </c>
-    </row>
-    <row r="601" spans="1:9">
-      <c r="E601" t="s">
-        <v>3055</v>
-      </c>
-    </row>
-    <row r="602" spans="1:9">
-      <c r="E602" t="s">
-        <v>3056</v>
-      </c>
-    </row>
-    <row r="603" spans="1:9">
-      <c r="E603" t="s">
-        <v>3057</v>
-      </c>
-    </row>
-    <row r="604" spans="1:9">
-      <c r="E604" t="s">
-        <v>3058</v>
-      </c>
-    </row>
-    <row r="605" spans="1:9">
-      <c r="E605" t="s">
-        <v>3059</v>
-      </c>
-    </row>
-    <row r="606" spans="1:9">
-      <c r="E606" t="s">
-        <v>3060</v>
-      </c>
-    </row>
-    <row r="607" spans="1:9">
-      <c r="E607" t="s">
-        <v>3061</v>
-      </c>
-    </row>
-    <row r="608" spans="1:9">
-      <c r="E608" t="s">
-        <v>3062</v>
-      </c>
-    </row>
-    <row r="609" spans="5:5">
-      <c r="E609" t="s">
-        <v>3063</v>
-      </c>
-    </row>
-    <row r="610" spans="5:5">
-      <c r="E610" t="s">
-        <v>3064</v>
-      </c>
-    </row>
-    <row r="611" spans="5:5">
-      <c r="E611" t="s">
-        <v>3065</v>
-      </c>
-    </row>
-    <row r="612" spans="5:5">
-      <c r="E612" t="s">
-        <v>3066</v>
-      </c>
-    </row>
-    <row r="613" spans="5:5">
-      <c r="E613" t="s">
-        <v>3067</v>
-      </c>
-    </row>
-    <row r="614" spans="5:5">
-      <c r="E614" t="s">
-        <v>3068</v>
-      </c>
-    </row>
-    <row r="615" spans="5:5">
-      <c r="E615" t="s">
-        <v>3069</v>
-      </c>
-    </row>
-    <row r="616" spans="5:5">
-      <c r="E616" t="s">
-        <v>3070</v>
-      </c>
-    </row>
-    <row r="617" spans="5:5">
-      <c r="E617" t="s">
-        <v>3071</v>
-      </c>
-    </row>
-    <row r="618" spans="5:5">
-      <c r="E618" t="s">
-        <v>3072</v>
-      </c>
-    </row>
-    <row r="619" spans="5:5">
-      <c r="E619" t="s">
-        <v>3073</v>
-      </c>
-    </row>
-    <row r="620" spans="5:5">
-      <c r="E620" t="s">
-        <v>3074</v>
-      </c>
-    </row>
-    <row r="621" spans="5:5">
-      <c r="E621" t="s">
-        <v>3075</v>
-      </c>
-    </row>
-    <row r="622" spans="5:5">
-      <c r="E622" t="s">
-        <v>3076</v>
-      </c>
-    </row>
-    <row r="623" spans="5:5">
-      <c r="E623" t="s">
-        <v>3077</v>
-      </c>
-    </row>
-    <row r="624" spans="5:5">
-      <c r="E624" t="s">
-        <v>3078</v>
-      </c>
-    </row>
-    <row r="625" spans="5:5">
-      <c r="E625" t="s">
-        <v>3079</v>
-      </c>
-    </row>
-    <row r="626" spans="5:5">
-      <c r="E626" t="s">
-        <v>3080</v>
-      </c>
-    </row>
-    <row r="627" spans="5:5">
-      <c r="E627" t="s">
-        <v>3081</v>
-      </c>
-    </row>
-    <row r="628" spans="5:5">
-      <c r="E628" t="s">
-        <v>3082</v>
-      </c>
-    </row>
-    <row r="629" spans="5:5">
-      <c r="E629" t="s">
-        <v>3083</v>
-      </c>
-    </row>
-    <row r="630" spans="5:5">
-      <c r="E630" t="s">
-        <v>3084</v>
-      </c>
-    </row>
-    <row r="631" spans="5:5">
-      <c r="E631" t="s">
-        <v>3085</v>
-      </c>
-    </row>
-    <row r="632" spans="5:5">
-      <c r="E632" t="s">
-        <v>3086</v>
-      </c>
-    </row>
-    <row r="633" spans="5:5">
-      <c r="E633" t="s">
-        <v>3087</v>
-      </c>
-    </row>
-    <row r="634" spans="5:5">
-      <c r="E634" t="s">
-        <v>3088</v>
-      </c>
-    </row>
-    <row r="635" spans="5:5">
-      <c r="E635" t="s">
-        <v>3089</v>
-      </c>
-    </row>
-    <row r="636" spans="5:5">
-      <c r="E636" t="s">
-        <v>3090</v>
-      </c>
-    </row>
-    <row r="637" spans="5:5">
-      <c r="E637" t="s">
-        <v>3091</v>
-      </c>
-    </row>
-    <row r="638" spans="5:5">
-      <c r="E638" t="s">
-        <v>3092</v>
-      </c>
-    </row>
-    <row r="639" spans="5:5">
-      <c r="E639" t="s">
-        <v>3093</v>
-      </c>
-    </row>
-    <row r="640" spans="5:5">
-      <c r="E640" t="s">
-        <v>3094</v>
-      </c>
-    </row>
-    <row r="641" spans="5:5">
-      <c r="E641" t="s">
-        <v>3095</v>
-      </c>
-    </row>
-    <row r="642" spans="5:5">
-      <c r="E642" t="s">
-        <v>3096</v>
-      </c>
-    </row>
-    <row r="643" spans="5:5">
-      <c r="E643" t="s">
-        <v>3097</v>
-      </c>
-    </row>
-    <row r="644" spans="5:5">
-      <c r="E644" t="s">
-        <v>3098</v>
-      </c>
-    </row>
-    <row r="645" spans="5:5">
-      <c r="E645" t="s">
-        <v>3099</v>
-      </c>
-    </row>
-    <row r="646" spans="5:5">
-      <c r="E646" t="s">
-        <v>3100</v>
-      </c>
-    </row>
-    <row r="647" spans="5:5">
-      <c r="E647" t="s">
-        <v>3101</v>
-      </c>
-    </row>
-    <row r="648" spans="5:5">
-      <c r="E648" t="s">
-        <v>3102</v>
-      </c>
-    </row>
-    <row r="649" spans="5:5">
-      <c r="E649" t="s">
-        <v>3103</v>
-      </c>
-    </row>
-    <row r="650" spans="5:5">
-      <c r="E650" t="s">
-        <v>3104</v>
-      </c>
-    </row>
-    <row r="651" spans="5:5">
-      <c r="E651" t="s">
-        <v>3105</v>
-      </c>
-    </row>
-    <row r="652" spans="5:5">
-      <c r="E652" t="s">
-        <v>3106</v>
-      </c>
-    </row>
-    <row r="653" spans="5:5">
-      <c r="E653" t="s">
-        <v>3107</v>
-      </c>
-    </row>
-    <row r="654" spans="5:5">
-      <c r="E654" t="s">
-        <v>3108</v>
-      </c>
-    </row>
-    <row r="655" spans="5:5">
-      <c r="E655" t="s">
-        <v>3109</v>
-      </c>
-    </row>
-    <row r="656" spans="5:5">
-      <c r="E656" t="s">
-        <v>3110</v>
-      </c>
-    </row>
-    <row r="657" spans="5:5">
-      <c r="E657" t="s">
-        <v>3111</v>
-      </c>
-    </row>
-    <row r="658" spans="5:5">
-      <c r="E658" t="s">
-        <v>3112</v>
-      </c>
-    </row>
-    <row r="659" spans="5:5">
-      <c r="E659" t="s">
-        <v>3113</v>
-      </c>
-    </row>
-    <row r="660" spans="5:5">
-      <c r="E660" t="s">
-        <v>3114</v>
-      </c>
-    </row>
-    <row r="661" spans="5:5">
-      <c r="E661" t="s">
-        <v>3115</v>
-      </c>
-    </row>
-    <row r="662" spans="5:5">
-      <c r="E662" t="s">
-        <v>3116</v>
-      </c>
-    </row>
-    <row r="663" spans="5:5">
-      <c r="E663" t="s">
-        <v>3117</v>
-      </c>
-    </row>
-    <row r="664" spans="5:5">
-      <c r="E664" t="s">
-        <v>3118</v>
-      </c>
-    </row>
-    <row r="665" spans="5:5">
-      <c r="E665" t="s">
-        <v>3119</v>
-      </c>
-    </row>
-    <row r="666" spans="5:5">
-      <c r="E666" t="s">
-        <v>3120</v>
-      </c>
-    </row>
-    <row r="667" spans="5:5">
-      <c r="E667" t="s">
-        <v>3121</v>
-      </c>
-    </row>
-    <row r="668" spans="5:5">
-      <c r="E668" t="s">
-        <v>3122</v>
-      </c>
-    </row>
-    <row r="669" spans="5:5">
-      <c r="E669" t="s">
-        <v>3123</v>
-      </c>
-    </row>
-    <row r="670" spans="5:5">
-      <c r="E670" t="s">
-        <v>3124</v>
-      </c>
-    </row>
-    <row r="671" spans="5:5">
-      <c r="E671" t="s">
-        <v>3125</v>
-      </c>
-    </row>
-    <row r="672" spans="5:5">
-      <c r="E672" t="s">
-        <v>3126</v>
-      </c>
-    </row>
-    <row r="673" spans="5:5">
-      <c r="E673" t="s">
-        <v>3127</v>
-      </c>
-    </row>
-    <row r="674" spans="5:5">
-      <c r="E674" t="s">
-        <v>3128</v>
-      </c>
-    </row>
-    <row r="675" spans="5:5">
-      <c r="E675" t="s">
-        <v>3129</v>
-      </c>
-    </row>
-    <row r="676" spans="5:5">
-      <c r="E676" t="s">
-        <v>3130</v>
-      </c>
-    </row>
-    <row r="677" spans="5:5">
-      <c r="E677" t="s">
-        <v>3131</v>
-      </c>
-    </row>
-    <row r="678" spans="5:5">
-      <c r="E678" t="s">
-        <v>3132</v>
-      </c>
-    </row>
-    <row r="679" spans="5:5">
-      <c r="E679" t="s">
-        <v>3133</v>
-      </c>
-    </row>
-    <row r="680" spans="5:5">
-      <c r="E680" t="s">
-        <v>3134</v>
-      </c>
-    </row>
-    <row r="681" spans="5:5">
-      <c r="E681" t="s">
-        <v>3135</v>
-      </c>
-    </row>
-    <row r="682" spans="5:5">
-      <c r="E682" t="s">
-        <v>3136</v>
-      </c>
-    </row>
-    <row r="683" spans="5:5">
-      <c r="E683" t="s">
-        <v>3137</v>
-      </c>
-    </row>
-    <row r="684" spans="5:5">
-      <c r="E684" t="s">
-        <v>3138</v>
-      </c>
-    </row>
-    <row r="685" spans="5:5">
-      <c r="E685" t="s">
-        <v>3139</v>
-      </c>
-    </row>
-    <row r="686" spans="5:5">
-      <c r="E686" t="s">
-        <v>3140</v>
-      </c>
-    </row>
-    <row r="687" spans="5:5">
-      <c r="E687" t="s">
-        <v>3141</v>
-      </c>
-    </row>
-    <row r="688" spans="5:5">
-      <c r="E688" t="s">
-        <v>3142</v>
-      </c>
-    </row>
-    <row r="689" spans="5:5">
-      <c r="E689" t="s">
-        <v>3143</v>
-      </c>
-    </row>
-    <row r="690" spans="5:5">
-      <c r="E690" t="s">
-        <v>3144</v>
-      </c>
-    </row>
-    <row r="691" spans="5:5">
-      <c r="E691" t="s">
-        <v>3145</v>
-      </c>
-    </row>
-    <row r="692" spans="5:5">
-      <c r="E692" t="s">
-        <v>3146</v>
-      </c>
-    </row>
-    <row r="693" spans="5:5">
-      <c r="E693" t="s">
-        <v>3147</v>
-      </c>
-    </row>
-    <row r="694" spans="5:5">
-      <c r="E694" t="s">
-        <v>3148</v>
-      </c>
-    </row>
-    <row r="695" spans="5:5">
-      <c r="E695" t="s">
-        <v>3149</v>
-      </c>
-    </row>
-    <row r="696" spans="5:5">
-      <c r="E696" t="s">
-        <v>3150</v>
-      </c>
-    </row>
-    <row r="697" spans="5:5">
-      <c r="E697" t="s">
-        <v>3151</v>
-      </c>
-    </row>
-    <row r="698" spans="5:5">
-      <c r="E698" t="s">
-        <v>3152</v>
-      </c>
-    </row>
-    <row r="699" spans="5:5">
-      <c r="E699" t="s">
-        <v>3153</v>
-      </c>
-    </row>
-    <row r="700" spans="5:5">
-      <c r="E700" t="s">
-        <v>3154</v>
-      </c>
-    </row>
-    <row r="701" spans="5:5">
-      <c r="E701" t="s">
-        <v>3155</v>
-      </c>
-    </row>
-    <row r="702" spans="5:5">
-      <c r="E702" t="s">
-        <v>3156</v>
-      </c>
-    </row>
-    <row r="703" spans="5:5">
-      <c r="E703" t="s">
-        <v>3157</v>
-      </c>
-    </row>
-    <row r="704" spans="5:5">
-      <c r="E704" t="s">
-        <v>3158</v>
-      </c>
-    </row>
-    <row r="705" spans="5:5">
-      <c r="E705" t="s">
-        <v>3159</v>
-      </c>
-    </row>
-    <row r="706" spans="5:5">
-      <c r="E706" t="s">
-        <v>3160</v>
-      </c>
-    </row>
-    <row r="707" spans="5:5">
-      <c r="E707" t="s">
-        <v>3161</v>
-      </c>
-    </row>
-    <row r="708" spans="5:5">
-      <c r="E708" t="s">
-        <v>3162</v>
-      </c>
-    </row>
-    <row r="709" spans="5:5">
-      <c r="E709" t="s">
-        <v>3163</v>
-      </c>
-    </row>
-    <row r="710" spans="5:5">
-      <c r="E710" t="s">
-        <v>3164</v>
-      </c>
-    </row>
-    <row r="711" spans="5:5">
-      <c r="E711" t="s">
-        <v>3165</v>
-      </c>
-    </row>
-    <row r="712" spans="5:5">
-      <c r="E712" t="s">
-        <v>3166</v>
-      </c>
-    </row>
-    <row r="713" spans="5:5">
-      <c r="E713" t="s">
-        <v>3167</v>
-      </c>
-    </row>
-    <row r="714" spans="5:5">
-      <c r="E714" t="s">
-        <v>3168</v>
-      </c>
-    </row>
-    <row r="715" spans="5:5">
-      <c r="E715" t="s">
-        <v>3169</v>
-      </c>
-    </row>
-    <row r="716" spans="5:5">
-      <c r="E716" t="s">
-        <v>3170</v>
-      </c>
-    </row>
-    <row r="717" spans="5:5">
-      <c r="E717" t="s">
-        <v>3171</v>
-      </c>
-    </row>
-    <row r="718" spans="5:5">
-      <c r="E718" t="s">
-        <v>3172</v>
-      </c>
-    </row>
-    <row r="719" spans="5:5">
-      <c r="E719" t="s">
-        <v>3173</v>
-      </c>
-    </row>
-    <row r="720" spans="5:5">
-      <c r="E720" t="s">
-        <v>3174</v>
-      </c>
-    </row>
-    <row r="721" spans="5:5">
-      <c r="E721" t="s">
-        <v>3175</v>
-      </c>
-    </row>
-    <row r="722" spans="5:5">
-      <c r="E722" t="s">
-        <v>3176</v>
-      </c>
-    </row>
-    <row r="723" spans="5:5">
-      <c r="E723" t="s">
-        <v>3177</v>
-      </c>
-    </row>
-    <row r="724" spans="5:5">
-      <c r="E724" t="s">
-        <v>3178</v>
-      </c>
-    </row>
-    <row r="725" spans="5:5">
-      <c r="E725" t="s">
-        <v>3179</v>
-      </c>
-    </row>
-    <row r="726" spans="5:5">
-      <c r="E726" t="s">
-        <v>3180</v>
-      </c>
-    </row>
-    <row r="727" spans="5:5">
-      <c r="E727" t="s">
-        <v>3181</v>
-      </c>
-    </row>
-    <row r="728" spans="5:5">
-      <c r="E728" t="s">
-        <v>3182</v>
-      </c>
-    </row>
-    <row r="729" spans="5:5">
-      <c r="E729" t="s">
-        <v>3183</v>
-      </c>
-    </row>
-    <row r="730" spans="5:5">
-      <c r="E730" t="s">
-        <v>3184</v>
-      </c>
-    </row>
-    <row r="731" spans="5:5">
-      <c r="E731" t="s">
-        <v>3185</v>
-      </c>
-    </row>
-    <row r="732" spans="5:5">
-      <c r="E732" t="s">
-        <v>3186</v>
-      </c>
-    </row>
-    <row r="733" spans="5:5">
-      <c r="E733" t="s">
-        <v>3187</v>
-      </c>
-    </row>
-    <row r="734" spans="5:5">
-      <c r="E734" t="s">
-        <v>3188</v>
-      </c>
-    </row>
-    <row r="735" spans="5:5">
-      <c r="E735" t="s">
-        <v>3189</v>
-      </c>
-    </row>
-    <row r="736" spans="5:5">
-      <c r="E736" t="s">
-        <v>3190</v>
-      </c>
-    </row>
-    <row r="737" spans="5:5">
-      <c r="E737" t="s">
-        <v>3191</v>
-      </c>
-    </row>
-    <row r="738" spans="5:5">
-      <c r="E738" t="s">
-        <v>3192</v>
-      </c>
-    </row>
-    <row r="739" spans="5:5">
-      <c r="E739" t="s">
-        <v>3193</v>
-      </c>
-    </row>
-    <row r="740" spans="5:5">
-      <c r="E740" t="s">
-        <v>3194</v>
-      </c>
-    </row>
-    <row r="741" spans="5:5">
-      <c r="E741" t="s">
-        <v>3195</v>
-      </c>
-    </row>
-    <row r="742" spans="5:5">
-      <c r="E742" t="s">
-        <v>3196</v>
-      </c>
-    </row>
-    <row r="743" spans="5:5">
-      <c r="E743" t="s">
-        <v>3197</v>
-      </c>
-    </row>
-    <row r="744" spans="5:5">
-      <c r="E744" t="s">
-        <v>3198</v>
-      </c>
-    </row>
-    <row r="745" spans="5:5">
-      <c r="E745" t="s">
-        <v>3199</v>
-      </c>
-    </row>
-    <row r="746" spans="5:5">
-      <c r="E746" t="s">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="747" spans="5:5">
-      <c r="E747" t="s">
-        <v>3201</v>
-      </c>
-    </row>
-    <row r="748" spans="5:5">
-      <c r="E748" t="s">
-        <v>3202</v>
-      </c>
-    </row>
-    <row r="749" spans="5:5">
-      <c r="E749" t="s">
-        <v>3203</v>
-      </c>
-    </row>
-    <row r="750" spans="5:5">
-      <c r="E750" t="s">
-        <v>3204</v>
-      </c>
-    </row>
-    <row r="751" spans="5:5">
-      <c r="E751" t="s">
-        <v>3205</v>
-      </c>
-    </row>
-    <row r="752" spans="5:5">
-      <c r="E752" t="s">
-        <v>3206</v>
-      </c>
-    </row>
-    <row r="753" spans="5:5">
-      <c r="E753" t="s">
-        <v>3207</v>
-      </c>
-    </row>
-    <row r="754" spans="5:5">
-      <c r="E754" t="s">
-        <v>3208</v>
-      </c>
-    </row>
-    <row r="755" spans="5:5">
-      <c r="E755" t="s">
-        <v>3209</v>
-      </c>
-    </row>
-    <row r="756" spans="5:5">
-      <c r="E756" t="s">
-        <v>3210</v>
-      </c>
-    </row>
-    <row r="757" spans="5:5">
-      <c r="E757" t="s">
-        <v>3211</v>
-      </c>
-    </row>
-    <row r="758" spans="5:5">
-      <c r="E758" t="s">
-        <v>3212</v>
-      </c>
-    </row>
-    <row r="759" spans="5:5">
-      <c r="E759" t="s">
-        <v>3213</v>
-      </c>
-    </row>
-    <row r="760" spans="5:5">
-      <c r="E760" t="s">
-        <v>3214</v>
-      </c>
-    </row>
-    <row r="761" spans="5:5">
-      <c r="E761" t="s">
-        <v>3215</v>
-      </c>
-    </row>
-    <row r="762" spans="5:5">
-      <c r="E762" t="s">
-        <v>3216</v>
-      </c>
-    </row>
-    <row r="763" spans="5:5">
-      <c r="E763" t="s">
-        <v>3217</v>
-      </c>
-    </row>
-    <row r="764" spans="5:5">
-      <c r="E764" t="s">
-        <v>3218</v>
-      </c>
-    </row>
-    <row r="765" spans="5:5">
-      <c r="E765" t="s">
-        <v>3219</v>
-      </c>
-    </row>
-    <row r="766" spans="5:5">
-      <c r="E766" t="s">
-        <v>3220</v>
-      </c>
-    </row>
-    <row r="767" spans="5:5">
-      <c r="E767" t="s">
-        <v>3221</v>
-      </c>
-    </row>
-    <row r="768" spans="5:5">
-      <c r="E768" t="s">
-        <v>3222</v>
-      </c>
-    </row>
-    <row r="769" spans="5:5">
-      <c r="E769" t="s">
-        <v>3223</v>
-      </c>
-    </row>
-    <row r="770" spans="5:5">
-      <c r="E770" t="s">
-        <v>3224</v>
-      </c>
-    </row>
-    <row r="771" spans="5:5">
-      <c r="E771" t="s">
-        <v>3225</v>
-      </c>
-    </row>
-    <row r="772" spans="5:5">
-      <c r="E772" t="s">
-        <v>3226</v>
-      </c>
-    </row>
-    <row r="773" spans="5:5">
-      <c r="E773" t="s">
-        <v>3227</v>
-      </c>
-    </row>
-    <row r="774" spans="5:5">
-      <c r="E774" t="s">
-        <v>3228</v>
-      </c>
-    </row>
-    <row r="775" spans="5:5">
-      <c r="E775" t="s">
-        <v>3229</v>
-      </c>
-    </row>
-    <row r="776" spans="5:5">
-      <c r="E776" t="s">
-        <v>3230</v>
-      </c>
-    </row>
-    <row r="777" spans="5:5">
-      <c r="E777" t="s">
-        <v>3231</v>
-      </c>
-    </row>
-    <row r="778" spans="5:5">
-      <c r="E778" t="s">
-        <v>3232</v>
-      </c>
-    </row>
-    <row r="779" spans="5:5">
-      <c r="E779" t="s">
-        <v>3233</v>
-      </c>
-    </row>
-    <row r="780" spans="5:5">
-      <c r="E780" t="s">
-        <v>3234</v>
-      </c>
-    </row>
-    <row r="781" spans="5:5">
-      <c r="E781" t="s">
-        <v>3235</v>
-      </c>
-    </row>
-    <row r="782" spans="5:5">
-      <c r="E782" t="s">
-        <v>3236</v>
-      </c>
-    </row>
-    <row r="783" spans="5:5">
-      <c r="E783" t="s">
-        <v>3237</v>
-      </c>
-    </row>
-    <row r="784" spans="5:5">
-      <c r="E784" t="s">
-        <v>3238</v>
-      </c>
-    </row>
-    <row r="785" spans="5:5">
-      <c r="E785" t="s">
-        <v>3239</v>
-      </c>
-    </row>
-    <row r="786" spans="5:5">
-      <c r="E786" t="s">
-        <v>3240</v>
-      </c>
-    </row>
-    <row r="787" spans="5:5">
-      <c r="E787" t="s">
-        <v>3241</v>
-      </c>
-    </row>
-    <row r="788" spans="5:5">
-      <c r="E788" t="s">
-        <v>3242</v>
-      </c>
-    </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Templates/IndexTrackingSheet.xlsx
+++ b/Templates/IndexTrackingSheet.xlsx
@@ -5,20 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Bisanz_Data/SequencingRuns/2024July15_NextSeq3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbisanz/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{727FC35A-252C-3541-B9E1-1CEDE9853011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B5BF554-3DC2-E74E-A2BB-BF620AECD795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="53800" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sample_Layouts" sheetId="8" r:id="rId1"/>
-    <sheet name="384_layout" sheetId="14" r:id="rId2"/>
-    <sheet name="PicoGreen" sheetId="9" r:id="rId3"/>
-    <sheet name="Loading.csv" sheetId="12" r:id="rId4"/>
-    <sheet name="LibQuant" sheetId="15" r:id="rId5"/>
-    <sheet name="SampleSheet.csv" sheetId="1" r:id="rId6"/>
+    <sheet name="Instructions" sheetId="16" r:id="rId1"/>
+    <sheet name="Sample_Layouts" sheetId="8" r:id="rId2"/>
+    <sheet name="384_layout" sheetId="14" r:id="rId3"/>
+    <sheet name="PicoGreen" sheetId="9" r:id="rId4"/>
+    <sheet name="Loading.csv" sheetId="12" r:id="rId5"/>
+    <sheet name="LibQuant" sheetId="15" r:id="rId6"/>
+    <sheet name="SampleSheet.csv" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7807" uniqueCount="3358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7838" uniqueCount="3389">
   <si>
     <t>Sample_ID</t>
   </si>
@@ -10125,6 +10126,99 @@
   </si>
   <si>
     <t>Sample Description:</t>
+  </si>
+  <si>
+    <t>Sample Naming:</t>
+  </si>
+  <si>
+    <t>Samples must be only letters, numbers, and underscores. No other characters including spaces are permitted.</t>
+  </si>
+  <si>
+    <t>Nomenclature of controls:</t>
+  </si>
+  <si>
+    <t>Zymo community standard:</t>
+  </si>
+  <si>
+    <t>ProjectID_ZymoCom_Plate[0-9]_[Well]</t>
+  </si>
+  <si>
+    <t>Zymo gDNA standard:</t>
+  </si>
+  <si>
+    <t>ProjectID_ZymoDNA_Plate[0-9]_[Well]</t>
+  </si>
+  <si>
+    <t>Negative Controls (Extraction Blanks):</t>
+  </si>
+  <si>
+    <t>ProjectID_ExtCon_Plate[0-9]_[Well]</t>
+  </si>
+  <si>
+    <t>Negative Controls (PCR NTCs):</t>
+  </si>
+  <si>
+    <t>ProjectID_NTC_Plate[0-9]_[Well]</t>
+  </si>
+  <si>
+    <t>INSTRUCTIONS</t>
+  </si>
+  <si>
+    <t>SAMPLE NAMES</t>
+  </si>
+  <si>
+    <t>The following CAN NOT be found in sample names: _S[0-9]+_ , _R[0-9]_, fastq, gz, _L[0-9]+_</t>
+  </si>
+  <si>
+    <t>No sample names can be repeated. Please check all sample names are unique (This includes the controls)</t>
+  </si>
+  <si>
+    <t>Examples of good names:</t>
+  </si>
+  <si>
+    <t>Bisanz1_Mouse1Group1</t>
+  </si>
+  <si>
+    <t>Bethany1_Participant42</t>
+  </si>
+  <si>
+    <t>Susan6_Mouse3Cdiff</t>
+  </si>
+  <si>
+    <t>Examples of bad names:</t>
+  </si>
+  <si>
+    <t>Sample1</t>
+  </si>
+  <si>
+    <t>NegativeControl</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>Bisanz1_Cdiff+fecal transplant</t>
+  </si>
+  <si>
+    <t>This cell will check for duplicated sample names:</t>
+  </si>
+  <si>
+    <t>All samples should be listed in the Sample_Layouts tab in their correct location in 96 well plates to enable tracking through library preparation and sequencing.</t>
+  </si>
+  <si>
+    <t>At points of protocol, samples will be re-arrayed into 384 well plates, their physical location is found in 384_layout, although no modifications to this tab should be made.</t>
+  </si>
+  <si>
+    <t>During quantification and pooling, quant-it flouresence values should be entered into the standard curve and raw values of the PicoGreen Tab</t>
+  </si>
+  <si>
+    <t>The Loading.csv tab will be automatically updated based on the quant-it data, and should not be manually changed.</t>
+  </si>
+  <si>
+    <t>Library quantification and QC values should be entered into LibQuant</t>
+  </si>
+  <si>
+    <t>The final sample sheet for sequencing is in SampleSheet.csv and should not be modified manually.</t>
   </si>
 </sst>
 </file>
@@ -10880,7 +10974,7 @@
     </xf>
     <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -10951,6 +11045,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -11067,1022 +11162,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12103,6 +11183,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="3" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -12111,13 +11198,6 @@
       <fill>
         <patternFill>
           <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12138,7 +11218,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="3" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12152,7 +11232,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12166,7 +11246,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="3" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12180,7 +11260,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12194,7 +11274,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="3" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12208,7 +11288,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12222,7 +11302,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="3" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12236,7 +11316,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12250,7 +11330,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="3" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12264,7 +11344,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12278,7 +11358,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="3" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12292,7 +11372,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12306,7 +11386,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="3" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12320,7 +11400,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12334,7 +11414,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="3" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12348,7 +11428,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12362,7 +11442,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="3" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12376,7 +11456,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12390,7 +11470,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="3" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12404,7 +11484,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12418,7 +11498,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="3" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12432,7 +11512,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12446,7 +11526,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="3" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12460,7 +11540,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12474,7 +11554,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="3" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12488,7 +11568,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12502,7 +11582,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="3" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12516,7 +11596,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12530,7 +11610,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="3" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12544,7 +11624,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12558,7 +11638,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="3" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12572,7 +11652,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12586,7 +11666,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="3" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12600,7 +11680,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12614,7 +11694,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="3" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12628,7 +11708,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12642,7 +11722,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="3" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12656,7 +11736,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12670,7 +11750,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="3" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12684,7 +11764,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12698,7 +11778,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="3" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12712,7 +11792,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12726,7 +11806,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="3" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12740,7 +11820,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12754,7 +11834,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="3" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12768,7 +11848,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12782,7 +11862,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="3" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12796,7 +11876,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12810,7 +11890,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="3" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12824,7 +11904,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12838,7 +11918,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="3" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12852,7 +11932,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12866,7 +11946,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="3" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12880,7 +11960,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12894,7 +11974,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="3" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12908,7 +11988,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12922,7 +12002,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="3" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12936,7 +12016,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12950,7 +12030,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="3" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12964,7 +12044,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12978,7 +12058,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="3" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12992,7 +12072,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -13006,7 +12086,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="3" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -13020,7 +12100,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -13034,7 +12114,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="3" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -13048,7 +12128,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -13062,7 +12142,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="3" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -13076,7 +12156,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -13090,7 +12170,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="3" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -13104,7 +12184,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -13118,7 +12198,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="3" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -13132,7 +12212,1022 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -14513,11 +14608,191 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5167B69-78B9-414B-8F98-D750C630F874}">
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>3369</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="6"/>
+      <c r="B2" t="s">
+        <v>3383</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>3384</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>3385</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>3386</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>3387</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>3388</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>3370</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>3358</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>3359</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>3371</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>3372</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="6" t="s">
+        <v>3373</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>3374</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>3375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>3376</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B20" s="6" t="s">
+        <v>3377</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>3378</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>3379</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>3380</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>3381</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B27" s="13" t="s">
+        <v>3361</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3362</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B28" s="13" t="s">
+        <v>3363</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3364</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B29" s="13" t="s">
+        <v>3365</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3366</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B30" s="13" t="s">
+        <v>3367</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3368</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B31" s="13"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B32" s="13"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33" s="13"/>
+      <c r="C33" s="13" t="s">
+        <v>3382</v>
+      </c>
+      <c r="D33" s="46" t="str">
+        <f>IF(COUNTIF(SampleSheet.csv!$A$21:$A$596, SampleSheet.csv!$A$21)&gt;1,"!!!!!ERROR SAMPLES NAME ARE REPEATED!!!!!", "No sample names are repeated")</f>
+        <v>No sample names are repeated</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F41528F-A855-CA42-9C22-86E58EF94B09}">
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="168" zoomScaleNormal="100" zoomScalePageLayoutView="168" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView view="pageLayout" zoomScale="168" zoomScaleNormal="100" zoomScalePageLayoutView="168" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16856,12 +17131,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CAD92ED-C19E-8541-80E8-EF63E302B2BD}">
   <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A16" zoomScale="170" zoomScalePageLayoutView="170" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView view="pageLayout" topLeftCell="A17" zoomScale="170" zoomScalePageLayoutView="170" workbookViewId="0">
+      <selection activeCell="E32" sqref="D32:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19677,516 +19952,517 @@
       <c r="Y35" s="19"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="B2:B17 D2:D17 F2:F17 H2:H17 J2:J17 L2:L17 N2:N17 P2:P17 R2:R17 T2:T17 V2:V17 X2:X17">
-    <cfRule type="containsText" dxfId="302" priority="488" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",B2)))</formula>
+    <cfRule type="containsText" dxfId="302" priority="485" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="301" priority="487" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="301" priority="486" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",B2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="300" priority="487" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="300" priority="486" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",B2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="299" priority="485" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",B2)))</formula>
+    <cfRule type="containsText" dxfId="299" priority="488" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:Y35">
-    <cfRule type="containsText" dxfId="298" priority="484" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",B20)))</formula>
+    <cfRule type="containsText" dxfId="298" priority="481" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",B20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="297" priority="483" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="297" priority="482" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",B20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="296" priority="483" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",B20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="296" priority="482" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",B20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="295" priority="481" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",B20)))</formula>
+    <cfRule type="containsText" dxfId="295" priority="484" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",B20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C7">
-    <cfRule type="containsText" dxfId="294" priority="464" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",C2)))</formula>
+    <cfRule type="containsText" dxfId="294" priority="461" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="293" priority="463" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="293" priority="462" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="292" priority="463" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="292" priority="462" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",C2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="291" priority="461" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",C2)))</formula>
+    <cfRule type="containsText" dxfId="291" priority="464" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="containsText" dxfId="290" priority="460" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",C9)))</formula>
+    <cfRule type="containsText" dxfId="290" priority="457" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",C9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="289" priority="459" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="289" priority="458" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",C9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="288" priority="459" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",C9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="288" priority="458" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",C9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="287" priority="457" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",C9)))</formula>
+    <cfRule type="containsText" dxfId="287" priority="460" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",C9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="containsText" dxfId="286" priority="456" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",C11)))</formula>
+    <cfRule type="containsText" dxfId="286" priority="453" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",C11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="285" priority="455" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="285" priority="454" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",C11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="284" priority="455" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",C11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="284" priority="454" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",C11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="283" priority="453" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",C11)))</formula>
+    <cfRule type="containsText" dxfId="283" priority="456" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="containsText" dxfId="282" priority="452" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",C13)))</formula>
+    <cfRule type="containsText" dxfId="282" priority="449" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",C13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="281" priority="451" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="281" priority="450" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",C13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="280" priority="451" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",C13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="280" priority="450" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",C13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="279" priority="449" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",C13)))</formula>
+    <cfRule type="containsText" dxfId="279" priority="452" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",C13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="containsText" dxfId="278" priority="448" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",C15)))</formula>
+    <cfRule type="containsText" dxfId="278" priority="445" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",C15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="277" priority="447" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="277" priority="446" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",C15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="276" priority="447" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",C15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="276" priority="446" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",C15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="275" priority="445" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",C15)))</formula>
+    <cfRule type="containsText" dxfId="275" priority="448" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",C15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="containsText" dxfId="274" priority="444" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",C17)))</formula>
+    <cfRule type="containsText" dxfId="274" priority="441" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",C17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="273" priority="443" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="273" priority="442" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",C17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="272" priority="443" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",C17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="272" priority="442" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",C17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="271" priority="441" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",C17)))</formula>
+    <cfRule type="containsText" dxfId="271" priority="444" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",C17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E7">
-    <cfRule type="containsText" dxfId="270" priority="424" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",E2)))</formula>
+    <cfRule type="containsText" dxfId="270" priority="421" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="269" priority="423" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="269" priority="422" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="268" priority="423" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="268" priority="422" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",E2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="267" priority="421" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",E2)))</formula>
+    <cfRule type="containsText" dxfId="267" priority="424" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="containsText" dxfId="266" priority="420" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",E9)))</formula>
+    <cfRule type="containsText" dxfId="266" priority="417" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",E9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="265" priority="419" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="265" priority="418" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",E9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="264" priority="419" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",E9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="264" priority="418" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",E9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="263" priority="417" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",E9)))</formula>
+    <cfRule type="containsText" dxfId="263" priority="420" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",E9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="containsText" dxfId="262" priority="416" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",E11)))</formula>
+    <cfRule type="containsText" dxfId="262" priority="413" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",E11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="261" priority="415" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="261" priority="414" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",E11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="260" priority="415" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",E11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="260" priority="414" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",E11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="259" priority="413" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",E11)))</formula>
+    <cfRule type="containsText" dxfId="259" priority="416" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",E11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="containsText" dxfId="258" priority="412" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",E13)))</formula>
+    <cfRule type="containsText" dxfId="258" priority="409" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",E13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="257" priority="411" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="257" priority="410" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",E13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="256" priority="411" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",E13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="256" priority="410" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",E13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="255" priority="409" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",E13)))</formula>
+    <cfRule type="containsText" dxfId="255" priority="412" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",E13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="containsText" dxfId="254" priority="408" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",E15)))</formula>
+    <cfRule type="containsText" dxfId="254" priority="405" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",E15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="253" priority="407" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="253" priority="406" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",E15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="252" priority="407" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",E15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="252" priority="406" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",E15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="251" priority="405" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",E15)))</formula>
+    <cfRule type="containsText" dxfId="251" priority="408" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",E15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="containsText" dxfId="250" priority="404" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",E17)))</formula>
+    <cfRule type="containsText" dxfId="250" priority="401" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",E17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="249" priority="403" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="249" priority="402" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",E17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="248" priority="403" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",E17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="248" priority="402" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",E17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="247" priority="401" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",E17)))</formula>
+    <cfRule type="containsText" dxfId="247" priority="404" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",E17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G7">
-    <cfRule type="containsText" dxfId="246" priority="384" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",G2)))</formula>
+    <cfRule type="containsText" dxfId="246" priority="381" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="245" priority="383" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="245" priority="382" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="244" priority="383" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="244" priority="382" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",G2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="243" priority="381" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",G2)))</formula>
+    <cfRule type="containsText" dxfId="243" priority="384" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="containsText" dxfId="242" priority="380" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",G9)))</formula>
+    <cfRule type="containsText" dxfId="242" priority="377" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",G9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="241" priority="379" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="241" priority="378" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",G9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="240" priority="379" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",G9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="240" priority="378" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",G9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="239" priority="377" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",G9)))</formula>
+    <cfRule type="containsText" dxfId="239" priority="380" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",G9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="containsText" dxfId="238" priority="376" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",G11)))</formula>
+    <cfRule type="containsText" dxfId="238" priority="373" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",G11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="237" priority="375" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="237" priority="374" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",G11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="236" priority="375" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",G11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="236" priority="374" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",G11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="235" priority="373" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",G11)))</formula>
+    <cfRule type="containsText" dxfId="235" priority="376" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",G11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="containsText" dxfId="234" priority="372" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",G13)))</formula>
+    <cfRule type="containsText" dxfId="234" priority="369" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",G13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="233" priority="371" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="233" priority="370" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",G13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="232" priority="371" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",G13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="232" priority="370" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",G13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="231" priority="369" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",G13)))</formula>
+    <cfRule type="containsText" dxfId="231" priority="372" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",G13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="containsText" dxfId="230" priority="368" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",G15)))</formula>
+    <cfRule type="containsText" dxfId="230" priority="365" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",G15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="229" priority="367" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="229" priority="366" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",G15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="228" priority="367" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",G15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="228" priority="366" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",G15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="227" priority="365" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",G15)))</formula>
+    <cfRule type="containsText" dxfId="227" priority="368" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",G15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="containsText" dxfId="226" priority="364" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",G17)))</formula>
+    <cfRule type="containsText" dxfId="226" priority="361" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",G17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="225" priority="363" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="225" priority="362" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",G17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="224" priority="363" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",G17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="224" priority="362" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",G17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="223" priority="361" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",G17)))</formula>
+    <cfRule type="containsText" dxfId="223" priority="364" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",G17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I7">
-    <cfRule type="containsText" dxfId="222" priority="344" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",I2)))</formula>
+    <cfRule type="containsText" dxfId="222" priority="341" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",I2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="221" priority="343" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="221" priority="342" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",I2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="220" priority="343" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",I2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="220" priority="342" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",I2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="219" priority="341" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",I2)))</formula>
+    <cfRule type="containsText" dxfId="219" priority="344" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="containsText" dxfId="218" priority="340" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",I9)))</formula>
+    <cfRule type="containsText" dxfId="218" priority="337" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",I9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="217" priority="339" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="217" priority="338" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",I9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="216" priority="339" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",I9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="216" priority="338" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",I9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="215" priority="337" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",I9)))</formula>
+    <cfRule type="containsText" dxfId="215" priority="340" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",I9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="containsText" dxfId="214" priority="336" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",I11)))</formula>
+    <cfRule type="containsText" dxfId="214" priority="333" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",I11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="213" priority="335" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="213" priority="334" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",I11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="212" priority="335" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",I11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="212" priority="334" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",I11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="211" priority="333" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",I11)))</formula>
+    <cfRule type="containsText" dxfId="211" priority="336" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",I11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="210" priority="332" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",I13)))</formula>
+    <cfRule type="containsText" dxfId="210" priority="329" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",I13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="209" priority="331" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="209" priority="330" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",I13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="208" priority="331" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",I13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="208" priority="330" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",I13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="207" priority="329" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",I13)))</formula>
+    <cfRule type="containsText" dxfId="207" priority="332" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",I13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="containsText" dxfId="206" priority="328" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",I15)))</formula>
+    <cfRule type="containsText" dxfId="206" priority="325" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",I15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="205" priority="327" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="205" priority="326" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",I15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="204" priority="327" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",I15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="204" priority="326" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",I15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="203" priority="325" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",I15)))</formula>
+    <cfRule type="containsText" dxfId="203" priority="328" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",I15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17">
-    <cfRule type="containsText" dxfId="202" priority="324" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",I17)))</formula>
+    <cfRule type="containsText" dxfId="202" priority="321" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",I17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="201" priority="323" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="201" priority="322" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",I17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="200" priority="323" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",I17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="200" priority="322" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",I17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="199" priority="321" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",I17)))</formula>
+    <cfRule type="containsText" dxfId="199" priority="324" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",I17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K7">
-    <cfRule type="containsText" dxfId="198" priority="304" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",K2)))</formula>
+    <cfRule type="containsText" dxfId="198" priority="301" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",K2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="197" priority="303" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="197" priority="302" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",K2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="196" priority="303" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",K2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="196" priority="302" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",K2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="195" priority="301" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",K2)))</formula>
+    <cfRule type="containsText" dxfId="195" priority="304" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",K2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="containsText" dxfId="194" priority="300" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",K9)))</formula>
+    <cfRule type="containsText" dxfId="194" priority="297" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",K9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="193" priority="299" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="193" priority="298" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",K9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="192" priority="299" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",K9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="192" priority="298" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",K9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="191" priority="297" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",K9)))</formula>
+    <cfRule type="containsText" dxfId="191" priority="300" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",K9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="containsText" dxfId="190" priority="296" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",K11)))</formula>
+    <cfRule type="containsText" dxfId="190" priority="293" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",K11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="189" priority="295" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="189" priority="294" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",K11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="188" priority="295" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",K11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="188" priority="294" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",K11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="187" priority="293" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",K11)))</formula>
+    <cfRule type="containsText" dxfId="187" priority="296" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",K11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="containsText" dxfId="186" priority="292" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",K13)))</formula>
+    <cfRule type="containsText" dxfId="186" priority="289" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",K13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="185" priority="291" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="185" priority="290" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",K13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="184" priority="291" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",K13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="184" priority="290" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",K13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="183" priority="289" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",K13)))</formula>
+    <cfRule type="containsText" dxfId="183" priority="292" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",K13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="containsText" dxfId="182" priority="288" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",K15)))</formula>
+    <cfRule type="containsText" dxfId="182" priority="285" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",K15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="181" priority="287" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="181" priority="286" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",K15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="180" priority="287" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",K15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="180" priority="286" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",K15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="179" priority="285" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",K15)))</formula>
+    <cfRule type="containsText" dxfId="179" priority="288" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",K15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17">
-    <cfRule type="containsText" dxfId="178" priority="284" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",K17)))</formula>
+    <cfRule type="containsText" dxfId="178" priority="281" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",K17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="177" priority="283" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="177" priority="282" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",K17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="176" priority="283" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",K17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="176" priority="282" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",K17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="175" priority="281" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",K17)))</formula>
+    <cfRule type="containsText" dxfId="175" priority="284" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",K17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M7">
-    <cfRule type="containsText" dxfId="174" priority="264" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",M2)))</formula>
+    <cfRule type="containsText" dxfId="174" priority="261" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",M2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="173" priority="263" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="173" priority="262" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",M2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="172" priority="263" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",M2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="172" priority="262" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",M2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="261" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",M2)))</formula>
+    <cfRule type="containsText" dxfId="171" priority="264" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",M2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9">
-    <cfRule type="containsText" dxfId="170" priority="260" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",M9)))</formula>
+    <cfRule type="containsText" dxfId="170" priority="257" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",M9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="169" priority="259" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="169" priority="258" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",M9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="168" priority="259" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",M9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="168" priority="258" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",M9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="167" priority="257" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",M9)))</formula>
+    <cfRule type="containsText" dxfId="167" priority="260" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",M9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11">
-    <cfRule type="containsText" dxfId="166" priority="256" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",M11)))</formula>
+    <cfRule type="containsText" dxfId="166" priority="253" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",M11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="165" priority="255" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="165" priority="254" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",M11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="164" priority="255" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",M11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="164" priority="254" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",M11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="163" priority="253" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",M11)))</formula>
+    <cfRule type="containsText" dxfId="163" priority="256" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",M11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13">
-    <cfRule type="containsText" dxfId="162" priority="252" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",M13)))</formula>
+    <cfRule type="containsText" dxfId="162" priority="249" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",M13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="161" priority="251" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="161" priority="250" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",M13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="160" priority="251" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",M13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="250" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",M13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="159" priority="249" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",M13)))</formula>
+    <cfRule type="containsText" dxfId="159" priority="252" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",M13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15">
-    <cfRule type="containsText" dxfId="158" priority="246" operator="containsText" text="Plate3">
+    <cfRule type="containsText" dxfId="158" priority="245" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",M15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="157" priority="246" operator="containsText" text="Plate3">
       <formula>NOT(ISERROR(SEARCH("Plate3",M15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="157" priority="245" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",M15)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="156" priority="247" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",M15)))</formula>
@@ -20196,521 +20472,521 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M17">
-    <cfRule type="containsText" dxfId="154" priority="242" operator="containsText" text="Plate3">
+    <cfRule type="containsText" dxfId="154" priority="241" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",M17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="153" priority="242" operator="containsText" text="Plate3">
       <formula>NOT(ISERROR(SEARCH("Plate3",M17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="153" priority="243" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="152" priority="243" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",M17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="152" priority="241" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",M17)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="151" priority="244" operator="containsText" text="Plate1">
       <formula>NOT(ISERROR(SEARCH("Plate1",M17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O7">
-    <cfRule type="containsText" dxfId="150" priority="224" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",O2)))</formula>
+    <cfRule type="containsText" dxfId="150" priority="221" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",O2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="149" priority="223" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="149" priority="222" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",O2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="148" priority="223" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",O2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="222" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",O2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="147" priority="221" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",O2)))</formula>
+    <cfRule type="containsText" dxfId="147" priority="224" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",O2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9">
-    <cfRule type="containsText" dxfId="146" priority="220" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",O9)))</formula>
+    <cfRule type="containsText" dxfId="146" priority="217" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",O9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="145" priority="219" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="145" priority="218" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",O9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="144" priority="219" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",O9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="144" priority="218" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",O9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="143" priority="217" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",O9)))</formula>
+    <cfRule type="containsText" dxfId="143" priority="220" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",O9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11">
-    <cfRule type="containsText" dxfId="142" priority="216" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",O11)))</formula>
+    <cfRule type="containsText" dxfId="142" priority="213" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",O11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="215" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="141" priority="214" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",O11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="140" priority="215" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",O11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="140" priority="214" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",O11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="139" priority="213" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",O11)))</formula>
+    <cfRule type="containsText" dxfId="139" priority="216" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",O11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O13">
-    <cfRule type="containsText" dxfId="138" priority="212" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",O13)))</formula>
+    <cfRule type="containsText" dxfId="138" priority="209" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",O13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="137" priority="211" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="137" priority="210" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",O13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="136" priority="211" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",O13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="210" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",O13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="135" priority="209" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",O13)))</formula>
+    <cfRule type="containsText" dxfId="135" priority="212" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",O13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O15">
-    <cfRule type="containsText" dxfId="134" priority="208" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",O15)))</formula>
+    <cfRule type="containsText" dxfId="134" priority="205" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",O15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="207" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="133" priority="206" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",O15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="132" priority="207" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",O15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="206" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",O15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="131" priority="205" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",O15)))</formula>
+    <cfRule type="containsText" dxfId="131" priority="208" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",O15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O17">
-    <cfRule type="containsText" dxfId="130" priority="204" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",O17)))</formula>
+    <cfRule type="containsText" dxfId="130" priority="201" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",O17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="203" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="129" priority="202" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",O17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="128" priority="203" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",O17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="128" priority="202" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",O17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="201" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",O17)))</formula>
+    <cfRule type="containsText" dxfId="127" priority="204" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",O17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q7">
-    <cfRule type="containsText" dxfId="126" priority="184" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",Q2)))</formula>
+    <cfRule type="containsText" dxfId="126" priority="181" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",Q2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="125" priority="183" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="125" priority="182" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",Q2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="124" priority="183" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",Q2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="182" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",Q2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="181" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",Q2)))</formula>
+    <cfRule type="containsText" dxfId="123" priority="184" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",Q2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q9">
-    <cfRule type="containsText" dxfId="122" priority="180" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",Q9)))</formula>
+    <cfRule type="containsText" dxfId="122" priority="177" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",Q9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="179" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="121" priority="178" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",Q9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="120" priority="179" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",Q9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="178" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",Q9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="119" priority="177" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",Q9)))</formula>
+    <cfRule type="containsText" dxfId="119" priority="180" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",Q9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11">
-    <cfRule type="containsText" dxfId="118" priority="176" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",Q11)))</formula>
+    <cfRule type="containsText" dxfId="118" priority="173" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",Q11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="175" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="117" priority="174" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",Q11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="116" priority="175" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",Q11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="116" priority="174" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",Q11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="173" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",Q11)))</formula>
+    <cfRule type="containsText" dxfId="115" priority="176" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",Q11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q13">
-    <cfRule type="containsText" dxfId="114" priority="172" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",Q13)))</formula>
+    <cfRule type="containsText" dxfId="114" priority="169" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",Q13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="113" priority="171" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="113" priority="170" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",Q13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="112" priority="171" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",Q13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="170" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",Q13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="169" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",Q13)))</formula>
+    <cfRule type="containsText" dxfId="111" priority="172" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",Q13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q15">
-    <cfRule type="containsText" dxfId="110" priority="168" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",Q15)))</formula>
+    <cfRule type="containsText" dxfId="110" priority="165" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",Q15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="167" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="109" priority="166" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",Q15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="108" priority="167" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",Q15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="166" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",Q15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="107" priority="165" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",Q15)))</formula>
+    <cfRule type="containsText" dxfId="107" priority="168" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",Q15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q17">
-    <cfRule type="containsText" dxfId="106" priority="164" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",Q17)))</formula>
+    <cfRule type="containsText" dxfId="106" priority="161" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",Q17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="163" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="105" priority="162" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",Q17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="104" priority="163" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",Q17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="162" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",Q17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="161" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",Q17)))</formula>
+    <cfRule type="containsText" dxfId="103" priority="164" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",Q17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S7">
-    <cfRule type="containsText" dxfId="102" priority="144" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",S2)))</formula>
+    <cfRule type="containsText" dxfId="102" priority="141" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",S2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="143" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="101" priority="142" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",S2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="100" priority="143" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",S2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="142" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",S2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="141" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",S2)))</formula>
+    <cfRule type="containsText" dxfId="99" priority="144" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",S2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S9">
-    <cfRule type="containsText" dxfId="98" priority="140" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",S9)))</formula>
+    <cfRule type="containsText" dxfId="98" priority="137" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",S9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="139" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="97" priority="138" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",S9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="96" priority="139" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",S9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="138" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",S9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="95" priority="137" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",S9)))</formula>
+    <cfRule type="containsText" dxfId="95" priority="140" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",S9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S11">
-    <cfRule type="containsText" dxfId="94" priority="136" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",S11)))</formula>
+    <cfRule type="containsText" dxfId="94" priority="133" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",S11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="135" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="93" priority="134" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",S11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="92" priority="135" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",S11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="134" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",S11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="133" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",S11)))</formula>
+    <cfRule type="containsText" dxfId="91" priority="136" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",S11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S13">
-    <cfRule type="containsText" dxfId="90" priority="132" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",S13)))</formula>
+    <cfRule type="containsText" dxfId="90" priority="129" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",S13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="131" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="89" priority="130" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",S13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="88" priority="131" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",S13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="130" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",S13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="129" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",S13)))</formula>
+    <cfRule type="containsText" dxfId="87" priority="132" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",S13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S15">
-    <cfRule type="containsText" dxfId="86" priority="128" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",S15)))</formula>
+    <cfRule type="containsText" dxfId="86" priority="125" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",S15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="127" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="85" priority="126" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",S15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="84" priority="127" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",S15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="126" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",S15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="125" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",S15)))</formula>
+    <cfRule type="containsText" dxfId="83" priority="128" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",S15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S17">
-    <cfRule type="containsText" dxfId="82" priority="124" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",S17)))</formula>
+    <cfRule type="containsText" dxfId="82" priority="121" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",S17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="123" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="81" priority="122" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",S17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="80" priority="123" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",S17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="122" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",S17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="121" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",S17)))</formula>
+    <cfRule type="containsText" dxfId="79" priority="124" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",S17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:U7">
-    <cfRule type="containsText" dxfId="78" priority="104" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",U2)))</formula>
+    <cfRule type="containsText" dxfId="78" priority="101" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",U2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="103" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="77" priority="102" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",U2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="76" priority="103" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",U2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="102" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",U2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="101" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",U2)))</formula>
+    <cfRule type="containsText" dxfId="75" priority="104" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",U2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U9">
-    <cfRule type="containsText" dxfId="74" priority="100" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",U9)))</formula>
+    <cfRule type="containsText" dxfId="74" priority="97" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",U9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="99" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="73" priority="98" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",U9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="72" priority="99" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",U9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="98" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",U9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="97" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",U9)))</formula>
+    <cfRule type="containsText" dxfId="71" priority="100" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",U9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U11">
-    <cfRule type="containsText" dxfId="70" priority="96" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",U11)))</formula>
+    <cfRule type="containsText" dxfId="70" priority="93" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",U11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="95" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="69" priority="94" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",U11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="68" priority="95" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",U11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="94" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",U11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="93" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",U11)))</formula>
+    <cfRule type="containsText" dxfId="67" priority="96" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",U11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U13">
-    <cfRule type="containsText" dxfId="66" priority="92" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",U13)))</formula>
+    <cfRule type="containsText" dxfId="66" priority="89" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",U13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="91" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="65" priority="90" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",U13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="64" priority="91" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",U13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="90" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",U13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="89" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",U13)))</formula>
+    <cfRule type="containsText" dxfId="63" priority="92" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",U13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U15">
-    <cfRule type="containsText" dxfId="62" priority="88" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",U15)))</formula>
+    <cfRule type="containsText" dxfId="62" priority="85" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",U15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="87" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="61" priority="86" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",U15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="60" priority="87" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",U15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="86" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",U15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="85" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",U15)))</formula>
+    <cfRule type="containsText" dxfId="59" priority="88" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",U15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U17">
-    <cfRule type="containsText" dxfId="58" priority="84" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",U17)))</formula>
+    <cfRule type="containsText" dxfId="58" priority="81" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",U17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="83" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="57" priority="82" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",U17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="56" priority="83" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",U17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="82" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",U17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="81" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",U17)))</formula>
+    <cfRule type="containsText" dxfId="55" priority="84" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",U17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W2:W7">
-    <cfRule type="containsText" dxfId="54" priority="64" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",W2)))</formula>
+    <cfRule type="containsText" dxfId="54" priority="61" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",W2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="63" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="53" priority="62" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",W2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="63" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",W2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="62" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",W2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="61" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",W2)))</formula>
+    <cfRule type="containsText" dxfId="51" priority="64" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",W2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W9">
-    <cfRule type="containsText" dxfId="50" priority="60" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",W9)))</formula>
+    <cfRule type="containsText" dxfId="50" priority="57" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",W9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="59" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="49" priority="58" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",W9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="48" priority="59" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",W9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="58" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",W9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="57" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",W9)))</formula>
+    <cfRule type="containsText" dxfId="47" priority="60" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",W9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W11">
-    <cfRule type="containsText" dxfId="46" priority="56" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",W11)))</formula>
+    <cfRule type="containsText" dxfId="46" priority="53" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",W11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="55" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="45" priority="54" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",W11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="44" priority="55" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",W11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="54" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",W11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="53" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",W11)))</formula>
+    <cfRule type="containsText" dxfId="43" priority="56" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",W11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W13">
-    <cfRule type="containsText" dxfId="42" priority="52" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",W13)))</formula>
+    <cfRule type="containsText" dxfId="42" priority="49" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",W13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="51" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="41" priority="50" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",W13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="51" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",W13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="50" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",W13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="49" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",W13)))</formula>
+    <cfRule type="containsText" dxfId="39" priority="52" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",W13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W15">
-    <cfRule type="containsText" dxfId="38" priority="48" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",W15)))</formula>
+    <cfRule type="containsText" dxfId="38" priority="45" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",W15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="47" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="37" priority="46" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",W15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="47" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",W15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="46" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",W15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="45" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",W15)))</formula>
+    <cfRule type="containsText" dxfId="35" priority="48" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",W15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W17">
-    <cfRule type="containsText" dxfId="34" priority="44" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",W17)))</formula>
+    <cfRule type="containsText" dxfId="34" priority="41" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",W17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="43" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="33" priority="42" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",W17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="32" priority="43" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",W17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="42" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",W17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="41" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",W17)))</formula>
+    <cfRule type="containsText" dxfId="31" priority="44" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",W17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2:Y7">
-    <cfRule type="containsText" dxfId="30" priority="24" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",Y2)))</formula>
+    <cfRule type="containsText" dxfId="30" priority="21" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",Y2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="23" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="29" priority="22" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",Y2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="23" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",Y2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="22" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",Y2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="21" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",Y2)))</formula>
+    <cfRule type="containsText" dxfId="27" priority="24" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",Y2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y9">
-    <cfRule type="containsText" dxfId="26" priority="20" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",Y9)))</formula>
+    <cfRule type="containsText" dxfId="26" priority="17" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",Y9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="19" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="25" priority="18" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",Y9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="19" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",Y9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="18" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",Y9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="17" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",Y9)))</formula>
+    <cfRule type="containsText" dxfId="23" priority="20" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",Y9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y11">
-    <cfRule type="containsText" dxfId="22" priority="16" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",Y11)))</formula>
+    <cfRule type="containsText" dxfId="22" priority="13" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",Y11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="15" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="21" priority="14" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",Y11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="15" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",Y11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="14" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",Y11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="13" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",Y11)))</formula>
+    <cfRule type="containsText" dxfId="19" priority="16" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",Y11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y13">
-    <cfRule type="containsText" dxfId="18" priority="12" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",Y13)))</formula>
+    <cfRule type="containsText" dxfId="18" priority="9" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",Y13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="11" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="17" priority="10" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",Y13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="11" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",Y13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="10" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",Y13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",Y13)))</formula>
+    <cfRule type="containsText" dxfId="15" priority="12" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",Y13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y15">
-    <cfRule type="containsText" dxfId="14" priority="8" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",Y15)))</formula>
+    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",Y15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="13" priority="6" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",Y15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="7" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",Y15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",Y15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",Y15)))</formula>
+    <cfRule type="containsText" dxfId="11" priority="8" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",Y15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y17">
-    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="Plate1">
-      <formula>NOT(ISERROR(SEARCH("Plate1",Y17)))</formula>
+    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="Plate4">
+      <formula>NOT(ISERROR(SEARCH("Plate4",Y17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Plate2">
+    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="Plate3">
+      <formula>NOT(ISERROR(SEARCH("Plate3",Y17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="Plate2">
       <formula>NOT(ISERROR(SEARCH("Plate2",Y17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="Plate3">
-      <formula>NOT(ISERROR(SEARCH("Plate3",Y17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Plate4">
-      <formula>NOT(ISERROR(SEARCH("Plate4",Y17)))</formula>
+    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="Plate1">
+      <formula>NOT(ISERROR(SEARCH("Plate1",Y17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.59" right="0.59" top="0.82341269841269837" bottom="0.59" header="0.23622047244094491" footer="0"/>
@@ -20722,7 +20998,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC116ACE-4026-CF4E-8A89-6E76894BE70E}">
   <dimension ref="A1:N199"/>
   <sheetViews>
@@ -27315,12 +27591,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ABCEF33-0497-B740-8697-A8FD31900166}">
   <dimension ref="A1:G578"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -42339,13 +42615,14 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD3F5211-BC17-2A4C-A188-CB7C82003ECA}">
   <dimension ref="A1:G23"/>
   <sheetViews>
@@ -42595,11 +42872,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I596"/>
   <sheetViews>
-    <sheetView zoomScale="123" zoomScaleNormal="123" workbookViewId="0">
+    <sheetView topLeftCell="A541" zoomScale="123" zoomScaleNormal="123" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>

--- a/Templates/IndexTrackingSheet.xlsx
+++ b/Templates/IndexTrackingSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbisanz/bisanzlab/github/OHMC_Colaboratory/Templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Bisanz_Data/SequencingRuns/2024July15_NextSeq3/libraryprep_v2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DA89E2-7FB7-D549-90CE-CE9735CD213C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E489201-B3B7-1344-9713-9B122FAE54CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="25260" windowHeight="21580" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="16" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12503" uniqueCount="3806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12505" uniqueCount="3808">
   <si>
     <t>Sample_ID</t>
   </si>
@@ -11472,6 +11472,12 @@
   </si>
   <si>
     <t>Index2</t>
+  </si>
+  <si>
+    <t>It is not a bad idea to include some experimental information in the same name to aid in their identification.</t>
+  </si>
+  <si>
+    <t>Make sure to keep some amount of experimental information in the same name like a participantID or treatment.</t>
   </si>
 </sst>
 </file>
@@ -15862,10 +15868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5167B69-78B9-414B-8F98-D750C630F874}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -15873,167 +15879,177 @@
     <col min="2" max="2" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="6" t="s">
         <v>3369</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:2">
       <c r="A2" s="6"/>
       <c r="B2" t="s">
         <v>3383</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="B3" t="s">
         <v>3384</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="B4" t="s">
         <v>3385</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="B5" t="s">
         <v>3386</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="B6" t="s">
         <v>3387</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="B7" t="s">
         <v>3388</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="6" t="s">
         <v>3370</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="6" t="s">
         <v>3358</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="B11" t="s">
         <v>3359</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="B12" t="s">
         <v>3371</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="B13" t="s">
         <v>3372</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="B15" s="6" t="s">
+    <row r="14" spans="1:2">
+      <c r="B14" t="s">
+        <v>3806</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" t="s">
+        <v>3807</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" s="6" t="s">
         <v>3373</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="C16" t="s">
-        <v>3374</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>3375</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="C18" t="s">
+        <v>3374</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" t="s">
+        <v>3375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
         <v>3376</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="B20" s="6" t="s">
+    <row r="22" spans="1:3">
+      <c r="B22" s="6" t="s">
         <v>3377</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="C21" t="s">
-        <v>3378</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="C22" t="s">
-        <v>3379</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="C23" t="s">
-        <v>3380</v>
+        <v>3378</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="C24" t="s">
+        <v>3379</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="C25" t="s">
+        <v>3380</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="C26" t="s">
         <v>3381</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="6" t="s">
+    <row r="28" spans="1:3">
+      <c r="A28" s="6" t="s">
         <v>3360</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="B27" s="13" t="s">
-        <v>3361</v>
-      </c>
-      <c r="C27" t="s">
-        <v>3362</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="B28" s="13" t="s">
-        <v>3363</v>
-      </c>
-      <c r="C28" t="s">
-        <v>3364</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="B29" s="13" t="s">
-        <v>3365</v>
+        <v>3361</v>
       </c>
       <c r="C29" t="s">
-        <v>3366</v>
+        <v>3362</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="B30" s="13" t="s">
+        <v>3363</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3364</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="B31" s="13" t="s">
+        <v>3365</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3366</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="B32" s="13" t="s">
         <v>3367</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C32" t="s">
         <v>3368</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="B31" s="13"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="B32" s="13"/>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="13"/>
-      <c r="C33" s="13" t="s">
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="13"/>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="13"/>
+      <c r="C35" s="13" t="s">
         <v>3382</v>
       </c>
-      <c r="D33" s="46" t="str">
+      <c r="D35" s="46" t="str">
         <f>IF(COUNTIF(SampleSheet.csv!$A$21:$A$596, SampleSheet.csv!$A$21)&gt;1,"!!!!!ERROR SAMPLES NAME ARE REPEATED!!!!!", "No sample names are repeated")</f>
         <v>No sample names are repeated</v>
       </c>
     </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="13"/>
+    <row r="36" spans="2:4">
+      <c r="B36" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20164,7 +20180,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="27">
+    <row r="20" spans="1:25" ht="24">
       <c r="A20" s="17" t="s">
         <v>128</v>
       </c>
@@ -20229,7 +20245,7 @@
       </c>
       <c r="Y20" s="19"/>
     </row>
-    <row r="21" spans="1:25" ht="27">
+    <row r="21" spans="1:25" ht="24">
       <c r="A21" s="17" t="s">
         <v>129</v>
       </c>
@@ -20294,7 +20310,7 @@
       </c>
       <c r="Y21" s="19"/>
     </row>
-    <row r="22" spans="1:25" ht="27">
+    <row r="22" spans="1:25" ht="24">
       <c r="A22" s="17" t="s">
         <v>130</v>
       </c>
@@ -20359,7 +20375,7 @@
       </c>
       <c r="Y22" s="19"/>
     </row>
-    <row r="23" spans="1:25" ht="27">
+    <row r="23" spans="1:25" ht="24">
       <c r="A23" s="17" t="s">
         <v>131</v>
       </c>
@@ -20424,7 +20440,7 @@
       </c>
       <c r="Y23" s="19"/>
     </row>
-    <row r="24" spans="1:25" ht="27">
+    <row r="24" spans="1:25" ht="24">
       <c r="A24" s="17" t="s">
         <v>132</v>
       </c>
@@ -20489,7 +20505,7 @@
       </c>
       <c r="Y24" s="19"/>
     </row>
-    <row r="25" spans="1:25" ht="27">
+    <row r="25" spans="1:25" ht="24">
       <c r="A25" s="17" t="s">
         <v>133</v>
       </c>
@@ -20554,7 +20570,7 @@
       </c>
       <c r="Y25" s="19"/>
     </row>
-    <row r="26" spans="1:25" ht="27">
+    <row r="26" spans="1:25" ht="24">
       <c r="A26" s="17" t="s">
         <v>134</v>
       </c>
@@ -20619,7 +20635,7 @@
       </c>
       <c r="Y26" s="19"/>
     </row>
-    <row r="27" spans="1:25" ht="27">
+    <row r="27" spans="1:25" ht="24">
       <c r="A27" s="17" t="s">
         <v>135</v>
       </c>
@@ -20684,7 +20700,7 @@
       </c>
       <c r="Y27" s="19"/>
     </row>
-    <row r="28" spans="1:25" ht="27">
+    <row r="28" spans="1:25" ht="24">
       <c r="A28" s="17" t="s">
         <v>1901</v>
       </c>
@@ -20749,7 +20765,7 @@
       </c>
       <c r="Y28" s="19"/>
     </row>
-    <row r="29" spans="1:25" ht="27">
+    <row r="29" spans="1:25" ht="24">
       <c r="A29" s="17" t="s">
         <v>1900</v>
       </c>
@@ -20814,7 +20830,7 @@
       </c>
       <c r="Y29" s="19"/>
     </row>
-    <row r="30" spans="1:25" ht="27">
+    <row r="30" spans="1:25" ht="24">
       <c r="A30" s="17" t="s">
         <v>1899</v>
       </c>
@@ -20879,7 +20895,7 @@
       </c>
       <c r="Y30" s="19"/>
     </row>
-    <row r="31" spans="1:25" ht="27">
+    <row r="31" spans="1:25" ht="24">
       <c r="A31" s="17" t="s">
         <v>1898</v>
       </c>
@@ -20944,7 +20960,7 @@
       </c>
       <c r="Y31" s="19"/>
     </row>
-    <row r="32" spans="1:25" ht="27">
+    <row r="32" spans="1:25" ht="24">
       <c r="A32" s="17" t="s">
         <v>1897</v>
       </c>
@@ -21009,7 +21025,7 @@
       </c>
       <c r="Y32" s="19"/>
     </row>
-    <row r="33" spans="1:25" ht="27">
+    <row r="33" spans="1:25" ht="24">
       <c r="A33" s="17" t="s">
         <v>1896</v>
       </c>
@@ -21074,7 +21090,7 @@
       </c>
       <c r="Y33" s="19"/>
     </row>
-    <row r="34" spans="1:25" ht="27">
+    <row r="34" spans="1:25" ht="24">
       <c r="A34" s="17" t="s">
         <v>1895</v>
       </c>
@@ -21139,7 +21155,7 @@
       </c>
       <c r="Y34" s="19"/>
     </row>
-    <row r="35" spans="1:25" ht="27">
+    <row r="35" spans="1:25" ht="24">
       <c r="A35" s="17" t="s">
         <v>1894</v>
       </c>
@@ -61575,8 +61591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54EB9071-2EB1-9740-800C-6080D02B11E0}">
   <dimension ref="A1:H595"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="123" zoomScaleNormal="123" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView zoomScale="123" zoomScaleNormal="123" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/Templates/IndexTrackingSheet.xlsx
+++ b/Templates/IndexTrackingSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Bisanz_Data/SequencingRuns/2024July15_NextSeq3/libraryprep_v2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E489201-B3B7-1344-9713-9B122FAE54CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D69BBC5-0549-784C-B6BE-3C5486A0F97B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="16" r:id="rId1"/>
@@ -40,8 +40,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12505" uniqueCount="3808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12506" uniqueCount="3809">
   <si>
     <t>Sample_ID</t>
   </si>
@@ -11478,6 +11500,9 @@
   </si>
   <si>
     <t>Make sure to keep some amount of experimental information in the same name like a participantID or treatment.</t>
+  </si>
+  <si>
+    <t>This cell will check for characters which are not allowed:</t>
   </si>
 </sst>
 </file>
@@ -15868,15 +15893,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5167B69-78B9-414B-8F98-D750C630F874}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -16049,7 +16075,16 @@
       </c>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="13"/>
+      <c r="C36" s="13" t="s">
+        <v>3808</v>
+      </c>
+      <c r="D36" s="46" t="str" cm="1">
+        <f t="array" aca="1" ref="D36" ca="1">IF(SUMPRODUCT(--ISNUMBER(FIND(MID(_xlfn.TEXTJOIN("", TRUE, SampleSheet.csv!$A$21:$A$596), ROW(INDIRECT("1:" &amp; LEN(_xlfn.TEXTJOIN("", TRUE, SampleSheet.csv!$A$21:$A$596)))), 1), "abcdefghijklmnopqrstuvwxyzABCDEFGHIJKLMNOPQRSTUVWXYZ0123456789_"))) = LEN(_xlfn.TEXTJOIN("", TRUE, SampleSheet.csv!$A$21:$A$596)), "All sample names are valid", "Invalid characters in sample names detected")</f>
+        <v>All sample names are valid</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="C37" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16061,7 +16096,7 @@
   <dimension ref="A1:M60"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScale="168" zoomScaleNormal="100" zoomScalePageLayoutView="168" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
